--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -1221,13 +1221,17 @@
         <v>250.5400000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>248.7</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1256,14 +1260,22 @@
         <v>250.5350000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1309,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1956,20 +1974,14 @@
         <v>249.9233333333335</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>249</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,20 +2009,14 @@
         <v>249.8783333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>249.8</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2038,20 +2044,14 @@
         <v>249.8483333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2079,20 +2079,14 @@
         <v>249.8400000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>250.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2120,20 +2114,14 @@
         <v>249.8183333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>249.9</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2168,11 +2156,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2207,11 +2191,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2246,11 +2226,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2285,11 +2261,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2324,11 +2296,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2363,11 +2331,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2402,11 +2366,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2441,11 +2401,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2436,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2519,11 +2471,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2558,11 +2506,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2597,11 +2541,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2576,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2611,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2646,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2753,11 +2681,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2716,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2831,11 +2751,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2786,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2821,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2948,11 +2856,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2891,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +2926,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +2961,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3104,11 +2996,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3143,11 +3031,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +3066,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3221,11 +3101,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3260,11 +3136,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3299,11 +3171,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3206,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +3241,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3416,11 +3276,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3455,11 +3311,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3494,11 +3346,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3533,11 +3381,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3572,11 +3416,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3611,11 +3451,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3486,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3689,11 +3521,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3728,11 +3556,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3767,11 +3591,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3799,20 +3619,14 @@
         <v>250.1349999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>249.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3847,11 +3661,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3696,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +3731,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3964,11 +3766,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +3801,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3836,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4074,20 +3864,14 @@
         <v>250.0633333333332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>248.4</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4122,11 +3906,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4154,20 +3934,14 @@
         <v>250.0616666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4195,20 +3969,14 @@
         <v>250.0533333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>248.2</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4236,20 +4004,14 @@
         <v>250.0399999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>248.2</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4277,20 +4039,14 @@
         <v>250.0466666666666</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>249.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4318,20 +4074,14 @@
         <v>250.0183333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>249.1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4359,20 +4109,14 @@
         <v>250.0133333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>249.1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4400,20 +4144,14 @@
         <v>250.0083333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>249.1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4441,20 +4179,14 @@
         <v>249.98</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>249.1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4482,20 +4214,14 @@
         <v>249.9716666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4523,20 +4249,14 @@
         <v>249.95</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4564,20 +4284,14 @@
         <v>249.9433333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4605,20 +4319,14 @@
         <v>249.9583333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>249.9</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4646,20 +4354,14 @@
         <v>249.97</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>250.7</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4687,20 +4389,14 @@
         <v>249.9683333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>250.7</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4735,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4813,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4845,20 +4529,14 @@
         <v>249.8833333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4886,20 +4564,14 @@
         <v>249.8666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>250.7</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4927,20 +4599,14 @@
         <v>249.85</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5007,20 +4669,14 @@
         <v>249.8200000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5048,20 +4704,14 @@
         <v>249.795</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>250</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5089,20 +4739,14 @@
         <v>249.8016666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>250</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5130,20 +4774,14 @@
         <v>249.7766666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>250</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5178,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +4851,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5256,11 +4886,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5295,11 +4921,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5327,20 +4949,14 @@
         <v>249.6983333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>249.6</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5368,20 +4984,14 @@
         <v>249.68</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5409,20 +5019,14 @@
         <v>249.6616666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5450,20 +5054,14 @@
         <v>249.6433333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5491,20 +5089,14 @@
         <v>249.6283333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5532,20 +5124,14 @@
         <v>249.6316666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>250.6</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5573,20 +5159,14 @@
         <v>249.645</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>250.6</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5621,11 +5201,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5236,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5271,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +5306,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5777,11 +5341,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5376,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5411,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5446,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5481,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5972,11 +5516,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6043,20 +5579,14 @@
         <v>249.5733333333334</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>248.6</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6084,20 +5614,14 @@
         <v>249.6266666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>251</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6125,20 +5649,14 @@
         <v>249.6383333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>251.2</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6173,11 +5691,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +5726,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6244,20 +5754,14 @@
         <v>249.6283333333335</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>250.6</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +5796,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6331,11 +5831,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6370,11 +5866,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6402,20 +5894,14 @@
         <v>249.6516666666668</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>249.7</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6443,20 +5929,14 @@
         <v>249.6466666666668</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>250.7</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6484,20 +5964,14 @@
         <v>249.7000000000002</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>251.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6006,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6571,11 +6041,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6076,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6642,20 +6104,14 @@
         <v>249.7683333333335</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>249.5</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +6146,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6729,11 +6181,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6761,20 +6209,14 @@
         <v>249.8033333333335</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>250.4</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6251,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6848,11 +6286,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +6321,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6919,20 +6349,14 @@
         <v>249.8233333333335</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>250.1</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6967,11 +6391,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6426,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7038,20 +6454,14 @@
         <v>249.7733333333335</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>249.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7079,20 +6489,14 @@
         <v>249.7633333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>250.1</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7120,20 +6524,14 @@
         <v>249.7800000000001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>250.5</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7161,20 +6559,14 @@
         <v>249.7966666666668</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>250</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +6601,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +6636,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +6671,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +6706,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +6741,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7404,11 +6776,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +6811,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7482,11 +6846,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7521,11 +6881,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7560,11 +6916,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7599,11 +6951,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7638,11 +6986,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +7021,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7056,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +7091,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7126,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7833,11 +7161,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7196,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7904,20 +7224,14 @@
         <v>249.8216666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>249.4</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7945,20 +7259,14 @@
         <v>249.7766666666666</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>248.5</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7986,20 +7294,14 @@
         <v>249.7633333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>249.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8027,20 +7329,14 @@
         <v>249.7433333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>250</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8068,20 +7364,14 @@
         <v>249.7499999999999</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>250</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8109,20 +7399,14 @@
         <v>249.7499999999999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>249.2</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8150,20 +7434,14 @@
         <v>249.7499999999999</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>250</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8191,20 +7469,14 @@
         <v>249.7499999999999</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>250</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8232,20 +7504,14 @@
         <v>249.7449999999999</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>250</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +7546,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8319,11 +7581,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8358,11 +7616,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8397,11 +7651,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8436,11 +7686,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8475,11 +7721,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +7756,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8553,11 +7791,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8592,11 +7826,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8631,11 +7861,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8670,11 +7896,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +7931,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8748,11 +7966,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8787,11 +8001,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8826,11 +8036,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +8071,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +8106,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +8141,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8176,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9021,11 +8211,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9060,11 +8246,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9099,11 +8281,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9138,11 +8316,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +8351,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9216,11 +8386,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9255,11 +8421,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9294,11 +8456,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +8491,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9372,11 +8526,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9411,11 +8561,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +8596,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +8631,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9528,11 +8666,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9567,11 +8701,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9606,11 +8736,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +8771,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9684,11 +8806,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +8841,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +8876,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +8911,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9840,11 +8946,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9875,16 +8977,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">

--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" t="n">
-        <v>249.9</v>
+        <v>251</v>
       </c>
       <c r="D2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E2" t="n">
-        <v>249.9</v>
+        <v>251</v>
       </c>
       <c r="F2" t="n">
-        <v>6438</v>
+        <v>257.0771</v>
       </c>
       <c r="G2" t="n">
-        <v>250.5616666666668</v>
+        <v>250.5333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>249.9</v>
+        <v>250</v>
       </c>
       <c r="C3" t="n">
         <v>249.9</v>
       </c>
       <c r="D3" t="n">
-        <v>249.9</v>
+        <v>250</v>
       </c>
       <c r="E3" t="n">
         <v>249.9</v>
       </c>
       <c r="F3" t="n">
-        <v>2898.3099</v>
+        <v>6438</v>
       </c>
       <c r="G3" t="n">
-        <v>250.5900000000001</v>
+        <v>250.5616666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>249.9</v>
       </c>
       <c r="F4" t="n">
-        <v>14122.9347</v>
+        <v>2898.3099</v>
       </c>
       <c r="G4" t="n">
-        <v>250.62</v>
+        <v>250.5900000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>249.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3321.8733</v>
+        <v>14122.9347</v>
       </c>
       <c r="G5" t="n">
-        <v>250.65</v>
+        <v>250.62</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>249.9</v>
       </c>
       <c r="F6" t="n">
-        <v>5626.7454</v>
+        <v>3321.8733</v>
       </c>
       <c r="G6" t="n">
-        <v>250.68</v>
+        <v>250.65</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="C7" t="n">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="D7" t="n">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="E7" t="n">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="F7" t="n">
-        <v>8132.5439</v>
+        <v>5626.7454</v>
       </c>
       <c r="G7" t="n">
-        <v>250.7083333333333</v>
+        <v>250.68</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>249.8</v>
       </c>
       <c r="F8" t="n">
-        <v>511.9999</v>
+        <v>8132.5439</v>
       </c>
       <c r="G8" t="n">
-        <v>250.7383333333333</v>
+        <v>250.7083333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>249.8</v>
       </c>
       <c r="F9" t="n">
-        <v>389.6325</v>
+        <v>511.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>250.7683333333333</v>
+        <v>250.7383333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>248.1</v>
+        <v>249.8</v>
       </c>
       <c r="C10" t="n">
-        <v>248.1</v>
+        <v>249.8</v>
       </c>
       <c r="D10" t="n">
-        <v>248.1</v>
+        <v>249.8</v>
       </c>
       <c r="E10" t="n">
-        <v>248.1</v>
+        <v>249.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1007.2052</v>
+        <v>389.6325</v>
       </c>
       <c r="G10" t="n">
-        <v>250.7733333333333</v>
+        <v>250.7683333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>249.9</v>
+        <v>248.1</v>
       </c>
       <c r="C11" t="n">
-        <v>249.9</v>
+        <v>248.1</v>
       </c>
       <c r="D11" t="n">
-        <v>249.9</v>
+        <v>248.1</v>
       </c>
       <c r="E11" t="n">
-        <v>249.9</v>
+        <v>248.1</v>
       </c>
       <c r="F11" t="n">
-        <v>165.3525</v>
+        <v>1007.2052</v>
       </c>
       <c r="G11" t="n">
-        <v>250.8083333333333</v>
+        <v>250.7733333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>250.1</v>
+        <v>249.9</v>
       </c>
       <c r="C12" t="n">
-        <v>250.1</v>
+        <v>249.9</v>
       </c>
       <c r="D12" t="n">
-        <v>250.1</v>
+        <v>249.9</v>
       </c>
       <c r="E12" t="n">
-        <v>250.1</v>
+        <v>249.9</v>
       </c>
       <c r="F12" t="n">
-        <v>19.5935</v>
+        <v>165.3525</v>
       </c>
       <c r="G12" t="n">
-        <v>250.845</v>
+        <v>250.8083333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>249.1</v>
+        <v>250.1</v>
       </c>
       <c r="C13" t="n">
-        <v>249.1</v>
+        <v>250.1</v>
       </c>
       <c r="D13" t="n">
-        <v>249.1</v>
+        <v>250.1</v>
       </c>
       <c r="E13" t="n">
-        <v>249.1</v>
+        <v>250.1</v>
       </c>
       <c r="F13" t="n">
-        <v>162.94</v>
+        <v>19.5935</v>
       </c>
       <c r="G13" t="n">
-        <v>250.865</v>
+        <v>250.845</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>250.1</v>
+        <v>249.1</v>
       </c>
       <c r="C14" t="n">
-        <v>250.6</v>
+        <v>249.1</v>
       </c>
       <c r="D14" t="n">
-        <v>250.6</v>
+        <v>249.1</v>
       </c>
       <c r="E14" t="n">
-        <v>250.1</v>
+        <v>249.1</v>
       </c>
       <c r="F14" t="n">
-        <v>3354.76237031</v>
+        <v>162.94</v>
       </c>
       <c r="G14" t="n">
-        <v>250.8766666666667</v>
+        <v>250.865</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>248.9</v>
+        <v>250.1</v>
       </c>
       <c r="C15" t="n">
-        <v>248.7</v>
+        <v>250.6</v>
       </c>
       <c r="D15" t="n">
-        <v>248.9</v>
+        <v>250.6</v>
       </c>
       <c r="E15" t="n">
-        <v>248.7</v>
+        <v>250.1</v>
       </c>
       <c r="F15" t="n">
-        <v>9983.104600000001</v>
+        <v>3354.76237031</v>
       </c>
       <c r="G15" t="n">
-        <v>250.835</v>
+        <v>250.8766666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250.4</v>
+        <v>248.9</v>
       </c>
       <c r="C16" t="n">
-        <v>250</v>
+        <v>248.7</v>
       </c>
       <c r="D16" t="n">
-        <v>252.1</v>
+        <v>248.9</v>
       </c>
       <c r="E16" t="n">
         <v>248.7</v>
       </c>
       <c r="F16" t="n">
-        <v>6266.4698</v>
+        <v>9983.104600000001</v>
       </c>
       <c r="G16" t="n">
         <v>250.835</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>248.7</v>
+        <v>250.4</v>
       </c>
       <c r="C17" t="n">
-        <v>248.7</v>
+        <v>250</v>
       </c>
       <c r="D17" t="n">
-        <v>248.7</v>
+        <v>252.1</v>
       </c>
       <c r="E17" t="n">
         <v>248.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1488.8207</v>
+        <v>6266.4698</v>
       </c>
       <c r="G17" t="n">
-        <v>250.8133333333334</v>
+        <v>250.835</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>248.7</v>
       </c>
       <c r="F18" t="n">
-        <v>278.7036</v>
+        <v>1488.8207</v>
       </c>
       <c r="G18" t="n">
-        <v>250.765</v>
+        <v>250.8133333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>248.7</v>
       </c>
       <c r="F19" t="n">
-        <v>243.0729</v>
+        <v>278.7036</v>
       </c>
       <c r="G19" t="n">
-        <v>250.7150000000001</v>
+        <v>250.765</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>248.7</v>
       </c>
       <c r="F20" t="n">
-        <v>124.1272</v>
+        <v>243.0729</v>
       </c>
       <c r="G20" t="n">
-        <v>250.6766666666667</v>
+        <v>250.7150000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>248.7</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>124.1272</v>
       </c>
       <c r="G21" t="n">
-        <v>250.6383333333334</v>
+        <v>250.6766666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>250.5833333333334</v>
+        <v>250.6383333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>248.7</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>250.5450000000001</v>
+        <v>250.5833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,35 +1203,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>250.7</v>
+        <v>248.7</v>
       </c>
       <c r="C24" t="n">
-        <v>250.7</v>
+        <v>248.7</v>
       </c>
       <c r="D24" t="n">
-        <v>250.7</v>
+        <v>248.7</v>
       </c>
       <c r="E24" t="n">
-        <v>250.7</v>
+        <v>248.7</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>250.5400000000001</v>
+        <v>250.5450000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>248.7</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1254,28 +1250,20 @@
         <v>250.7</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>250.5350000000001</v>
+        <v>250.5400000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1276,19 @@
         <v>250.7</v>
       </c>
       <c r="C26" t="n">
-        <v>250.6</v>
+        <v>250.7</v>
       </c>
       <c r="D26" t="n">
         <v>250.7</v>
       </c>
       <c r="E26" t="n">
-        <v>250.6</v>
+        <v>250.7</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>250.5116666666668</v>
+        <v>250.5350000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1309,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1326,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>252</v>
+        <v>250.7</v>
       </c>
       <c r="C27" t="n">
-        <v>250</v>
+        <v>250.6</v>
       </c>
       <c r="D27" t="n">
-        <v>252</v>
+        <v>250.7</v>
       </c>
       <c r="E27" t="n">
-        <v>250</v>
+        <v>250.6</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>250.4616666666668</v>
+        <v>250.5116666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1361,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C28" t="n">
         <v>250</v>
       </c>
       <c r="D28" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E28" t="n">
         <v>250</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>250.4450000000001</v>
+        <v>250.4616666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1396,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>250.8</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
         <v>250</v>
       </c>
       <c r="D29" t="n">
-        <v>250.8</v>
+        <v>250</v>
       </c>
       <c r="E29" t="n">
         <v>250</v>
       </c>
       <c r="F29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>250.3766666666668</v>
+        <v>250.4450000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1431,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>251.4</v>
+        <v>250.8</v>
       </c>
       <c r="C30" t="n">
-        <v>251.3</v>
+        <v>250</v>
       </c>
       <c r="D30" t="n">
-        <v>251.4</v>
+        <v>250.8</v>
       </c>
       <c r="E30" t="n">
-        <v>251.3</v>
+        <v>250</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>250.3650000000001</v>
+        <v>250.3766666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1466,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="C31" t="n">
         <v>251.3</v>
       </c>
-      <c r="C31" t="n">
-        <v>249</v>
-      </c>
       <c r="D31" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="E31" t="n">
         <v>251.3</v>
       </c>
-      <c r="E31" t="n">
-        <v>249</v>
-      </c>
       <c r="F31" t="n">
-        <v>42.16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>250.3150000000001</v>
+        <v>250.3650000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1501,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>249</v>
+        <v>251.3</v>
       </c>
       <c r="C32" t="n">
         <v>249</v>
       </c>
       <c r="D32" t="n">
-        <v>249</v>
+        <v>251.3</v>
       </c>
       <c r="E32" t="n">
         <v>249</v>
       </c>
       <c r="F32" t="n">
-        <v>32.5785</v>
+        <v>42.16</v>
       </c>
       <c r="G32" t="n">
-        <v>250.2650000000001</v>
+        <v>250.3150000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1548,10 +1530,10 @@
         <v>249</v>
       </c>
       <c r="F33" t="n">
-        <v>2.063</v>
+        <v>32.5785</v>
       </c>
       <c r="G33" t="n">
-        <v>250.1950000000001</v>
+        <v>250.2650000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1583,10 +1565,10 @@
         <v>249</v>
       </c>
       <c r="F34" t="n">
-        <v>8.1532</v>
+        <v>2.063</v>
       </c>
       <c r="G34" t="n">
-        <v>250.1450000000001</v>
+        <v>250.1950000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E35" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F35" t="n">
-        <v>15.6485</v>
+        <v>8.1532</v>
       </c>
       <c r="G35" t="n">
-        <v>250.1116666666668</v>
+        <v>250.1450000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1653,10 +1635,10 @@
         <v>250</v>
       </c>
       <c r="F36" t="n">
-        <v>3.3156</v>
+        <v>15.6485</v>
       </c>
       <c r="G36" t="n">
-        <v>250.1033333333334</v>
+        <v>250.1116666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1688,10 +1670,10 @@
         <v>250</v>
       </c>
       <c r="F37" t="n">
-        <v>5.9132</v>
+        <v>3.3156</v>
       </c>
       <c r="G37" t="n">
-        <v>250.0983333333334</v>
+        <v>250.1033333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>251.9</v>
+        <v>250</v>
       </c>
       <c r="C38" t="n">
-        <v>251.8</v>
+        <v>250</v>
       </c>
       <c r="D38" t="n">
-        <v>251.9</v>
+        <v>250</v>
       </c>
       <c r="E38" t="n">
-        <v>251.8</v>
+        <v>250</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>5.9132</v>
       </c>
       <c r="G38" t="n">
-        <v>250.1200000000001</v>
+        <v>250.0983333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1746,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>250</v>
+        <v>251.9</v>
       </c>
       <c r="C39" t="n">
-        <v>250</v>
+        <v>251.8</v>
       </c>
       <c r="D39" t="n">
-        <v>250</v>
+        <v>251.9</v>
       </c>
       <c r="E39" t="n">
-        <v>250</v>
+        <v>251.8</v>
       </c>
       <c r="F39" t="n">
-        <v>4.6362</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>250.1083333333334</v>
+        <v>250.1200000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1781,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C40" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D40" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E40" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>4.6362</v>
       </c>
       <c r="G40" t="n">
-        <v>250.0783333333334</v>
+        <v>250.1083333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C41" t="n">
-        <v>248.7</v>
+        <v>249</v>
       </c>
       <c r="D41" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E41" t="n">
-        <v>248.5</v>
+        <v>249</v>
       </c>
       <c r="F41" t="n">
-        <v>5168.2026</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>250.0433333333335</v>
+        <v>250.0783333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>248.7</v>
+        <v>251</v>
       </c>
       <c r="C42" t="n">
         <v>248.7</v>
       </c>
       <c r="D42" t="n">
-        <v>248.7</v>
+        <v>251</v>
       </c>
       <c r="E42" t="n">
-        <v>248.7</v>
+        <v>248.5</v>
       </c>
       <c r="F42" t="n">
-        <v>14.8241</v>
+        <v>5168.2026</v>
       </c>
       <c r="G42" t="n">
-        <v>250.0100000000001</v>
+        <v>250.0433333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>249</v>
+        <v>248.7</v>
       </c>
       <c r="C43" t="n">
-        <v>249</v>
+        <v>248.7</v>
       </c>
       <c r="D43" t="n">
-        <v>249</v>
+        <v>248.7</v>
       </c>
       <c r="E43" t="n">
-        <v>249</v>
+        <v>248.7</v>
       </c>
       <c r="F43" t="n">
-        <v>19.3286</v>
+        <v>14.8241</v>
       </c>
       <c r="G43" t="n">
-        <v>249.9716666666668</v>
+        <v>250.0100000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>248.7</v>
+        <v>249</v>
       </c>
       <c r="C44" t="n">
-        <v>248.7</v>
+        <v>249</v>
       </c>
       <c r="D44" t="n">
-        <v>248.7</v>
+        <v>249</v>
       </c>
       <c r="E44" t="n">
-        <v>248.7</v>
+        <v>249</v>
       </c>
       <c r="F44" t="n">
-        <v>4.3605</v>
+        <v>19.3286</v>
       </c>
       <c r="G44" t="n">
-        <v>249.9300000000001</v>
+        <v>249.9716666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1956,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>249</v>
+        <v>248.7</v>
       </c>
       <c r="C45" t="n">
-        <v>250.8</v>
+        <v>248.7</v>
       </c>
       <c r="D45" t="n">
-        <v>250.8</v>
+        <v>248.7</v>
       </c>
       <c r="E45" t="n">
-        <v>249</v>
+        <v>248.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1018.255</v>
+        <v>4.3605</v>
       </c>
       <c r="G45" t="n">
-        <v>249.9233333333335</v>
+        <v>249.9300000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>249.8</v>
+        <v>249</v>
       </c>
       <c r="C46" t="n">
-        <v>249.4</v>
+        <v>250.8</v>
       </c>
       <c r="D46" t="n">
         <v>250.8</v>
       </c>
       <c r="E46" t="n">
-        <v>248.4</v>
+        <v>249</v>
       </c>
       <c r="F46" t="n">
-        <v>2414.0084</v>
+        <v>1018.255</v>
       </c>
       <c r="G46" t="n">
-        <v>249.8783333333334</v>
+        <v>249.9233333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2026,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>249.4</v>
+        <v>249.8</v>
       </c>
       <c r="C47" t="n">
         <v>249.4</v>
       </c>
       <c r="D47" t="n">
-        <v>249.4</v>
+        <v>250.8</v>
       </c>
       <c r="E47" t="n">
-        <v>249.4</v>
+        <v>248.4</v>
       </c>
       <c r="F47" t="n">
-        <v>19.1861</v>
+        <v>2414.0084</v>
       </c>
       <c r="G47" t="n">
-        <v>249.8483333333334</v>
+        <v>249.8783333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2061,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>250.8</v>
+        <v>249.4</v>
       </c>
       <c r="C48" t="n">
-        <v>250.8</v>
+        <v>249.4</v>
       </c>
       <c r="D48" t="n">
-        <v>250.8</v>
+        <v>249.4</v>
       </c>
       <c r="E48" t="n">
-        <v>250.8</v>
+        <v>249.4</v>
       </c>
       <c r="F48" t="n">
-        <v>124.5976</v>
+        <v>19.1861</v>
       </c>
       <c r="G48" t="n">
-        <v>249.8400000000001</v>
+        <v>249.8483333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2096,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>249.9</v>
+        <v>250.8</v>
       </c>
       <c r="C49" t="n">
-        <v>249.9</v>
+        <v>250.8</v>
       </c>
       <c r="D49" t="n">
-        <v>249.9</v>
+        <v>250.8</v>
       </c>
       <c r="E49" t="n">
-        <v>249.9</v>
+        <v>250.8</v>
       </c>
       <c r="F49" t="n">
-        <v>25.1226</v>
+        <v>124.5976</v>
       </c>
       <c r="G49" t="n">
-        <v>249.8183333333334</v>
+        <v>249.8400000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2134,19 +2116,19 @@
         <v>249.9</v>
       </c>
       <c r="C50" t="n">
-        <v>250.7</v>
+        <v>249.9</v>
       </c>
       <c r="D50" t="n">
-        <v>250.8</v>
+        <v>249.9</v>
       </c>
       <c r="E50" t="n">
         <v>249.9</v>
       </c>
       <c r="F50" t="n">
-        <v>23.1569</v>
+        <v>25.1226</v>
       </c>
       <c r="G50" t="n">
-        <v>249.8100000000001</v>
+        <v>249.8183333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2169,19 +2151,19 @@
         <v>249.9</v>
       </c>
       <c r="C51" t="n">
-        <v>249.9</v>
+        <v>250.7</v>
       </c>
       <c r="D51" t="n">
-        <v>249.9</v>
+        <v>250.8</v>
       </c>
       <c r="E51" t="n">
         <v>249.9</v>
       </c>
       <c r="F51" t="n">
-        <v>9.25</v>
+        <v>23.1569</v>
       </c>
       <c r="G51" t="n">
-        <v>249.7916666666667</v>
+        <v>249.8100000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2213,10 +2195,10 @@
         <v>249.9</v>
       </c>
       <c r="F52" t="n">
-        <v>9.3467</v>
+        <v>9.25</v>
       </c>
       <c r="G52" t="n">
-        <v>249.7733333333334</v>
+        <v>249.7916666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>250.8</v>
+        <v>249.9</v>
       </c>
       <c r="C53" t="n">
         <v>249.9</v>
       </c>
       <c r="D53" t="n">
-        <v>250.8</v>
+        <v>249.9</v>
       </c>
       <c r="E53" t="n">
         <v>249.9</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>9.3467</v>
       </c>
       <c r="G53" t="n">
-        <v>249.7550000000001</v>
+        <v>249.7733333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2274,19 +2256,19 @@
         <v>250.8</v>
       </c>
       <c r="C54" t="n">
-        <v>250.8</v>
+        <v>249.9</v>
       </c>
       <c r="D54" t="n">
         <v>250.8</v>
       </c>
       <c r="E54" t="n">
-        <v>250.8</v>
+        <v>249.9</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>249.7516666666667</v>
+        <v>249.7550000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2318,10 +2300,10 @@
         <v>250.8</v>
       </c>
       <c r="F55" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G55" t="n">
-        <v>249.7483333333334</v>
+        <v>249.7516666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2353,10 +2335,10 @@
         <v>250.8</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G56" t="n">
-        <v>249.76</v>
+        <v>249.7483333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2379,19 +2361,19 @@
         <v>250.8</v>
       </c>
       <c r="C57" t="n">
-        <v>250.9</v>
+        <v>250.8</v>
       </c>
       <c r="D57" t="n">
-        <v>250.9</v>
+        <v>250.8</v>
       </c>
       <c r="E57" t="n">
-        <v>249.3</v>
+        <v>250.8</v>
       </c>
       <c r="F57" t="n">
-        <v>63.2706</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>249.775</v>
+        <v>249.76</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2411,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>251</v>
+        <v>250.8</v>
       </c>
       <c r="C58" t="n">
-        <v>250.4</v>
+        <v>250.9</v>
       </c>
       <c r="D58" t="n">
-        <v>251</v>
+        <v>250.9</v>
       </c>
       <c r="E58" t="n">
-        <v>250.4</v>
+        <v>249.3</v>
       </c>
       <c r="F58" t="n">
-        <v>15.1873</v>
+        <v>63.2706</v>
       </c>
       <c r="G58" t="n">
-        <v>249.7816666666667</v>
+        <v>249.775</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2446,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>251</v>
+      </c>
+      <c r="C59" t="n">
         <v>250.4</v>
       </c>
-      <c r="C59" t="n">
-        <v>251.7</v>
-      </c>
       <c r="D59" t="n">
-        <v>251.7</v>
+        <v>251</v>
       </c>
       <c r="E59" t="n">
         <v>250.4</v>
       </c>
       <c r="F59" t="n">
-        <v>18.3551</v>
+        <v>15.1873</v>
       </c>
       <c r="G59" t="n">
-        <v>249.81</v>
+        <v>249.7816666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2484,19 +2466,19 @@
         <v>250.4</v>
       </c>
       <c r="C60" t="n">
-        <v>250.4</v>
+        <v>251.7</v>
       </c>
       <c r="D60" t="n">
-        <v>250.4</v>
+        <v>251.7</v>
       </c>
       <c r="E60" t="n">
         <v>250.4</v>
       </c>
       <c r="F60" t="n">
-        <v>18.4584</v>
+        <v>18.3551</v>
       </c>
       <c r="G60" t="n">
-        <v>249.8166666666667</v>
+        <v>249.81</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2528,10 +2510,10 @@
         <v>250.4</v>
       </c>
       <c r="F61" t="n">
-        <v>22.8116</v>
+        <v>18.4584</v>
       </c>
       <c r="G61" t="n">
-        <v>249.8066666666667</v>
+        <v>249.8166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2563,10 +2545,10 @@
         <v>250.4</v>
       </c>
       <c r="F62" t="n">
-        <v>68.435</v>
+        <v>22.8116</v>
       </c>
       <c r="G62" t="n">
-        <v>249.815</v>
+        <v>249.8066666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2586,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="C63" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="D63" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="E63" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="F63" t="n">
-        <v>39.6535</v>
+        <v>68.435</v>
       </c>
       <c r="G63" t="n">
-        <v>249.8416666666667</v>
+        <v>249.815</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>250.4</v>
+        <v>251.5</v>
       </c>
       <c r="C64" t="n">
-        <v>250.4</v>
+        <v>251.5</v>
       </c>
       <c r="D64" t="n">
-        <v>250.4</v>
+        <v>251.5</v>
       </c>
       <c r="E64" t="n">
-        <v>250.4</v>
+        <v>251.5</v>
       </c>
       <c r="F64" t="n">
-        <v>550</v>
+        <v>39.6535</v>
       </c>
       <c r="G64" t="n">
-        <v>249.85</v>
+        <v>249.8416666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2656,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="C65" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="D65" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="E65" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="F65" t="n">
-        <v>2624.9776</v>
+        <v>550</v>
       </c>
       <c r="G65" t="n">
-        <v>249.8766666666667</v>
+        <v>249.85</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2694,19 +2676,19 @@
         <v>251.5</v>
       </c>
       <c r="C66" t="n">
-        <v>250.6</v>
+        <v>251.5</v>
       </c>
       <c r="D66" t="n">
         <v>251.5</v>
       </c>
       <c r="E66" t="n">
-        <v>250.6</v>
+        <v>251.5</v>
       </c>
       <c r="F66" t="n">
-        <v>753.0001</v>
+        <v>2624.9776</v>
       </c>
       <c r="G66" t="n">
-        <v>249.8883333333333</v>
+        <v>249.8766666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>250.4</v>
+        <v>251.5</v>
       </c>
       <c r="C67" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="D67" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="E67" t="n">
         <v>250.6</v>
       </c>
-      <c r="E67" t="n">
-        <v>250.4</v>
-      </c>
       <c r="F67" t="n">
-        <v>244.6584</v>
+        <v>753.0001</v>
       </c>
       <c r="G67" t="n">
-        <v>249.8983333333334</v>
+        <v>249.8883333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="C68" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="D68" t="n">
         <v>250.6</v>
       </c>
       <c r="E68" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>244.6584</v>
       </c>
       <c r="G68" t="n">
-        <v>249.9116666666667</v>
+        <v>249.8983333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2808,10 +2790,10 @@
         <v>250.6</v>
       </c>
       <c r="F69" t="n">
-        <v>890.1155</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>249.9250000000001</v>
+        <v>249.9116666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2843,10 +2825,10 @@
         <v>250.6</v>
       </c>
       <c r="F70" t="n">
-        <v>162</v>
+        <v>890.1155</v>
       </c>
       <c r="G70" t="n">
-        <v>249.9666666666667</v>
+        <v>249.9250000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2878,10 +2860,10 @@
         <v>250.6</v>
       </c>
       <c r="F71" t="n">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="G71" t="n">
-        <v>249.9783333333334</v>
+        <v>249.9666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2913,10 +2895,10 @@
         <v>250.6</v>
       </c>
       <c r="F72" t="n">
-        <v>378.44</v>
+        <v>126</v>
       </c>
       <c r="G72" t="n">
-        <v>249.9866666666667</v>
+        <v>249.9783333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,10 +2930,10 @@
         <v>250.6</v>
       </c>
       <c r="F73" t="n">
-        <v>21.207</v>
+        <v>378.44</v>
       </c>
       <c r="G73" t="n">
-        <v>250.0116666666667</v>
+        <v>249.9866666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2971,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="C74" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="D74" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="E74" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="F74" t="n">
-        <v>329.4808</v>
+        <v>21.207</v>
       </c>
       <c r="G74" t="n">
-        <v>250.0083333333334</v>
+        <v>250.0116666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3018,10 +3000,10 @@
         <v>250.4</v>
       </c>
       <c r="F75" t="n">
-        <v>161.9999</v>
+        <v>329.4808</v>
       </c>
       <c r="G75" t="n">
-        <v>250.0366666666667</v>
+        <v>250.0083333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3053,10 +3035,10 @@
         <v>250.4</v>
       </c>
       <c r="F76" t="n">
-        <v>124</v>
+        <v>161.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>250.0433333333334</v>
+        <v>250.0366666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="C77" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="D77" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="E77" t="n">
-        <v>250.6</v>
+        <v>250.4</v>
       </c>
       <c r="F77" t="n">
-        <v>261.2629</v>
+        <v>124</v>
       </c>
       <c r="G77" t="n">
-        <v>250.075</v>
+        <v>250.0433333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,10 +3105,10 @@
         <v>250.6</v>
       </c>
       <c r="F78" t="n">
-        <v>493</v>
+        <v>261.2629</v>
       </c>
       <c r="G78" t="n">
-        <v>250.1066666666667</v>
+        <v>250.075</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,10 +3140,10 @@
         <v>250.6</v>
       </c>
       <c r="F79" t="n">
-        <v>182</v>
+        <v>493</v>
       </c>
       <c r="G79" t="n">
-        <v>250.1383333333333</v>
+        <v>250.1066666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3193,10 +3175,10 @@
         <v>250.6</v>
       </c>
       <c r="F80" t="n">
-        <v>122.5006</v>
+        <v>182</v>
       </c>
       <c r="G80" t="n">
-        <v>250.17</v>
+        <v>250.1383333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3216,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="C81" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="D81" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="E81" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="F81" t="n">
-        <v>144.9999</v>
+        <v>122.5006</v>
       </c>
       <c r="G81" t="n">
-        <v>250.1983333333333</v>
+        <v>250.17</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3263,10 +3245,10 @@
         <v>250.4</v>
       </c>
       <c r="F82" t="n">
-        <v>525</v>
+        <v>144.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>250.2266666666666</v>
+        <v>250.1983333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3298,10 +3280,10 @@
         <v>250.4</v>
       </c>
       <c r="F83" t="n">
-        <v>913.3943</v>
+        <v>525</v>
       </c>
       <c r="G83" t="n">
-        <v>250.255</v>
+        <v>250.2266666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>250.5</v>
+        <v>250.4</v>
       </c>
       <c r="C84" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="D84" t="n">
-        <v>251.5</v>
+        <v>250.4</v>
       </c>
       <c r="E84" t="n">
-        <v>250.5</v>
+        <v>250.4</v>
       </c>
       <c r="F84" t="n">
-        <v>3173.07665689</v>
+        <v>913.3943</v>
       </c>
       <c r="G84" t="n">
-        <v>250.2683333333333</v>
+        <v>250.255</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>251.6</v>
+        <v>250.5</v>
       </c>
       <c r="C85" t="n">
-        <v>251.6</v>
+        <v>251.5</v>
       </c>
       <c r="D85" t="n">
-        <v>251.6</v>
+        <v>251.5</v>
       </c>
       <c r="E85" t="n">
-        <v>251.6</v>
+        <v>250.5</v>
       </c>
       <c r="F85" t="n">
-        <v>4.2886</v>
+        <v>3173.07665689</v>
       </c>
       <c r="G85" t="n">
-        <v>250.2833333333333</v>
+        <v>250.2683333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>251.2</v>
+        <v>251.6</v>
       </c>
       <c r="C86" t="n">
-        <v>248.1</v>
+        <v>251.6</v>
       </c>
       <c r="D86" t="n">
-        <v>251.2</v>
+        <v>251.6</v>
       </c>
       <c r="E86" t="n">
-        <v>248.1</v>
+        <v>251.6</v>
       </c>
       <c r="F86" t="n">
-        <v>41265.2805</v>
+        <v>4.2886</v>
       </c>
       <c r="G86" t="n">
-        <v>250.2416666666666</v>
+        <v>250.2833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>249.1</v>
+        <v>251.2</v>
       </c>
       <c r="C87" t="n">
-        <v>249.1</v>
+        <v>248.1</v>
       </c>
       <c r="D87" t="n">
-        <v>249.1</v>
+        <v>251.2</v>
       </c>
       <c r="E87" t="n">
-        <v>249.1</v>
+        <v>248.1</v>
       </c>
       <c r="F87" t="n">
-        <v>792</v>
+        <v>41265.2805</v>
       </c>
       <c r="G87" t="n">
-        <v>250.2266666666666</v>
+        <v>250.2416666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3464,19 +3446,19 @@
         <v>249.1</v>
       </c>
       <c r="C88" t="n">
-        <v>248</v>
+        <v>249.1</v>
       </c>
       <c r="D88" t="n">
         <v>249.1</v>
       </c>
       <c r="E88" t="n">
-        <v>248</v>
+        <v>249.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2024.8</v>
+        <v>792</v>
       </c>
       <c r="G88" t="n">
-        <v>250.1933333333333</v>
+        <v>250.2266666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>248</v>
+        <v>249.1</v>
       </c>
       <c r="C89" t="n">
         <v>248</v>
       </c>
       <c r="D89" t="n">
-        <v>248</v>
+        <v>249.1</v>
       </c>
       <c r="E89" t="n">
         <v>248</v>
       </c>
       <c r="F89" t="n">
-        <v>1800</v>
+        <v>2024.8</v>
       </c>
       <c r="G89" t="n">
-        <v>250.1599999999999</v>
+        <v>250.1933333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,10 +3525,10 @@
         <v>248</v>
       </c>
       <c r="F90" t="n">
-        <v>2.2</v>
+        <v>1800</v>
       </c>
       <c r="G90" t="n">
-        <v>250.105</v>
+        <v>250.1599999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C91" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E91" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F91" t="n">
-        <v>6066.4904</v>
+        <v>2.2</v>
       </c>
       <c r="G91" t="n">
-        <v>250.1216666666666</v>
+        <v>250.105</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>249.8</v>
+        <v>249</v>
       </c>
       <c r="C92" t="n">
-        <v>249.8</v>
+        <v>250</v>
       </c>
       <c r="D92" t="n">
-        <v>249.8</v>
+        <v>250</v>
       </c>
       <c r="E92" t="n">
-        <v>249.8</v>
+        <v>249</v>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>6066.4904</v>
       </c>
       <c r="G92" t="n">
-        <v>250.1349999999999</v>
+        <v>250.1216666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3651,7 +3633,7 @@
         <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>250.1483333333333</v>
+        <v>250.1349999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>249.3</v>
+        <v>249.8</v>
       </c>
       <c r="C94" t="n">
-        <v>249.3</v>
+        <v>249.8</v>
       </c>
       <c r="D94" t="n">
-        <v>249.3</v>
+        <v>249.8</v>
       </c>
       <c r="E94" t="n">
-        <v>249.3</v>
+        <v>249.8</v>
       </c>
       <c r="F94" t="n">
-        <v>95.9472</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>250.1533333333333</v>
+        <v>250.1483333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,19 +3688,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>250</v>
+        <v>249.3</v>
       </c>
       <c r="C95" t="n">
-        <v>250</v>
+        <v>249.3</v>
       </c>
       <c r="D95" t="n">
-        <v>250</v>
+        <v>249.3</v>
       </c>
       <c r="E95" t="n">
-        <v>250</v>
+        <v>249.3</v>
       </c>
       <c r="F95" t="n">
-        <v>3990.025</v>
+        <v>95.9472</v>
       </c>
       <c r="G95" t="n">
         <v>250.1533333333333</v>
@@ -3741,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>249.1</v>
+        <v>250</v>
       </c>
       <c r="C96" t="n">
-        <v>249.1</v>
+        <v>250</v>
       </c>
       <c r="D96" t="n">
-        <v>249.1</v>
+        <v>250</v>
       </c>
       <c r="E96" t="n">
-        <v>249.1</v>
+        <v>250</v>
       </c>
       <c r="F96" t="n">
-        <v>2371.6</v>
+        <v>3990.025</v>
       </c>
       <c r="G96" t="n">
-        <v>250.1383333333333</v>
+        <v>250.1533333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="C97" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="D97" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="E97" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>2371.6</v>
       </c>
       <c r="G97" t="n">
-        <v>250.1216666666666</v>
+        <v>250.1383333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3811,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E98" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F98" t="n">
-        <v>4141.3401</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>250.0916666666666</v>
+        <v>250.1216666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3846,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>248.4</v>
+        <v>250</v>
       </c>
       <c r="C99" t="n">
-        <v>248.3</v>
+        <v>250</v>
       </c>
       <c r="D99" t="n">
-        <v>249.1</v>
+        <v>250</v>
       </c>
       <c r="E99" t="n">
-        <v>248.3</v>
+        <v>250</v>
       </c>
       <c r="F99" t="n">
-        <v>11663.1457</v>
+        <v>4141.3401</v>
       </c>
       <c r="G99" t="n">
-        <v>250.0633333333332</v>
+        <v>250.0916666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>248.2</v>
+        <v>248.4</v>
       </c>
       <c r="C100" t="n">
-        <v>248.2</v>
+        <v>248.3</v>
       </c>
       <c r="D100" t="n">
-        <v>248.2</v>
+        <v>249.1</v>
       </c>
       <c r="E100" t="n">
-        <v>248.2</v>
+        <v>248.3</v>
       </c>
       <c r="F100" t="n">
-        <v>3977.9232</v>
+        <v>11663.1457</v>
       </c>
       <c r="G100" t="n">
-        <v>250.0499999999999</v>
+        <v>250.0633333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>249.4</v>
+        <v>248.2</v>
       </c>
       <c r="C101" t="n">
-        <v>249.4</v>
+        <v>248.2</v>
       </c>
       <c r="D101" t="n">
-        <v>249.4</v>
+        <v>248.2</v>
       </c>
       <c r="E101" t="n">
-        <v>249.4</v>
+        <v>248.2</v>
       </c>
       <c r="F101" t="n">
-        <v>1291.2843</v>
+        <v>3977.9232</v>
       </c>
       <c r="G101" t="n">
-        <v>250.0616666666666</v>
+        <v>250.0499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3951,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>248.2</v>
+        <v>249.4</v>
       </c>
       <c r="C102" t="n">
-        <v>248.2</v>
+        <v>249.4</v>
       </c>
       <c r="D102" t="n">
-        <v>248.2</v>
+        <v>249.4</v>
       </c>
       <c r="E102" t="n">
-        <v>248.2</v>
+        <v>249.4</v>
       </c>
       <c r="F102" t="n">
-        <v>567</v>
+        <v>1291.2843</v>
       </c>
       <c r="G102" t="n">
-        <v>250.0533333333333</v>
+        <v>250.0616666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3998,10 +3980,10 @@
         <v>248.2</v>
       </c>
       <c r="F103" t="n">
-        <v>387.6096</v>
+        <v>567</v>
       </c>
       <c r="G103" t="n">
-        <v>250.0399999999999</v>
+        <v>250.0533333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>249.1</v>
+        <v>248.2</v>
       </c>
       <c r="C104" t="n">
-        <v>249.1</v>
+        <v>248.2</v>
       </c>
       <c r="D104" t="n">
-        <v>249.1</v>
+        <v>248.2</v>
       </c>
       <c r="E104" t="n">
-        <v>249.1</v>
+        <v>248.2</v>
       </c>
       <c r="F104" t="n">
-        <v>168.3</v>
+        <v>387.6096</v>
       </c>
       <c r="G104" t="n">
-        <v>250.0466666666666</v>
+        <v>250.0399999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4068,10 +4050,10 @@
         <v>249.1</v>
       </c>
       <c r="F105" t="n">
-        <v>2092.0184</v>
+        <v>168.3</v>
       </c>
       <c r="G105" t="n">
-        <v>250.0183333333333</v>
+        <v>250.0466666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4103,10 +4085,10 @@
         <v>249.1</v>
       </c>
       <c r="F106" t="n">
-        <v>95.9472</v>
+        <v>2092.0184</v>
       </c>
       <c r="G106" t="n">
-        <v>250.0133333333333</v>
+        <v>250.0183333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4138,10 +4120,10 @@
         <v>249.1</v>
       </c>
       <c r="F107" t="n">
-        <v>33</v>
+        <v>95.9472</v>
       </c>
       <c r="G107" t="n">
-        <v>250.0083333333333</v>
+        <v>250.0133333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4173,10 +4155,10 @@
         <v>249.1</v>
       </c>
       <c r="F108" t="n">
-        <v>123.3913</v>
+        <v>33</v>
       </c>
       <c r="G108" t="n">
-        <v>249.98</v>
+        <v>250.0083333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4196,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="C109" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="D109" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="E109" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="F109" t="n">
-        <v>1346</v>
+        <v>123.3913</v>
       </c>
       <c r="G109" t="n">
-        <v>249.9716666666667</v>
+        <v>249.98</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4243,10 +4225,10 @@
         <v>249.4</v>
       </c>
       <c r="F110" t="n">
-        <v>3749.6058</v>
+        <v>1346</v>
       </c>
       <c r="G110" t="n">
-        <v>249.95</v>
+        <v>249.9716666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="C111" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="D111" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="E111" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="F111" t="n">
-        <v>2615.9599</v>
+        <v>3749.6058</v>
       </c>
       <c r="G111" t="n">
-        <v>249.9433333333333</v>
+        <v>249.95</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4301,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>249.9</v>
+        <v>249.5</v>
       </c>
       <c r="C112" t="n">
-        <v>250.8</v>
+        <v>249.5</v>
       </c>
       <c r="D112" t="n">
-        <v>250.8</v>
+        <v>249.5</v>
       </c>
       <c r="E112" t="n">
-        <v>249.9</v>
+        <v>249.5</v>
       </c>
       <c r="F112" t="n">
-        <v>1816.65003732</v>
+        <v>2615.9599</v>
       </c>
       <c r="G112" t="n">
-        <v>249.9583333333333</v>
+        <v>249.9433333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>250.7</v>
+        <v>249.9</v>
       </c>
       <c r="C113" t="n">
-        <v>250.6</v>
+        <v>250.8</v>
       </c>
       <c r="D113" t="n">
-        <v>250.7</v>
+        <v>250.8</v>
       </c>
       <c r="E113" t="n">
-        <v>250.6</v>
+        <v>249.9</v>
       </c>
       <c r="F113" t="n">
-        <v>5453.15186154</v>
+        <v>1816.65003732</v>
       </c>
       <c r="G113" t="n">
-        <v>249.97</v>
+        <v>249.9583333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4374,19 +4356,19 @@
         <v>250.7</v>
       </c>
       <c r="C114" t="n">
-        <v>250.7</v>
+        <v>250.6</v>
       </c>
       <c r="D114" t="n">
         <v>250.7</v>
       </c>
       <c r="E114" t="n">
-        <v>250.7</v>
+        <v>250.6</v>
       </c>
       <c r="F114" t="n">
-        <v>1388.6445</v>
+        <v>5453.15186154</v>
       </c>
       <c r="G114" t="n">
-        <v>249.9683333333333</v>
+        <v>249.97</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4406,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>249.5</v>
+        <v>250.7</v>
       </c>
       <c r="C115" t="n">
-        <v>249.5</v>
+        <v>250.7</v>
       </c>
       <c r="D115" t="n">
-        <v>249.5</v>
+        <v>250.7</v>
       </c>
       <c r="E115" t="n">
-        <v>249.5</v>
+        <v>250.7</v>
       </c>
       <c r="F115" t="n">
-        <v>152</v>
+        <v>1388.6445</v>
       </c>
       <c r="G115" t="n">
-        <v>249.9466666666667</v>
+        <v>249.9683333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4453,10 +4435,10 @@
         <v>249.5</v>
       </c>
       <c r="F116" t="n">
-        <v>664.4487</v>
+        <v>152</v>
       </c>
       <c r="G116" t="n">
-        <v>249.925</v>
+        <v>249.9466666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4479,19 +4461,19 @@
         <v>249.5</v>
       </c>
       <c r="C117" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="D117" t="n">
         <v>249.5</v>
       </c>
       <c r="E117" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="F117" t="n">
-        <v>4840</v>
+        <v>664.4487</v>
       </c>
       <c r="G117" t="n">
-        <v>249.9</v>
+        <v>249.925</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4511,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="C118" t="n">
         <v>249.4</v>
       </c>
       <c r="D118" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="E118" t="n">
         <v>249.4</v>
       </c>
       <c r="F118" t="n">
-        <v>172</v>
+        <v>4840</v>
       </c>
       <c r="G118" t="n">
-        <v>249.8833333333334</v>
+        <v>249.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4546,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>250.7</v>
+        <v>249.4</v>
       </c>
       <c r="C119" t="n">
-        <v>250.7</v>
+        <v>249.4</v>
       </c>
       <c r="D119" t="n">
-        <v>250.7</v>
+        <v>249.4</v>
       </c>
       <c r="E119" t="n">
-        <v>250.6</v>
+        <v>249.4</v>
       </c>
       <c r="F119" t="n">
-        <v>7887.74471479</v>
+        <v>172</v>
       </c>
       <c r="G119" t="n">
-        <v>249.8666666666667</v>
+        <v>249.8833333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>249.4</v>
+        <v>250.7</v>
       </c>
       <c r="C120" t="n">
-        <v>249.4</v>
+        <v>250.7</v>
       </c>
       <c r="D120" t="n">
-        <v>249.4</v>
+        <v>250.7</v>
       </c>
       <c r="E120" t="n">
-        <v>249.4</v>
+        <v>250.6</v>
       </c>
       <c r="F120" t="n">
-        <v>176</v>
+        <v>7887.74471479</v>
       </c>
       <c r="G120" t="n">
-        <v>249.85</v>
+        <v>249.8666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4616,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="C121" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="D121" t="n">
-        <v>249.6</v>
+        <v>249.4</v>
       </c>
       <c r="E121" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="F121" t="n">
-        <v>1202</v>
+        <v>176</v>
       </c>
       <c r="G121" t="n">
-        <v>249.835</v>
+        <v>249.85</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4657,16 +4639,16 @@
         <v>249.5</v>
       </c>
       <c r="D122" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="E122" t="n">
         <v>249.5</v>
       </c>
       <c r="F122" t="n">
-        <v>132</v>
+        <v>1202</v>
       </c>
       <c r="G122" t="n">
-        <v>249.8200000000001</v>
+        <v>249.835</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="C123" t="n">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="D123" t="n">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="E123" t="n">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="F123" t="n">
-        <v>2712.1</v>
+        <v>132</v>
       </c>
       <c r="G123" t="n">
-        <v>249.795</v>
+        <v>249.8200000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4724,19 +4706,19 @@
         <v>250</v>
       </c>
       <c r="C124" t="n">
-        <v>250.8</v>
+        <v>250</v>
       </c>
       <c r="D124" t="n">
-        <v>250.8</v>
+        <v>250</v>
       </c>
       <c r="E124" t="n">
         <v>250</v>
       </c>
       <c r="F124" t="n">
-        <v>1159.3243</v>
+        <v>2712.1</v>
       </c>
       <c r="G124" t="n">
-        <v>249.8016666666667</v>
+        <v>249.795</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4759,19 +4741,19 @@
         <v>250</v>
       </c>
       <c r="C125" t="n">
-        <v>250</v>
+        <v>250.8</v>
       </c>
       <c r="D125" t="n">
-        <v>250</v>
+        <v>250.8</v>
       </c>
       <c r="E125" t="n">
         <v>250</v>
       </c>
       <c r="F125" t="n">
-        <v>824.0212</v>
+        <v>1159.3243</v>
       </c>
       <c r="G125" t="n">
-        <v>249.7766666666667</v>
+        <v>249.8016666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4803,10 +4785,10 @@
         <v>250</v>
       </c>
       <c r="F126" t="n">
-        <v>6298.8789</v>
+        <v>824.0212</v>
       </c>
       <c r="G126" t="n">
-        <v>249.7666666666667</v>
+        <v>249.7766666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4826,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>249.5</v>
+        <v>250</v>
       </c>
       <c r="C127" t="n">
-        <v>249.5</v>
+        <v>250</v>
       </c>
       <c r="D127" t="n">
-        <v>249.5</v>
+        <v>250</v>
       </c>
       <c r="E127" t="n">
-        <v>249.5</v>
+        <v>250</v>
       </c>
       <c r="F127" t="n">
-        <v>68.4512</v>
+        <v>6298.8789</v>
       </c>
       <c r="G127" t="n">
-        <v>249.7516666666667</v>
+        <v>249.7666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4873,10 +4855,10 @@
         <v>249.5</v>
       </c>
       <c r="F128" t="n">
-        <v>132</v>
+        <v>68.4512</v>
       </c>
       <c r="G128" t="n">
-        <v>249.7333333333334</v>
+        <v>249.7516666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="C129" t="n">
         <v>249.5</v>
       </c>
       <c r="D129" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="E129" t="n">
         <v>249.5</v>
       </c>
       <c r="F129" t="n">
-        <v>3330.9999</v>
+        <v>132</v>
       </c>
       <c r="G129" t="n">
-        <v>249.715</v>
+        <v>249.7333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4934,19 +4916,19 @@
         <v>249.6</v>
       </c>
       <c r="C130" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="D130" t="n">
         <v>249.6</v>
       </c>
       <c r="E130" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="F130" t="n">
-        <v>165.6836</v>
+        <v>3330.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>249.6983333333334</v>
+        <v>249.715</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4966,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="C131" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="D131" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="E131" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="F131" t="n">
-        <v>3515.5612</v>
+        <v>165.6836</v>
       </c>
       <c r="G131" t="n">
-        <v>249.68</v>
+        <v>249.6983333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5013,10 +4995,10 @@
         <v>249.5</v>
       </c>
       <c r="F132" t="n">
-        <v>816.7676</v>
+        <v>3515.5612</v>
       </c>
       <c r="G132" t="n">
-        <v>249.6616666666667</v>
+        <v>249.68</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5048,10 +5030,10 @@
         <v>249.5</v>
       </c>
       <c r="F133" t="n">
-        <v>241.9999</v>
+        <v>816.7676</v>
       </c>
       <c r="G133" t="n">
-        <v>249.6433333333333</v>
+        <v>249.6616666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5083,10 +5065,10 @@
         <v>249.5</v>
       </c>
       <c r="F134" t="n">
-        <v>799</v>
+        <v>241.9999</v>
       </c>
       <c r="G134" t="n">
-        <v>249.6283333333334</v>
+        <v>249.6433333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5106,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>250.6</v>
+        <v>249.5</v>
       </c>
       <c r="C135" t="n">
-        <v>250.6</v>
+        <v>249.5</v>
       </c>
       <c r="D135" t="n">
-        <v>250.6</v>
+        <v>249.5</v>
       </c>
       <c r="E135" t="n">
-        <v>250.6</v>
+        <v>249.5</v>
       </c>
       <c r="F135" t="n">
-        <v>1270</v>
+        <v>799</v>
       </c>
       <c r="G135" t="n">
-        <v>249.6316666666667</v>
+        <v>249.6283333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5144,19 +5126,19 @@
         <v>250.6</v>
       </c>
       <c r="C136" t="n">
-        <v>251.2</v>
+        <v>250.6</v>
       </c>
       <c r="D136" t="n">
-        <v>251.2</v>
+        <v>250.6</v>
       </c>
       <c r="E136" t="n">
-        <v>249.5</v>
+        <v>250.6</v>
       </c>
       <c r="F136" t="n">
-        <v>6257.9715</v>
+        <v>1270</v>
       </c>
       <c r="G136" t="n">
-        <v>249.645</v>
+        <v>249.6316666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5176,7 +5158,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>251.2</v>
+        <v>250.6</v>
       </c>
       <c r="C137" t="n">
         <v>251.2</v>
@@ -5185,13 +5167,13 @@
         <v>251.2</v>
       </c>
       <c r="E137" t="n">
-        <v>251.2</v>
+        <v>249.5</v>
       </c>
       <c r="F137" t="n">
-        <v>1475</v>
+        <v>6257.9715</v>
       </c>
       <c r="G137" t="n">
-        <v>249.6550000000001</v>
+        <v>249.645</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5223,10 +5205,10 @@
         <v>251.2</v>
       </c>
       <c r="F138" t="n">
-        <v>3065.3086</v>
+        <v>1475</v>
       </c>
       <c r="G138" t="n">
-        <v>249.665</v>
+        <v>249.6550000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5246,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>249.6</v>
+        <v>251.2</v>
       </c>
       <c r="C139" t="n">
-        <v>249.6</v>
+        <v>251.2</v>
       </c>
       <c r="D139" t="n">
-        <v>249.6</v>
+        <v>251.2</v>
       </c>
       <c r="E139" t="n">
-        <v>249.6</v>
+        <v>251.2</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>3065.3086</v>
       </c>
       <c r="G139" t="n">
-        <v>249.6483333333334</v>
+        <v>249.665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5281,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>250</v>
+        <v>249.6</v>
       </c>
       <c r="C140" t="n">
-        <v>250</v>
+        <v>249.6</v>
       </c>
       <c r="D140" t="n">
-        <v>250</v>
+        <v>249.6</v>
       </c>
       <c r="E140" t="n">
-        <v>250</v>
+        <v>249.6</v>
       </c>
       <c r="F140" t="n">
-        <v>2592.4253</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>249.6383333333334</v>
+        <v>249.6483333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5328,10 +5310,10 @@
         <v>250</v>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>2592.4253</v>
       </c>
       <c r="G141" t="n">
-        <v>249.6316666666667</v>
+        <v>249.6383333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5351,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>251.7</v>
+        <v>250</v>
       </c>
       <c r="C142" t="n">
         <v>250</v>
       </c>
       <c r="D142" t="n">
-        <v>251.7</v>
+        <v>250</v>
       </c>
       <c r="E142" t="n">
         <v>250</v>
       </c>
       <c r="F142" t="n">
-        <v>277.7428</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>249.6250000000001</v>
+        <v>249.6316666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5386,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>250</v>
+        <v>251.7</v>
       </c>
       <c r="C143" t="n">
         <v>250</v>
       </c>
       <c r="D143" t="n">
-        <v>250</v>
+        <v>251.7</v>
       </c>
       <c r="E143" t="n">
         <v>250</v>
       </c>
       <c r="F143" t="n">
-        <v>1538.9224</v>
+        <v>277.7428</v>
       </c>
       <c r="G143" t="n">
-        <v>249.6183333333334</v>
+        <v>249.6250000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5433,10 +5415,10 @@
         <v>250</v>
       </c>
       <c r="F144" t="n">
-        <v>2574.9594</v>
+        <v>1538.9224</v>
       </c>
       <c r="G144" t="n">
-        <v>249.5933333333334</v>
+        <v>249.6183333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5459,19 +5441,19 @@
         <v>250</v>
       </c>
       <c r="C145" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D145" t="n">
         <v>250</v>
       </c>
       <c r="E145" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F145" t="n">
-        <v>1037.1095</v>
+        <v>2574.9594</v>
       </c>
       <c r="G145" t="n">
-        <v>249.5500000000001</v>
+        <v>249.5933333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5491,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C146" t="n">
         <v>249</v>
       </c>
       <c r="D146" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E146" t="n">
         <v>249</v>
       </c>
       <c r="F146" t="n">
-        <v>1250</v>
+        <v>1037.1095</v>
       </c>
       <c r="G146" t="n">
-        <v>249.5650000000001</v>
+        <v>249.5500000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5538,10 +5520,10 @@
         <v>249</v>
       </c>
       <c r="F147" t="n">
-        <v>2292.8148</v>
+        <v>1250</v>
       </c>
       <c r="G147" t="n">
-        <v>249.5633333333334</v>
+        <v>249.5650000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5561,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>248.6</v>
+        <v>249</v>
       </c>
       <c r="C148" t="n">
-        <v>248.6</v>
+        <v>249</v>
       </c>
       <c r="D148" t="n">
-        <v>248.6</v>
+        <v>249</v>
       </c>
       <c r="E148" t="n">
-        <v>248.6</v>
+        <v>249</v>
       </c>
       <c r="F148" t="n">
-        <v>900</v>
+        <v>2292.8148</v>
       </c>
       <c r="G148" t="n">
-        <v>249.5733333333334</v>
+        <v>249.5633333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5596,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>251</v>
+        <v>248.6</v>
       </c>
       <c r="C149" t="n">
-        <v>251.2</v>
+        <v>248.6</v>
       </c>
       <c r="D149" t="n">
-        <v>251.2</v>
+        <v>248.6</v>
       </c>
       <c r="E149" t="n">
-        <v>251</v>
+        <v>248.6</v>
       </c>
       <c r="F149" t="n">
-        <v>100.5081</v>
+        <v>900</v>
       </c>
       <c r="G149" t="n">
-        <v>249.6266666666667</v>
+        <v>249.5733333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5631,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>251</v>
+      </c>
+      <c r="C150" t="n">
         <v>251.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>248.7</v>
       </c>
       <c r="D150" t="n">
         <v>251.2</v>
       </c>
       <c r="E150" t="n">
-        <v>248.7</v>
+        <v>251</v>
       </c>
       <c r="F150" t="n">
-        <v>2729.1668</v>
+        <v>100.5081</v>
       </c>
       <c r="G150" t="n">
-        <v>249.6383333333334</v>
+        <v>249.6266666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5666,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>248.7</v>
+        <v>251.2</v>
       </c>
       <c r="C151" t="n">
         <v>248.7</v>
       </c>
       <c r="D151" t="n">
-        <v>248.7</v>
+        <v>251.2</v>
       </c>
       <c r="E151" t="n">
         <v>248.7</v>
       </c>
       <c r="F151" t="n">
-        <v>1489.1526</v>
+        <v>2729.1668</v>
       </c>
       <c r="G151" t="n">
-        <v>249.6166666666668</v>
+        <v>249.6383333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5701,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>250.6</v>
+        <v>248.7</v>
       </c>
       <c r="C152" t="n">
-        <v>250.6</v>
+        <v>248.7</v>
       </c>
       <c r="D152" t="n">
-        <v>250.6</v>
+        <v>248.7</v>
       </c>
       <c r="E152" t="n">
-        <v>250.6</v>
+        <v>248.7</v>
       </c>
       <c r="F152" t="n">
-        <v>575.0386</v>
+        <v>1489.1526</v>
       </c>
       <c r="G152" t="n">
-        <v>249.6300000000001</v>
+        <v>249.6166666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5739,19 +5721,19 @@
         <v>250.6</v>
       </c>
       <c r="C153" t="n">
-        <v>249.7</v>
+        <v>250.6</v>
       </c>
       <c r="D153" t="n">
         <v>250.6</v>
       </c>
       <c r="E153" t="n">
-        <v>249.7</v>
+        <v>250.6</v>
       </c>
       <c r="F153" t="n">
-        <v>1661.5042</v>
+        <v>575.0386</v>
       </c>
       <c r="G153" t="n">
-        <v>249.6283333333335</v>
+        <v>249.6300000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5771,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>250.4</v>
+        <v>250.6</v>
       </c>
       <c r="C154" t="n">
-        <v>250.6</v>
+        <v>249.7</v>
       </c>
       <c r="D154" t="n">
         <v>250.6</v>
       </c>
       <c r="E154" t="n">
-        <v>250.4</v>
+        <v>249.7</v>
       </c>
       <c r="F154" t="n">
-        <v>1470.5209</v>
+        <v>1661.5042</v>
       </c>
       <c r="G154" t="n">
-        <v>249.6500000000001</v>
+        <v>249.6283333333335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5806,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>249.3</v>
+        <v>250.4</v>
       </c>
       <c r="C155" t="n">
-        <v>248.7</v>
+        <v>250.6</v>
       </c>
       <c r="D155" t="n">
-        <v>249.3</v>
+        <v>250.6</v>
       </c>
       <c r="E155" t="n">
-        <v>248.7</v>
+        <v>250.4</v>
       </c>
       <c r="F155" t="n">
         <v>1470.5209</v>
       </c>
       <c r="G155" t="n">
-        <v>249.6283333333335</v>
+        <v>249.6500000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5841,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>249.7</v>
+        <v>249.3</v>
       </c>
       <c r="C156" t="n">
-        <v>249.7</v>
+        <v>248.7</v>
       </c>
       <c r="D156" t="n">
-        <v>249.7</v>
+        <v>249.3</v>
       </c>
       <c r="E156" t="n">
-        <v>249.7</v>
+        <v>248.7</v>
       </c>
       <c r="F156" t="n">
-        <v>1022.1119</v>
+        <v>1470.5209</v>
       </c>
       <c r="G156" t="n">
-        <v>249.6383333333335</v>
+        <v>249.6283333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5879,19 +5861,19 @@
         <v>249.7</v>
       </c>
       <c r="C157" t="n">
-        <v>249.8</v>
+        <v>249.7</v>
       </c>
       <c r="D157" t="n">
-        <v>249.8</v>
+        <v>249.7</v>
       </c>
       <c r="E157" t="n">
         <v>249.7</v>
       </c>
       <c r="F157" t="n">
-        <v>762.3881</v>
+        <v>1022.1119</v>
       </c>
       <c r="G157" t="n">
-        <v>249.6516666666668</v>
+        <v>249.6383333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5911,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>250.7</v>
+        <v>249.7</v>
       </c>
       <c r="C158" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="D158" t="n">
-        <v>250.7</v>
+        <v>249.8</v>
       </c>
       <c r="E158" t="n">
         <v>249.7</v>
       </c>
       <c r="F158" t="n">
-        <v>15223.5</v>
+        <v>762.3881</v>
       </c>
       <c r="G158" t="n">
-        <v>249.6466666666668</v>
+        <v>249.6516666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5946,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>251.5</v>
+        <v>250.7</v>
       </c>
       <c r="C159" t="n">
-        <v>251.5</v>
+        <v>249.7</v>
       </c>
       <c r="D159" t="n">
-        <v>251.5</v>
+        <v>250.7</v>
       </c>
       <c r="E159" t="n">
-        <v>251.5</v>
+        <v>249.7</v>
       </c>
       <c r="F159" t="n">
-        <v>7542.0964</v>
+        <v>15223.5</v>
       </c>
       <c r="G159" t="n">
-        <v>249.7000000000002</v>
+        <v>249.6466666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5981,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>249.4</v>
+        <v>251.5</v>
       </c>
       <c r="C160" t="n">
-        <v>249.4</v>
+        <v>251.5</v>
       </c>
       <c r="D160" t="n">
-        <v>249.4</v>
+        <v>251.5</v>
       </c>
       <c r="E160" t="n">
-        <v>249.4</v>
+        <v>251.5</v>
       </c>
       <c r="F160" t="n">
-        <v>3757.5655</v>
+        <v>7542.0964</v>
       </c>
       <c r="G160" t="n">
-        <v>249.7200000000002</v>
+        <v>249.7000000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6019,19 +6001,19 @@
         <v>249.4</v>
       </c>
       <c r="C161" t="n">
-        <v>248.7</v>
+        <v>249.4</v>
       </c>
       <c r="D161" t="n">
         <v>249.4</v>
       </c>
       <c r="E161" t="n">
-        <v>248.7</v>
+        <v>249.4</v>
       </c>
       <c r="F161" t="n">
-        <v>3488.1134</v>
+        <v>3757.5655</v>
       </c>
       <c r="G161" t="n">
-        <v>249.7083333333335</v>
+        <v>249.7200000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6051,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>250.5</v>
+        <v>249.4</v>
       </c>
       <c r="C162" t="n">
-        <v>250.5</v>
+        <v>248.7</v>
       </c>
       <c r="D162" t="n">
-        <v>250.5</v>
+        <v>249.4</v>
       </c>
       <c r="E162" t="n">
-        <v>250.5</v>
+        <v>248.7</v>
       </c>
       <c r="F162" t="n">
-        <v>3.3769</v>
+        <v>3488.1134</v>
       </c>
       <c r="G162" t="n">
-        <v>249.7466666666668</v>
+        <v>249.7083333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6086,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>249.5</v>
+        <v>250.5</v>
       </c>
       <c r="C163" t="n">
-        <v>249.5</v>
+        <v>250.5</v>
       </c>
       <c r="D163" t="n">
-        <v>249.5</v>
+        <v>250.5</v>
       </c>
       <c r="E163" t="n">
-        <v>249.5</v>
+        <v>250.5</v>
       </c>
       <c r="F163" t="n">
-        <v>105.6</v>
+        <v>3.3769</v>
       </c>
       <c r="G163" t="n">
-        <v>249.7683333333335</v>
+        <v>249.7466666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6121,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>248.7</v>
+        <v>249.5</v>
       </c>
       <c r="C164" t="n">
-        <v>248.6</v>
+        <v>249.5</v>
       </c>
       <c r="D164" t="n">
-        <v>248.7</v>
+        <v>249.5</v>
       </c>
       <c r="E164" t="n">
-        <v>248.6</v>
+        <v>249.5</v>
       </c>
       <c r="F164" t="n">
-        <v>5323.793</v>
+        <v>105.6</v>
       </c>
       <c r="G164" t="n">
-        <v>249.7600000000002</v>
+        <v>249.7683333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6156,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>250.4</v>
+        <v>248.7</v>
       </c>
       <c r="C165" t="n">
-        <v>250.4</v>
+        <v>248.6</v>
       </c>
       <c r="D165" t="n">
-        <v>250.4</v>
+        <v>248.7</v>
       </c>
       <c r="E165" t="n">
-        <v>250.4</v>
+        <v>248.6</v>
       </c>
       <c r="F165" t="n">
-        <v>471.7199</v>
+        <v>5323.793</v>
       </c>
       <c r="G165" t="n">
-        <v>249.7816666666668</v>
+        <v>249.7600000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6203,19 +6185,23 @@
         <v>250.4</v>
       </c>
       <c r="F166" t="n">
-        <v>1.9969</v>
+        <v>471.7199</v>
       </c>
       <c r="G166" t="n">
-        <v>249.8033333333335</v>
+        <v>249.7816666666668</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="K166" t="n">
+        <v>248.6</v>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
@@ -6226,22 +6212,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>249.7</v>
+        <v>250.4</v>
       </c>
       <c r="C167" t="n">
-        <v>249.7</v>
+        <v>250.4</v>
       </c>
       <c r="D167" t="n">
-        <v>249.7</v>
+        <v>250.4</v>
       </c>
       <c r="E167" t="n">
-        <v>249.7</v>
+        <v>250.4</v>
       </c>
       <c r="F167" t="n">
-        <v>184.9999</v>
+        <v>1.9969</v>
       </c>
       <c r="G167" t="n">
-        <v>249.8133333333335</v>
+        <v>249.8033333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6250,8 +6236,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6261,22 +6253,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>249.3</v>
+        <v>249.7</v>
       </c>
       <c r="C168" t="n">
-        <v>248.3</v>
+        <v>249.7</v>
       </c>
       <c r="D168" t="n">
-        <v>249.3</v>
+        <v>249.7</v>
       </c>
       <c r="E168" t="n">
-        <v>248.3</v>
+        <v>249.7</v>
       </c>
       <c r="F168" t="n">
-        <v>9225.027099999999</v>
+        <v>184.9999</v>
       </c>
       <c r="G168" t="n">
-        <v>249.8000000000001</v>
+        <v>249.8133333333335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6285,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6296,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>250.1</v>
+        <v>249.3</v>
       </c>
       <c r="C169" t="n">
-        <v>250.1</v>
+        <v>248.3</v>
       </c>
       <c r="D169" t="n">
-        <v>250.1</v>
+        <v>249.3</v>
       </c>
       <c r="E169" t="n">
-        <v>250.1</v>
+        <v>248.3</v>
       </c>
       <c r="F169" t="n">
-        <v>4</v>
+        <v>9225.027099999999</v>
       </c>
       <c r="G169" t="n">
-        <v>249.8116666666668</v>
+        <v>249.8000000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6343,10 +6341,10 @@
         <v>250.1</v>
       </c>
       <c r="F170" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="G170" t="n">
-        <v>249.8233333333335</v>
+        <v>249.8116666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6366,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>249.3</v>
+        <v>250.1</v>
       </c>
       <c r="C171" t="n">
-        <v>249.3</v>
+        <v>250.1</v>
       </c>
       <c r="D171" t="n">
-        <v>249.3</v>
+        <v>250.1</v>
       </c>
       <c r="E171" t="n">
-        <v>249.3</v>
+        <v>250.1</v>
       </c>
       <c r="F171" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G171" t="n">
-        <v>249.8200000000001</v>
+        <v>249.8233333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6413,10 +6411,10 @@
         <v>249.3</v>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G172" t="n">
-        <v>249.7950000000001</v>
+        <v>249.8200000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6442,16 +6440,16 @@
         <v>249.3</v>
       </c>
       <c r="D173" t="n">
-        <v>250.1</v>
+        <v>249.3</v>
       </c>
       <c r="E173" t="n">
         <v>249.3</v>
       </c>
       <c r="F173" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G173" t="n">
-        <v>249.7733333333335</v>
+        <v>249.7950000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>250.1</v>
+        <v>249.3</v>
       </c>
       <c r="C174" t="n">
-        <v>250.1</v>
+        <v>249.3</v>
       </c>
       <c r="D174" t="n">
         <v>250.1</v>
       </c>
       <c r="E174" t="n">
-        <v>250.1</v>
+        <v>249.3</v>
       </c>
       <c r="F174" t="n">
-        <v>2733.1741</v>
+        <v>54</v>
       </c>
       <c r="G174" t="n">
-        <v>249.7633333333334</v>
+        <v>249.7733333333335</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6506,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>250.5</v>
+        <v>250.1</v>
       </c>
       <c r="C175" t="n">
-        <v>250.5</v>
+        <v>250.1</v>
       </c>
       <c r="D175" t="n">
-        <v>250.5</v>
+        <v>250.1</v>
       </c>
       <c r="E175" t="n">
-        <v>250.5</v>
+        <v>250.1</v>
       </c>
       <c r="F175" t="n">
-        <v>1000</v>
+        <v>2733.1741</v>
       </c>
       <c r="G175" t="n">
-        <v>249.7800000000001</v>
+        <v>249.7633333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6541,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>250</v>
+        <v>250.5</v>
       </c>
       <c r="C176" t="n">
         <v>250.5</v>
       </c>
       <c r="D176" t="n">
-        <v>251</v>
+        <v>250.5</v>
       </c>
       <c r="E176" t="n">
-        <v>250</v>
+        <v>250.5</v>
       </c>
       <c r="F176" t="n">
-        <v>2863.273</v>
+        <v>1000</v>
       </c>
       <c r="G176" t="n">
-        <v>249.7966666666668</v>
+        <v>249.7800000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6576,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>250.5</v>
+        <v>250</v>
       </c>
       <c r="C177" t="n">
         <v>250.5</v>
       </c>
       <c r="D177" t="n">
-        <v>250.5</v>
+        <v>251</v>
       </c>
       <c r="E177" t="n">
-        <v>250.5</v>
+        <v>250</v>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>2863.273</v>
       </c>
       <c r="G177" t="n">
-        <v>249.8150000000001</v>
+        <v>249.7966666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6611,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>250</v>
+        <v>250.5</v>
       </c>
       <c r="C178" t="n">
-        <v>250</v>
+        <v>250.5</v>
       </c>
       <c r="D178" t="n">
-        <v>250</v>
+        <v>250.5</v>
       </c>
       <c r="E178" t="n">
-        <v>250</v>
+        <v>250.5</v>
       </c>
       <c r="F178" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>249.8250000000001</v>
+        <v>249.8150000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6658,10 +6656,10 @@
         <v>250</v>
       </c>
       <c r="F179" t="n">
-        <v>129.1338</v>
+        <v>400</v>
       </c>
       <c r="G179" t="n">
-        <v>249.8133333333334</v>
+        <v>249.8250000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6684,19 +6682,19 @@
         <v>250</v>
       </c>
       <c r="C180" t="n">
-        <v>249.8</v>
+        <v>250</v>
       </c>
       <c r="D180" t="n">
         <v>250</v>
       </c>
       <c r="E180" t="n">
-        <v>249.8</v>
+        <v>250</v>
       </c>
       <c r="F180" t="n">
-        <v>600</v>
+        <v>129.1338</v>
       </c>
       <c r="G180" t="n">
-        <v>249.8200000000001</v>
+        <v>249.8133333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6716,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>249.8</v>
+        <v>250</v>
       </c>
       <c r="C181" t="n">
         <v>249.8</v>
       </c>
       <c r="D181" t="n">
-        <v>249.8</v>
+        <v>250</v>
       </c>
       <c r="E181" t="n">
         <v>249.8</v>
       </c>
       <c r="F181" t="n">
-        <v>1910.6865</v>
+        <v>600</v>
       </c>
       <c r="G181" t="n">
-        <v>249.8250000000001</v>
+        <v>249.8200000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6763,10 +6761,10 @@
         <v>249.8</v>
       </c>
       <c r="F182" t="n">
-        <v>923.7725</v>
+        <v>1910.6865</v>
       </c>
       <c r="G182" t="n">
-        <v>249.8300000000001</v>
+        <v>249.8250000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6798,10 +6796,10 @@
         <v>249.8</v>
       </c>
       <c r="F183" t="n">
-        <v>1831.1417</v>
+        <v>923.7725</v>
       </c>
       <c r="G183" t="n">
-        <v>249.8266666666667</v>
+        <v>249.8300000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6833,10 +6831,10 @@
         <v>249.8</v>
       </c>
       <c r="F184" t="n">
-        <v>303</v>
+        <v>1831.1417</v>
       </c>
       <c r="G184" t="n">
-        <v>249.8100000000001</v>
+        <v>249.8266666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6856,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>251.1</v>
+        <v>249.8</v>
       </c>
       <c r="C185" t="n">
-        <v>251.1</v>
+        <v>249.8</v>
       </c>
       <c r="D185" t="n">
-        <v>251.1</v>
+        <v>249.8</v>
       </c>
       <c r="E185" t="n">
-        <v>251.1</v>
+        <v>249.8</v>
       </c>
       <c r="F185" t="n">
-        <v>579.7829</v>
+        <v>303</v>
       </c>
       <c r="G185" t="n">
-        <v>249.8283333333334</v>
+        <v>249.8100000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6891,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>250.9</v>
+        <v>251.1</v>
       </c>
       <c r="C186" t="n">
-        <v>249.8</v>
+        <v>251.1</v>
       </c>
       <c r="D186" t="n">
-        <v>251</v>
+        <v>251.1</v>
       </c>
       <c r="E186" t="n">
-        <v>249.8</v>
+        <v>251.1</v>
       </c>
       <c r="F186" t="n">
-        <v>1000</v>
+        <v>579.7829</v>
       </c>
       <c r="G186" t="n">
-        <v>249.8250000000001</v>
+        <v>249.8283333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6926,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>249.8</v>
+        <v>250.9</v>
       </c>
       <c r="C187" t="n">
         <v>249.8</v>
       </c>
       <c r="D187" t="n">
-        <v>249.8</v>
+        <v>251</v>
       </c>
       <c r="E187" t="n">
         <v>249.8</v>
       </c>
       <c r="F187" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G187" t="n">
-        <v>249.83</v>
+        <v>249.8250000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6973,10 +6971,10 @@
         <v>249.8</v>
       </c>
       <c r="F188" t="n">
-        <v>798</v>
+        <v>4000</v>
       </c>
       <c r="G188" t="n">
-        <v>249.835</v>
+        <v>249.83</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6996,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>249.9</v>
+        <v>249.8</v>
       </c>
       <c r="C189" t="n">
-        <v>249.9</v>
+        <v>249.8</v>
       </c>
       <c r="D189" t="n">
-        <v>249.9</v>
+        <v>249.8</v>
       </c>
       <c r="E189" t="n">
-        <v>249.9</v>
+        <v>249.8</v>
       </c>
       <c r="F189" t="n">
-        <v>214.5317</v>
+        <v>798</v>
       </c>
       <c r="G189" t="n">
-        <v>249.8416666666667</v>
+        <v>249.835</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7031,22 +7029,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="C190" t="n">
-        <v>249.3</v>
+        <v>249.9</v>
       </c>
       <c r="D190" t="n">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="E190" t="n">
-        <v>249.3</v>
+        <v>249.9</v>
       </c>
       <c r="F190" t="n">
-        <v>3680.7192</v>
+        <v>214.5317</v>
       </c>
       <c r="G190" t="n">
-        <v>249.8366666666667</v>
+        <v>249.8416666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7066,22 +7064,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>250.4</v>
+        <v>249.8</v>
       </c>
       <c r="C191" t="n">
-        <v>250.4</v>
+        <v>249.3</v>
       </c>
       <c r="D191" t="n">
-        <v>250.4</v>
+        <v>249.8</v>
       </c>
       <c r="E191" t="n">
-        <v>250.4</v>
+        <v>249.3</v>
       </c>
       <c r="F191" t="n">
-        <v>807.4011</v>
+        <v>3680.7192</v>
       </c>
       <c r="G191" t="n">
-        <v>249.8516666666667</v>
+        <v>249.8366666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7101,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>249.4</v>
+        <v>250.4</v>
       </c>
       <c r="C192" t="n">
-        <v>249.3</v>
+        <v>250.4</v>
       </c>
       <c r="D192" t="n">
-        <v>249.4</v>
+        <v>250.4</v>
       </c>
       <c r="E192" t="n">
-        <v>249.3</v>
+        <v>250.4</v>
       </c>
       <c r="F192" t="n">
-        <v>443</v>
+        <v>807.4011</v>
       </c>
       <c r="G192" t="n">
-        <v>249.8483333333333</v>
+        <v>249.8516666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7139,19 +7137,19 @@
         <v>249.4</v>
       </c>
       <c r="C193" t="n">
-        <v>249.4</v>
+        <v>249.3</v>
       </c>
       <c r="D193" t="n">
         <v>249.4</v>
       </c>
       <c r="E193" t="n">
-        <v>249.4</v>
+        <v>249.3</v>
       </c>
       <c r="F193" t="n">
-        <v>182.2</v>
+        <v>443</v>
       </c>
       <c r="G193" t="n">
-        <v>249.8466666666667</v>
+        <v>249.8483333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7174,19 +7172,19 @@
         <v>249.4</v>
       </c>
       <c r="C194" t="n">
-        <v>249.3</v>
+        <v>249.4</v>
       </c>
       <c r="D194" t="n">
         <v>249.4</v>
       </c>
       <c r="E194" t="n">
-        <v>249.3</v>
+        <v>249.4</v>
       </c>
       <c r="F194" t="n">
-        <v>968.4328</v>
+        <v>182.2</v>
       </c>
       <c r="G194" t="n">
-        <v>249.8433333333333</v>
+        <v>249.8466666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7218,10 +7216,10 @@
         <v>249.3</v>
       </c>
       <c r="F195" t="n">
-        <v>4160.3776</v>
+        <v>968.4328</v>
       </c>
       <c r="G195" t="n">
-        <v>249.8216666666666</v>
+        <v>249.8433333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7241,22 +7239,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>248.5</v>
+        <v>249.4</v>
       </c>
       <c r="C196" t="n">
-        <v>248.5</v>
+        <v>249.3</v>
       </c>
       <c r="D196" t="n">
-        <v>248.5</v>
+        <v>249.4</v>
       </c>
       <c r="E196" t="n">
-        <v>248.5</v>
+        <v>249.3</v>
       </c>
       <c r="F196" t="n">
-        <v>1424.1907</v>
+        <v>4160.3776</v>
       </c>
       <c r="G196" t="n">
-        <v>249.7766666666666</v>
+        <v>249.8216666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7276,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>249.3</v>
+        <v>248.5</v>
       </c>
       <c r="C197" t="n">
-        <v>250.4</v>
+        <v>248.5</v>
       </c>
       <c r="D197" t="n">
-        <v>251.4</v>
+        <v>248.5</v>
       </c>
       <c r="E197" t="n">
-        <v>249.3</v>
+        <v>248.5</v>
       </c>
       <c r="F197" t="n">
-        <v>7078.2199733</v>
+        <v>1424.1907</v>
       </c>
       <c r="G197" t="n">
-        <v>249.7633333333333</v>
+        <v>249.7766666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7311,22 +7309,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>250</v>
+        <v>249.3</v>
       </c>
       <c r="C198" t="n">
-        <v>250</v>
+        <v>250.4</v>
       </c>
       <c r="D198" t="n">
-        <v>250</v>
+        <v>251.4</v>
       </c>
       <c r="E198" t="n">
-        <v>250</v>
+        <v>249.3</v>
       </c>
       <c r="F198" t="n">
-        <v>1047.3141</v>
+        <v>7078.2199733</v>
       </c>
       <c r="G198" t="n">
-        <v>249.7433333333333</v>
+        <v>249.7633333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7358,10 +7356,10 @@
         <v>250</v>
       </c>
       <c r="F199" t="n">
-        <v>364.834</v>
+        <v>1047.3141</v>
       </c>
       <c r="G199" t="n">
-        <v>249.7499999999999</v>
+        <v>249.7433333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7381,7 +7379,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>249.2</v>
+        <v>250</v>
       </c>
       <c r="C200" t="n">
         <v>250</v>
@@ -7390,10 +7388,10 @@
         <v>250</v>
       </c>
       <c r="E200" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F200" t="n">
-        <v>4966</v>
+        <v>364.834</v>
       </c>
       <c r="G200" t="n">
         <v>249.7499999999999</v>
@@ -7416,7 +7414,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>250</v>
+        <v>249.2</v>
       </c>
       <c r="C201" t="n">
         <v>250</v>
@@ -7425,10 +7423,10 @@
         <v>250</v>
       </c>
       <c r="E201" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F201" t="n">
-        <v>1203.0418</v>
+        <v>4966</v>
       </c>
       <c r="G201" t="n">
         <v>249.7499999999999</v>
@@ -7463,7 +7461,7 @@
         <v>250</v>
       </c>
       <c r="F202" t="n">
-        <v>273.0519</v>
+        <v>1203.0418</v>
       </c>
       <c r="G202" t="n">
         <v>249.7499999999999</v>
@@ -7489,19 +7487,19 @@
         <v>250</v>
       </c>
       <c r="C203" t="n">
-        <v>249.7</v>
+        <v>250</v>
       </c>
       <c r="D203" t="n">
         <v>250</v>
       </c>
       <c r="E203" t="n">
-        <v>249.7</v>
+        <v>250</v>
       </c>
       <c r="F203" t="n">
-        <v>341.8618</v>
+        <v>273.0519</v>
       </c>
       <c r="G203" t="n">
-        <v>249.7449999999999</v>
+        <v>249.7499999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7524,16 +7522,16 @@
         <v>250</v>
       </c>
       <c r="C204" t="n">
-        <v>250</v>
+        <v>249.7</v>
       </c>
       <c r="D204" t="n">
         <v>250</v>
       </c>
       <c r="E204" t="n">
-        <v>250</v>
+        <v>249.7</v>
       </c>
       <c r="F204" t="n">
-        <v>114.1185</v>
+        <v>341.8618</v>
       </c>
       <c r="G204" t="n">
         <v>249.7449999999999</v>
@@ -7568,10 +7566,10 @@
         <v>250</v>
       </c>
       <c r="F205" t="n">
-        <v>390.9872</v>
+        <v>114.1185</v>
       </c>
       <c r="G205" t="n">
-        <v>249.7616666666666</v>
+        <v>249.7449999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7603,10 +7601,10 @@
         <v>250</v>
       </c>
       <c r="F206" t="n">
-        <v>526.052</v>
+        <v>390.9872</v>
       </c>
       <c r="G206" t="n">
-        <v>249.7783333333333</v>
+        <v>249.7616666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7626,22 +7624,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>250.4</v>
+        <v>250</v>
       </c>
       <c r="C207" t="n">
-        <v>251.4</v>
+        <v>250</v>
       </c>
       <c r="D207" t="n">
-        <v>251.4</v>
+        <v>250</v>
       </c>
       <c r="E207" t="n">
-        <v>250.4</v>
+        <v>250</v>
       </c>
       <c r="F207" t="n">
-        <v>4201.14399363</v>
+        <v>526.052</v>
       </c>
       <c r="G207" t="n">
-        <v>249.8183333333332</v>
+        <v>249.7783333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7661,22 +7659,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>250</v>
+        <v>250.4</v>
       </c>
       <c r="C208" t="n">
-        <v>250</v>
+        <v>251.4</v>
       </c>
       <c r="D208" t="n">
-        <v>250</v>
+        <v>251.4</v>
       </c>
       <c r="E208" t="n">
-        <v>250</v>
+        <v>250.4</v>
       </c>
       <c r="F208" t="n">
-        <v>776.3459</v>
+        <v>4201.14399363</v>
       </c>
       <c r="G208" t="n">
-        <v>249.8416666666666</v>
+        <v>249.8183333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7708,10 +7706,10 @@
         <v>250</v>
       </c>
       <c r="F209" t="n">
-        <v>159.0477</v>
+        <v>776.3459</v>
       </c>
       <c r="G209" t="n">
-        <v>249.8216666666666</v>
+        <v>249.8416666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7743,10 +7741,10 @@
         <v>250</v>
       </c>
       <c r="F210" t="n">
-        <v>1000</v>
+        <v>159.0477</v>
       </c>
       <c r="G210" t="n">
-        <v>249.8433333333332</v>
+        <v>249.8216666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7766,22 +7764,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>251.3</v>
+        <v>250</v>
       </c>
       <c r="C211" t="n">
-        <v>251.3</v>
+        <v>250</v>
       </c>
       <c r="D211" t="n">
-        <v>251.3</v>
+        <v>250</v>
       </c>
       <c r="E211" t="n">
-        <v>251.3</v>
+        <v>250</v>
       </c>
       <c r="F211" t="n">
-        <v>12.5394</v>
+        <v>1000</v>
       </c>
       <c r="G211" t="n">
-        <v>249.8866666666665</v>
+        <v>249.8433333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7801,22 +7799,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>250</v>
+        <v>251.3</v>
       </c>
       <c r="C212" t="n">
-        <v>249</v>
+        <v>251.3</v>
       </c>
       <c r="D212" t="n">
-        <v>250</v>
+        <v>251.3</v>
       </c>
       <c r="E212" t="n">
-        <v>249</v>
+        <v>251.3</v>
       </c>
       <c r="F212" t="n">
-        <v>11978.5342</v>
+        <v>12.5394</v>
       </c>
       <c r="G212" t="n">
-        <v>249.8599999999998</v>
+        <v>249.8866666666665</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7839,19 +7837,19 @@
         <v>250</v>
       </c>
       <c r="C213" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D213" t="n">
         <v>250</v>
       </c>
       <c r="E213" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F213" t="n">
-        <v>529.9</v>
+        <v>11978.5342</v>
       </c>
       <c r="G213" t="n">
-        <v>249.8649999999998</v>
+        <v>249.8599999999998</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7883,10 +7881,10 @@
         <v>250</v>
       </c>
       <c r="F214" t="n">
-        <v>326</v>
+        <v>529.9</v>
       </c>
       <c r="G214" t="n">
-        <v>249.8549999999998</v>
+        <v>249.8649999999998</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7906,22 +7904,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>250.3</v>
+        <v>250</v>
       </c>
       <c r="C215" t="n">
-        <v>250.3</v>
+        <v>250</v>
       </c>
       <c r="D215" t="n">
-        <v>250.3</v>
+        <v>250</v>
       </c>
       <c r="E215" t="n">
-        <v>250.3</v>
+        <v>250</v>
       </c>
       <c r="F215" t="n">
-        <v>408.6025</v>
+        <v>326</v>
       </c>
       <c r="G215" t="n">
-        <v>249.8816666666665</v>
+        <v>249.8549999999998</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7953,10 +7951,10 @@
         <v>250.3</v>
       </c>
       <c r="F216" t="n">
-        <v>2142.6427</v>
+        <v>408.6025</v>
       </c>
       <c r="G216" t="n">
-        <v>249.8916666666665</v>
+        <v>249.8816666666665</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7976,22 +7974,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>250.4</v>
+        <v>250.3</v>
       </c>
       <c r="C217" t="n">
-        <v>250.4</v>
+        <v>250.3</v>
       </c>
       <c r="D217" t="n">
-        <v>250.4</v>
+        <v>250.3</v>
       </c>
       <c r="E217" t="n">
-        <v>250.4</v>
+        <v>250.3</v>
       </c>
       <c r="F217" t="n">
-        <v>1711.5134</v>
+        <v>2142.6427</v>
       </c>
       <c r="G217" t="n">
-        <v>249.9016666666665</v>
+        <v>249.8916666666665</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8011,22 +8009,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="C218" t="n">
-        <v>251.3</v>
+        <v>250.4</v>
       </c>
       <c r="D218" t="n">
-        <v>251.3</v>
+        <v>250.4</v>
       </c>
       <c r="E218" t="n">
-        <v>250.3</v>
+        <v>250.4</v>
       </c>
       <c r="F218" t="n">
-        <v>5736.9793</v>
+        <v>1711.5134</v>
       </c>
       <c r="G218" t="n">
-        <v>249.9283333333331</v>
+        <v>249.9016666666665</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8046,22 +8044,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="C219" t="n">
         <v>251.3</v>
-      </c>
-      <c r="C219" t="n">
-        <v>249.7</v>
       </c>
       <c r="D219" t="n">
         <v>251.3</v>
       </c>
       <c r="E219" t="n">
-        <v>249.7</v>
+        <v>250.3</v>
       </c>
       <c r="F219" t="n">
-        <v>5626.0309</v>
+        <v>5736.9793</v>
       </c>
       <c r="G219" t="n">
-        <v>249.8983333333331</v>
+        <v>249.9283333333331</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8081,22 +8079,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>249.5</v>
+        <v>251.3</v>
       </c>
       <c r="C220" t="n">
-        <v>249.5</v>
+        <v>249.7</v>
       </c>
       <c r="D220" t="n">
-        <v>249.5</v>
+        <v>251.3</v>
       </c>
       <c r="E220" t="n">
-        <v>249.5</v>
+        <v>249.7</v>
       </c>
       <c r="F220" t="n">
-        <v>50</v>
+        <v>5626.0309</v>
       </c>
       <c r="G220" t="n">
-        <v>249.8999999999998</v>
+        <v>249.8983333333331</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8116,22 +8114,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>249.7</v>
+        <v>249.5</v>
       </c>
       <c r="C221" t="n">
-        <v>249.7</v>
+        <v>249.5</v>
       </c>
       <c r="D221" t="n">
-        <v>249.7</v>
+        <v>249.5</v>
       </c>
       <c r="E221" t="n">
-        <v>249.7</v>
+        <v>249.5</v>
       </c>
       <c r="F221" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G221" t="n">
-        <v>249.9166666666665</v>
+        <v>249.8999999999998</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8151,22 +8149,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>251</v>
+        <v>249.7</v>
       </c>
       <c r="C222" t="n">
-        <v>251.3</v>
+        <v>249.7</v>
       </c>
       <c r="D222" t="n">
-        <v>251.3</v>
+        <v>249.7</v>
       </c>
       <c r="E222" t="n">
-        <v>251</v>
+        <v>249.7</v>
       </c>
       <c r="F222" t="n">
-        <v>1913.559</v>
+        <v>100</v>
       </c>
       <c r="G222" t="n">
-        <v>249.9299999999998</v>
+        <v>249.9166666666665</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8186,7 +8184,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>251.3</v>
+        <v>251</v>
       </c>
       <c r="C223" t="n">
         <v>251.3</v>
@@ -8195,13 +8193,13 @@
         <v>251.3</v>
       </c>
       <c r="E223" t="n">
-        <v>251.3</v>
+        <v>251</v>
       </c>
       <c r="F223" t="n">
-        <v>48.9234</v>
+        <v>1913.559</v>
       </c>
       <c r="G223" t="n">
-        <v>249.9599999999998</v>
+        <v>249.9299999999998</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8233,10 +8231,10 @@
         <v>251.3</v>
       </c>
       <c r="F224" t="n">
-        <v>237.2802</v>
+        <v>48.9234</v>
       </c>
       <c r="G224" t="n">
-        <v>250.0049999999997</v>
+        <v>249.9599999999998</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8259,19 +8257,19 @@
         <v>251.3</v>
       </c>
       <c r="C225" t="n">
-        <v>251.4</v>
+        <v>251.3</v>
       </c>
       <c r="D225" t="n">
-        <v>251.4</v>
+        <v>251.3</v>
       </c>
       <c r="E225" t="n">
         <v>251.3</v>
       </c>
       <c r="F225" t="n">
-        <v>1031.4634</v>
+        <v>237.2802</v>
       </c>
       <c r="G225" t="n">
-        <v>250.0216666666664</v>
+        <v>250.0049999999997</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8294,19 +8292,19 @@
         <v>251.3</v>
       </c>
       <c r="C226" t="n">
-        <v>251.3</v>
+        <v>251.4</v>
       </c>
       <c r="D226" t="n">
-        <v>251.3</v>
+        <v>251.4</v>
       </c>
       <c r="E226" t="n">
         <v>251.3</v>
       </c>
       <c r="F226" t="n">
-        <v>135.7264</v>
+        <v>1031.4634</v>
       </c>
       <c r="G226" t="n">
-        <v>250.0366666666664</v>
+        <v>250.0216666666664</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8326,22 +8324,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>251.4</v>
+        <v>251.3</v>
       </c>
       <c r="C227" t="n">
-        <v>251.4</v>
+        <v>251.3</v>
       </c>
       <c r="D227" t="n">
-        <v>251.4</v>
+        <v>251.3</v>
       </c>
       <c r="E227" t="n">
-        <v>251.4</v>
+        <v>251.3</v>
       </c>
       <c r="F227" t="n">
-        <v>772.7117</v>
+        <v>135.7264</v>
       </c>
       <c r="G227" t="n">
-        <v>250.0649999999997</v>
+        <v>250.0366666666664</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8373,10 +8371,10 @@
         <v>251.4</v>
       </c>
       <c r="F228" t="n">
-        <v>570.8425</v>
+        <v>772.7117</v>
       </c>
       <c r="G228" t="n">
-        <v>250.1166666666664</v>
+        <v>250.0649999999997</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8408,10 +8406,10 @@
         <v>251.4</v>
       </c>
       <c r="F229" t="n">
-        <v>600</v>
+        <v>570.8425</v>
       </c>
       <c r="G229" t="n">
-        <v>250.138333333333</v>
+        <v>250.1166666666664</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8443,10 +8441,10 @@
         <v>251.4</v>
       </c>
       <c r="F230" t="n">
-        <v>360.108</v>
+        <v>600</v>
       </c>
       <c r="G230" t="n">
-        <v>250.1599999999997</v>
+        <v>250.138333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8478,10 +8476,10 @@
         <v>251.4</v>
       </c>
       <c r="F231" t="n">
-        <v>1471.7962</v>
+        <v>360.108</v>
       </c>
       <c r="G231" t="n">
-        <v>250.1949999999997</v>
+        <v>250.1599999999997</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8513,10 +8511,10 @@
         <v>251.4</v>
       </c>
       <c r="F232" t="n">
-        <v>286.6859</v>
+        <v>1471.7962</v>
       </c>
       <c r="G232" t="n">
-        <v>250.2299999999997</v>
+        <v>250.1949999999997</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8548,10 +8546,10 @@
         <v>251.4</v>
       </c>
       <c r="F233" t="n">
-        <v>224.8361</v>
+        <v>286.6859</v>
       </c>
       <c r="G233" t="n">
-        <v>250.2649999999997</v>
+        <v>250.2299999999997</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8574,19 +8572,19 @@
         <v>251.4</v>
       </c>
       <c r="C234" t="n">
-        <v>251.5</v>
+        <v>251.4</v>
       </c>
       <c r="D234" t="n">
-        <v>251.5</v>
+        <v>251.4</v>
       </c>
       <c r="E234" t="n">
         <v>251.4</v>
       </c>
       <c r="F234" t="n">
-        <v>4264.9895</v>
+        <v>224.8361</v>
       </c>
       <c r="G234" t="n">
-        <v>250.288333333333</v>
+        <v>250.2649999999997</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8606,7 +8604,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>251.5</v>
+        <v>251.4</v>
       </c>
       <c r="C235" t="n">
         <v>251.5</v>
@@ -8615,13 +8613,13 @@
         <v>251.5</v>
       </c>
       <c r="E235" t="n">
-        <v>251.5</v>
+        <v>251.4</v>
       </c>
       <c r="F235" t="n">
-        <v>2041.3456</v>
+        <v>4264.9895</v>
       </c>
       <c r="G235" t="n">
-        <v>250.3049999999997</v>
+        <v>250.288333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8644,19 +8642,19 @@
         <v>251.5</v>
       </c>
       <c r="C236" t="n">
-        <v>251.7</v>
+        <v>251.5</v>
       </c>
       <c r="D236" t="n">
-        <v>251.7</v>
+        <v>251.5</v>
       </c>
       <c r="E236" t="n">
         <v>251.5</v>
       </c>
       <c r="F236" t="n">
-        <v>183.0549</v>
+        <v>2041.3456</v>
       </c>
       <c r="G236" t="n">
-        <v>250.3249999999997</v>
+        <v>250.3049999999997</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8676,22 +8674,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>251.4</v>
+        <v>251.5</v>
       </c>
       <c r="C237" t="n">
-        <v>251.4</v>
+        <v>251.7</v>
       </c>
       <c r="D237" t="n">
-        <v>251.4</v>
+        <v>251.7</v>
       </c>
       <c r="E237" t="n">
-        <v>251.4</v>
+        <v>251.5</v>
       </c>
       <c r="F237" t="n">
-        <v>183</v>
+        <v>183.0549</v>
       </c>
       <c r="G237" t="n">
-        <v>250.3399999999997</v>
+        <v>250.3249999999997</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8711,22 +8709,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>251.3</v>
+        <v>251.4</v>
       </c>
       <c r="C238" t="n">
-        <v>251.3</v>
+        <v>251.4</v>
       </c>
       <c r="D238" t="n">
-        <v>251.3</v>
+        <v>251.4</v>
       </c>
       <c r="E238" t="n">
-        <v>251.3</v>
+        <v>251.4</v>
       </c>
       <c r="F238" t="n">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G238" t="n">
-        <v>250.3616666666664</v>
+        <v>250.3399999999997</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8746,22 +8744,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>251.7</v>
+        <v>251.3</v>
       </c>
       <c r="C239" t="n">
-        <v>251.7</v>
+        <v>251.3</v>
       </c>
       <c r="D239" t="n">
-        <v>251.7</v>
+        <v>251.3</v>
       </c>
       <c r="E239" t="n">
-        <v>251.7</v>
+        <v>251.3</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="G239" t="n">
-        <v>250.3899999999997</v>
+        <v>250.3616666666664</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8784,19 +8782,19 @@
         <v>251.7</v>
       </c>
       <c r="C240" t="n">
-        <v>250.8</v>
+        <v>251.7</v>
       </c>
       <c r="D240" t="n">
         <v>251.7</v>
       </c>
       <c r="E240" t="n">
-        <v>250.8</v>
+        <v>251.7</v>
       </c>
       <c r="F240" t="n">
-        <v>528.9962</v>
+        <v>2</v>
       </c>
       <c r="G240" t="n">
-        <v>250.4066666666664</v>
+        <v>250.3899999999997</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8819,19 +8817,19 @@
         <v>251.7</v>
       </c>
       <c r="C241" t="n">
-        <v>251.7</v>
+        <v>250.8</v>
       </c>
       <c r="D241" t="n">
         <v>251.7</v>
       </c>
       <c r="E241" t="n">
-        <v>251.7</v>
+        <v>250.8</v>
       </c>
       <c r="F241" t="n">
-        <v>3.307e-05</v>
+        <v>528.9962</v>
       </c>
       <c r="G241" t="n">
-        <v>250.4383333333331</v>
+        <v>250.4066666666664</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8851,22 +8849,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>252</v>
+        <v>251.7</v>
       </c>
       <c r="C242" t="n">
-        <v>253</v>
+        <v>251.7</v>
       </c>
       <c r="D242" t="n">
-        <v>253</v>
+        <v>251.7</v>
       </c>
       <c r="E242" t="n">
-        <v>252</v>
+        <v>251.7</v>
       </c>
       <c r="F242" t="n">
-        <v>509.059</v>
+        <v>3.307e-05</v>
       </c>
       <c r="G242" t="n">
-        <v>250.4916666666664</v>
+        <v>250.4383333333331</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8886,22 +8884,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>252</v>
+      </c>
+      <c r="C243" t="n">
         <v>253</v>
       </c>
-      <c r="C243" t="n">
-        <v>254.3</v>
-      </c>
       <c r="D243" t="n">
-        <v>255.3</v>
+        <v>253</v>
       </c>
       <c r="E243" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F243" t="n">
-        <v>2492.5187</v>
+        <v>509.059</v>
       </c>
       <c r="G243" t="n">
-        <v>250.5666666666664</v>
+        <v>250.4916666666664</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8921,22 +8919,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>253</v>
+      </c>
+      <c r="C244" t="n">
         <v>254.3</v>
       </c>
-      <c r="C244" t="n">
-        <v>255.2</v>
-      </c>
       <c r="D244" t="n">
-        <v>255.2</v>
+        <v>255.3</v>
       </c>
       <c r="E244" t="n">
-        <v>254.3</v>
+        <v>253</v>
       </c>
       <c r="F244" t="n">
-        <v>1203.64855446</v>
+        <v>2492.5187</v>
       </c>
       <c r="G244" t="n">
-        <v>250.6566666666664</v>
+        <v>250.5666666666664</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8956,22 +8954,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>254.3</v>
+      </c>
+      <c r="C245" t="n">
         <v>255.2</v>
-      </c>
-      <c r="C245" t="n">
-        <v>253.6</v>
       </c>
       <c r="D245" t="n">
         <v>255.2</v>
       </c>
       <c r="E245" t="n">
-        <v>253.6</v>
+        <v>254.3</v>
       </c>
       <c r="F245" t="n">
-        <v>805.65814554</v>
+        <v>1203.64855446</v>
       </c>
       <c r="G245" t="n">
-        <v>250.6983333333331</v>
+        <v>250.6566666666664</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8991,28 +8989,28 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>253.3</v>
+        <v>255.2</v>
       </c>
       <c r="C246" t="n">
-        <v>253.3</v>
+        <v>253.6</v>
       </c>
       <c r="D246" t="n">
-        <v>253.3</v>
+        <v>255.2</v>
       </c>
       <c r="E246" t="n">
-        <v>253.3</v>
+        <v>253.6</v>
       </c>
       <c r="F246" t="n">
-        <v>7</v>
+        <v>805.65814554</v>
       </c>
       <c r="G246" t="n">
-        <v>250.7566666666665</v>
+        <v>250.6983333333331</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -9026,28 +9024,28 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>252.1</v>
+        <v>253.3</v>
       </c>
       <c r="C247" t="n">
-        <v>252.1</v>
+        <v>253.3</v>
       </c>
       <c r="D247" t="n">
-        <v>252.1</v>
+        <v>253.3</v>
       </c>
       <c r="E247" t="n">
-        <v>252.1</v>
+        <v>253.3</v>
       </c>
       <c r="F247" t="n">
-        <v>1203.6486</v>
+        <v>7</v>
       </c>
       <c r="G247" t="n">
-        <v>250.7949999999998</v>
+        <v>250.7566666666665</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -9061,28 +9059,28 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>253.2</v>
+        <v>252.1</v>
       </c>
       <c r="C248" t="n">
-        <v>253.2</v>
+        <v>252.1</v>
       </c>
       <c r="D248" t="n">
-        <v>253.2</v>
+        <v>252.1</v>
       </c>
       <c r="E248" t="n">
-        <v>253.2</v>
+        <v>252.1</v>
       </c>
       <c r="F248" t="n">
-        <v>1621.5</v>
+        <v>1203.6486</v>
       </c>
       <c r="G248" t="n">
-        <v>250.8516666666665</v>
+        <v>250.7949999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9108,10 +9106,10 @@
         <v>253.2</v>
       </c>
       <c r="F249" t="n">
-        <v>453.2499</v>
+        <v>1621.5</v>
       </c>
       <c r="G249" t="n">
-        <v>250.9066666666665</v>
+        <v>250.8516666666665</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9131,22 +9129,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>254.2</v>
+        <v>253.2</v>
       </c>
       <c r="C250" t="n">
-        <v>254.2</v>
+        <v>253.2</v>
       </c>
       <c r="D250" t="n">
-        <v>254.2</v>
+        <v>253.2</v>
       </c>
       <c r="E250" t="n">
-        <v>254.2</v>
+        <v>253.2</v>
       </c>
       <c r="F250" t="n">
-        <v>2825.2</v>
+        <v>453.2499</v>
       </c>
       <c r="G250" t="n">
-        <v>250.9883333333332</v>
+        <v>250.9066666666665</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9166,22 +9164,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>253.2</v>
+        <v>254.2</v>
       </c>
       <c r="C251" t="n">
-        <v>253.2</v>
+        <v>254.2</v>
       </c>
       <c r="D251" t="n">
-        <v>253.2</v>
+        <v>254.2</v>
       </c>
       <c r="E251" t="n">
-        <v>253.2</v>
+        <v>254.2</v>
       </c>
       <c r="F251" t="n">
-        <v>349.4109</v>
+        <v>2825.2</v>
       </c>
       <c r="G251" t="n">
-        <v>251.0349999999999</v>
+        <v>250.9883333333332</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9213,10 +9211,10 @@
         <v>253.2</v>
       </c>
       <c r="F252" t="n">
-        <v>52.0178</v>
+        <v>349.4109</v>
       </c>
       <c r="G252" t="n">
-        <v>251.0999999999999</v>
+        <v>251.0349999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9239,19 +9237,19 @@
         <v>253.2</v>
       </c>
       <c r="C253" t="n">
-        <v>252.2</v>
+        <v>253.2</v>
       </c>
       <c r="D253" t="n">
         <v>253.2</v>
       </c>
       <c r="E253" t="n">
-        <v>252.2</v>
+        <v>253.2</v>
       </c>
       <c r="F253" t="n">
-        <v>5707.7745</v>
+        <v>52.0178</v>
       </c>
       <c r="G253" t="n">
-        <v>251.1466666666666</v>
+        <v>251.0999999999999</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9271,22 +9269,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>252.5</v>
+        <v>253.2</v>
       </c>
       <c r="C254" t="n">
-        <v>252.4</v>
+        <v>252.2</v>
       </c>
       <c r="D254" t="n">
-        <v>252.5</v>
+        <v>253.2</v>
       </c>
       <c r="E254" t="n">
-        <v>252.4</v>
+        <v>252.2</v>
       </c>
       <c r="F254" t="n">
-        <v>15416.3866</v>
+        <v>5707.7745</v>
       </c>
       <c r="G254" t="n">
-        <v>251.1983333333333</v>
+        <v>251.1466666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9306,22 +9304,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>252.4</v>
+        <v>252.5</v>
       </c>
       <c r="C255" t="n">
         <v>252.4</v>
       </c>
       <c r="D255" t="n">
-        <v>252.4</v>
+        <v>252.5</v>
       </c>
       <c r="E255" t="n">
         <v>252.4</v>
       </c>
       <c r="F255" t="n">
-        <v>1498.1792</v>
+        <v>15416.3866</v>
       </c>
       <c r="G255" t="n">
-        <v>251.2499999999999</v>
+        <v>251.1983333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9336,6 +9334,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="C256" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="D256" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="E256" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1498.1792</v>
+      </c>
+      <c r="G256" t="n">
+        <v>251.2499999999999</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>257.0771</v>
       </c>
       <c r="G2" t="n">
+        <v>250.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>250.5333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6438</v>
       </c>
       <c r="G3" t="n">
+        <v>250.6466666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>250.5616666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2898.3099</v>
       </c>
       <c r="G4" t="n">
+        <v>250.5533333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>250.5900000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>14122.9347</v>
       </c>
       <c r="G5" t="n">
+        <v>250.4666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>250.62</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3321.8733</v>
       </c>
       <c r="G6" t="n">
+        <v>250.38</v>
+      </c>
+      <c r="H6" t="n">
         <v>250.65</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5626.7454</v>
       </c>
       <c r="G7" t="n">
+        <v>250.3066666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>250.68</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>8132.5439</v>
       </c>
       <c r="G8" t="n">
+        <v>250.2266666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>250.7083333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,29 @@
         <v>511.9999</v>
       </c>
       <c r="G9" t="n">
+        <v>250.1466666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>250.7383333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +769,29 @@
         <v>389.6325</v>
       </c>
       <c r="G10" t="n">
+        <v>250.0666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>250.7683333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +815,21 @@
         <v>1007.2052</v>
       </c>
       <c r="G11" t="n">
+        <v>249.8733333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>250.7733333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +853,21 @@
         <v>165.3525</v>
       </c>
       <c r="G12" t="n">
+        <v>249.8600000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>250.8083333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +891,21 @@
         <v>19.5935</v>
       </c>
       <c r="G13" t="n">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>250.845</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +929,21 @@
         <v>162.94</v>
       </c>
       <c r="G14" t="n">
+        <v>249.8066666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>250.865</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +967,21 @@
         <v>3354.76237031</v>
       </c>
       <c r="G15" t="n">
+        <v>249.8466666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>250.8766666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1005,21 @@
         <v>9983.104600000001</v>
       </c>
       <c r="G16" t="n">
+        <v>249.76</v>
+      </c>
+      <c r="H16" t="n">
         <v>250.835</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1043,21 @@
         <v>6266.4698</v>
       </c>
       <c r="G17" t="n">
+        <v>249.6933333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>250.835</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1081,25 @@
         <v>1488.8207</v>
       </c>
       <c r="G18" t="n">
+        <v>249.6133333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>250.8133333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>250</v>
+      </c>
+      <c r="L18" t="n">
+        <v>250</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1123,29 @@
         <v>278.7036</v>
       </c>
       <c r="G19" t="n">
+        <v>249.5333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>250.765</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>250</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1169,29 @@
         <v>243.0729</v>
       </c>
       <c r="G20" t="n">
+        <v>249.4533333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>250.7150000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>250</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1215,21 @@
         <v>124.1272</v>
       </c>
       <c r="G21" t="n">
+        <v>249.3733333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>250.6766666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1253,25 @@
         <v>6</v>
       </c>
       <c r="G22" t="n">
+        <v>249.2933333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>250.6383333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1295,29 @@
         <v>6</v>
       </c>
       <c r="G23" t="n">
+        <v>249.2199999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>250.5833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1341,29 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
+        <v>249.1466666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>250.5450000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1387,25 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
+        <v>249.2066666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>250.5400000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1429,27 @@
         <v>12</v>
       </c>
       <c r="G26" t="n">
+        <v>249.3799999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>250.5350000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1473,27 @@
         <v>14</v>
       </c>
       <c r="G27" t="n">
+        <v>249.4266666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>250.5116666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1517,21 @@
         <v>15</v>
       </c>
       <c r="G28" t="n">
+        <v>249.4199999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>250.4616666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1555,21 @@
         <v>6</v>
       </c>
       <c r="G29" t="n">
+        <v>249.4799999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>250.4450000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1593,21 @@
         <v>12</v>
       </c>
       <c r="G30" t="n">
+        <v>249.4399999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>250.3766666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1631,21 @@
         <v>15</v>
       </c>
       <c r="G31" t="n">
+        <v>249.6133333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>250.3650000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1669,21 @@
         <v>42.16</v>
       </c>
       <c r="G32" t="n">
+        <v>249.5466666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>250.3150000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1707,21 @@
         <v>32.5785</v>
       </c>
       <c r="G33" t="n">
+        <v>249.5666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>250.2650000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1745,21 @@
         <v>2.063</v>
       </c>
       <c r="G34" t="n">
+        <v>249.5866666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>250.1950000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1783,21 @@
         <v>8.1532</v>
       </c>
       <c r="G35" t="n">
+        <v>249.6066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>250.1450000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1821,21 @@
         <v>15.6485</v>
       </c>
       <c r="G36" t="n">
+        <v>249.6933333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>250.1116666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1859,21 @@
         <v>3.3156</v>
       </c>
       <c r="G37" t="n">
+        <v>249.7799999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>250.1033333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1897,21 @@
         <v>5.9132</v>
       </c>
       <c r="G38" t="n">
+        <v>249.8666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>250.0983333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1935,21 @@
         <v>6</v>
       </c>
       <c r="G39" t="n">
+        <v>250.0733333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>250.1200000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1973,21 @@
         <v>4.6362</v>
       </c>
       <c r="G40" t="n">
+        <v>250.0266666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>250.1083333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2011,21 @@
         <v>30</v>
       </c>
       <c r="G41" t="n">
+        <v>249.9133333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>250.0783333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2049,21 @@
         <v>5168.2026</v>
       </c>
       <c r="G42" t="n">
+        <v>249.7866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>250.0433333333335</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2087,21 @@
         <v>14.8241</v>
       </c>
       <c r="G43" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="H43" t="n">
         <v>250.0100000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2125,21 @@
         <v>19.3286</v>
       </c>
       <c r="G44" t="n">
+        <v>249.6333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>249.9716666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2163,21 @@
         <v>4.3605</v>
       </c>
       <c r="G45" t="n">
+        <v>249.5466666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>249.9300000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2201,21 @@
         <v>1018.255</v>
       </c>
       <c r="G46" t="n">
+        <v>249.5133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>249.9233333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2239,21 @@
         <v>2414.0084</v>
       </c>
       <c r="G47" t="n">
+        <v>249.54</v>
+      </c>
+      <c r="H47" t="n">
         <v>249.8783333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2277,21 @@
         <v>19.1861</v>
       </c>
       <c r="G48" t="n">
+        <v>249.5666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>249.8483333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2315,21 @@
         <v>124.5976</v>
       </c>
       <c r="G49" t="n">
+        <v>249.6866666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>249.8400000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2353,21 @@
         <v>25.1226</v>
       </c>
       <c r="G50" t="n">
+        <v>249.7466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>249.8183333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2391,21 @@
         <v>23.1569</v>
       </c>
       <c r="G51" t="n">
+        <v>249.7933333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>249.8100000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2429,21 @@
         <v>9.25</v>
       </c>
       <c r="G52" t="n">
+        <v>249.7866666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>249.7916666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2467,21 @@
         <v>9.3467</v>
       </c>
       <c r="G53" t="n">
+        <v>249.78</v>
+      </c>
+      <c r="H53" t="n">
         <v>249.7733333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2505,21 @@
         <v>18</v>
       </c>
       <c r="G54" t="n">
+        <v>249.6533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>249.7550000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2543,21 @@
         <v>9</v>
       </c>
       <c r="G55" t="n">
+        <v>249.7066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>249.7516666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2581,21 @@
         <v>15</v>
       </c>
       <c r="G56" t="n">
+        <v>249.8266666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>249.7483333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2619,21 @@
         <v>6</v>
       </c>
       <c r="G57" t="n">
+        <v>249.9666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>249.76</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2657,21 @@
         <v>63.2706</v>
       </c>
       <c r="G58" t="n">
+        <v>250.1133333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>249.775</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2695,21 @@
         <v>15.1873</v>
       </c>
       <c r="G59" t="n">
+        <v>250.2066666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>249.7816666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2733,21 @@
         <v>18.3551</v>
       </c>
       <c r="G60" t="n">
+        <v>250.4066666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>249.81</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2771,21 @@
         <v>18.4584</v>
       </c>
       <c r="G61" t="n">
+        <v>250.3800000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>249.8166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2809,21 @@
         <v>22.8116</v>
       </c>
       <c r="G62" t="n">
+        <v>250.4466666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>249.8066666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2847,21 @@
         <v>68.435</v>
       </c>
       <c r="G63" t="n">
+        <v>250.5133333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>249.815</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2885,21 @@
         <v>39.6535</v>
       </c>
       <c r="G64" t="n">
+        <v>250.5600000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>249.8416666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2923,21 @@
         <v>550</v>
       </c>
       <c r="G65" t="n">
+        <v>250.5933333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>249.85</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2961,21 @@
         <v>2624.9776</v>
       </c>
       <c r="G66" t="n">
+        <v>250.6466666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>249.8766666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2999,21 @@
         <v>753.0001</v>
       </c>
       <c r="G67" t="n">
+        <v>250.6933333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>249.8883333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3037,21 @@
         <v>244.6584</v>
       </c>
       <c r="G68" t="n">
+        <v>250.7266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>249.8983333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3075,21 @@
         <v>4</v>
       </c>
       <c r="G69" t="n">
+        <v>250.7733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>249.9116666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3113,21 @@
         <v>890.1155</v>
       </c>
       <c r="G70" t="n">
+        <v>250.76</v>
+      </c>
+      <c r="H70" t="n">
         <v>249.9250000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3151,21 @@
         <v>162</v>
       </c>
       <c r="G71" t="n">
+        <v>250.7466666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>249.9666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3189,21 @@
         <v>126</v>
       </c>
       <c r="G72" t="n">
+        <v>250.7333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>249.9783333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3227,21 @@
         <v>378.44</v>
       </c>
       <c r="G73" t="n">
+        <v>250.7133333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>249.9866666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3265,21 @@
         <v>21.207</v>
       </c>
       <c r="G74" t="n">
+        <v>250.7266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>250.0116666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3303,21 @@
         <v>329.4808</v>
       </c>
       <c r="G75" t="n">
+        <v>250.64</v>
+      </c>
+      <c r="H75" t="n">
         <v>250.0083333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3341,21 @@
         <v>161.9999</v>
       </c>
       <c r="G76" t="n">
+        <v>250.64</v>
+      </c>
+      <c r="H76" t="n">
         <v>250.0366666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3379,21 @@
         <v>124</v>
       </c>
       <c r="G77" t="n">
+        <v>250.64</v>
+      </c>
+      <c r="H77" t="n">
         <v>250.0433333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3417,21 @@
         <v>261.2629</v>
       </c>
       <c r="G78" t="n">
+        <v>250.6533333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>250.075</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3455,21 @@
         <v>493</v>
       </c>
       <c r="G79" t="n">
+        <v>250.5933333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>250.1066666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3493,21 @@
         <v>182</v>
       </c>
       <c r="G80" t="n">
+        <v>250.6066666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>250.1383333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3531,21 @@
         <v>122.5006</v>
       </c>
       <c r="G81" t="n">
+        <v>250.5466666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>250.17</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3569,21 @@
         <v>144.9999</v>
       </c>
       <c r="G82" t="n">
+        <v>250.5333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>250.1983333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3607,21 @@
         <v>525</v>
       </c>
       <c r="G83" t="n">
+        <v>250.5333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>250.2266666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3645,21 @@
         <v>913.3943</v>
       </c>
       <c r="G84" t="n">
+        <v>250.52</v>
+      </c>
+      <c r="H84" t="n">
         <v>250.255</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3683,21 @@
         <v>3173.07665689</v>
       </c>
       <c r="G85" t="n">
+        <v>250.58</v>
+      </c>
+      <c r="H85" t="n">
         <v>250.2683333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3721,21 @@
         <v>4.2886</v>
       </c>
       <c r="G86" t="n">
+        <v>250.6466666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>250.2833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3759,21 @@
         <v>41265.2805</v>
       </c>
       <c r="G87" t="n">
+        <v>250.48</v>
+      </c>
+      <c r="H87" t="n">
         <v>250.2416666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3797,21 @@
         <v>792</v>
       </c>
       <c r="G88" t="n">
+        <v>250.38</v>
+      </c>
+      <c r="H88" t="n">
         <v>250.2266666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3835,21 @@
         <v>2024.8</v>
       </c>
       <c r="G89" t="n">
+        <v>250.2066666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>250.1933333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3873,21 @@
         <v>1800</v>
       </c>
       <c r="G90" t="n">
+        <v>250.0466666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>250.1599999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3911,21 @@
         <v>2.2</v>
       </c>
       <c r="G91" t="n">
+        <v>249.8866666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>250.105</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3949,21 @@
         <v>6066.4904</v>
       </c>
       <c r="G92" t="n">
+        <v>249.86</v>
+      </c>
+      <c r="H92" t="n">
         <v>250.1216666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3987,25 @@
         <v>30</v>
       </c>
       <c r="G93" t="n">
+        <v>249.8066666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>250.1349999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>250</v>
+      </c>
+      <c r="L93" t="n">
+        <v>250</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4029,27 @@
         <v>30</v>
       </c>
       <c r="G94" t="n">
+        <v>249.7533333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>250.1483333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>250</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4073,27 @@
         <v>95.9472</v>
       </c>
       <c r="G95" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>250.1533333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>250</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4117,21 @@
         <v>3990.025</v>
       </c>
       <c r="G96" t="n">
+        <v>249.6266666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>250.1533333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4155,21 @@
         <v>2371.6</v>
       </c>
       <c r="G97" t="n">
+        <v>249.54</v>
+      </c>
+      <c r="H97" t="n">
         <v>250.1383333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4193,21 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
+        <v>249.4466666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>250.1216666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4231,21 @@
         <v>4141.3401</v>
       </c>
       <c r="G99" t="n">
+        <v>249.42</v>
+      </c>
+      <c r="H99" t="n">
         <v>250.0916666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4269,21 @@
         <v>11663.1457</v>
       </c>
       <c r="G100" t="n">
+        <v>249.2066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>250.0633333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4307,21 @@
         <v>3977.9232</v>
       </c>
       <c r="G101" t="n">
+        <v>248.98</v>
+      </c>
+      <c r="H101" t="n">
         <v>250.0499999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4345,21 @@
         <v>1291.2843</v>
       </c>
       <c r="G102" t="n">
+        <v>249.0666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>250.0616666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4383,21 @@
         <v>567</v>
       </c>
       <c r="G103" t="n">
+        <v>249.0066666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>250.0533333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4421,25 @@
         <v>387.6096</v>
       </c>
       <c r="G104" t="n">
+        <v>249.02</v>
+      </c>
+      <c r="H104" t="n">
         <v>250.0399999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4463,29 @@
         <v>168.3</v>
       </c>
       <c r="G105" t="n">
+        <v>249.0933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>250.0466666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4509,29 @@
         <v>2092.0184</v>
       </c>
       <c r="G106" t="n">
+        <v>249.1666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>250.0183333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4555,21 @@
         <v>95.9472</v>
       </c>
       <c r="G107" t="n">
+        <v>249.1066666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>250.0133333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4593,25 @@
         <v>33</v>
       </c>
       <c r="G108" t="n">
+        <v>249.06</v>
+      </c>
+      <c r="H108" t="n">
         <v>250.0083333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4635,27 @@
         <v>123.3913</v>
       </c>
       <c r="G109" t="n">
+        <v>249.0133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>249.98</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4679,27 @@
         <v>1346</v>
       </c>
       <c r="G110" t="n">
+        <v>249.02</v>
+      </c>
+      <c r="H110" t="n">
         <v>249.9716666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4723,21 @@
         <v>3749.6058</v>
       </c>
       <c r="G111" t="n">
+        <v>248.98</v>
+      </c>
+      <c r="H111" t="n">
         <v>249.95</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4761,21 @@
         <v>2615.9599</v>
       </c>
       <c r="G112" t="n">
+        <v>249.0066666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>249.9433333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4799,21 @@
         <v>1816.65003732</v>
       </c>
       <c r="G113" t="n">
+        <v>249.1266666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>249.9583333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4837,21 @@
         <v>5453.15186154</v>
       </c>
       <c r="G114" t="n">
+        <v>249.1666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>249.97</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4875,21 @@
         <v>1388.6445</v>
       </c>
       <c r="G115" t="n">
+        <v>249.3266666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>249.9683333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4913,21 @@
         <v>152</v>
       </c>
       <c r="G116" t="n">
+        <v>249.4133333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>249.9466666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4951,21 @@
         <v>664.4487</v>
       </c>
       <c r="G117" t="n">
+        <v>249.42</v>
+      </c>
+      <c r="H117" t="n">
         <v>249.925</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4989,21 @@
         <v>4840</v>
       </c>
       <c r="G118" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="H118" t="n">
         <v>249.9</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5027,21 @@
         <v>172</v>
       </c>
       <c r="G119" t="n">
+        <v>249.58</v>
+      </c>
+      <c r="H119" t="n">
         <v>249.8833333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5065,21 @@
         <v>7887.74471479</v>
       </c>
       <c r="G120" t="n">
+        <v>249.6866666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>249.8666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5103,21 @@
         <v>176</v>
       </c>
       <c r="G121" t="n">
+        <v>249.7066666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>249.85</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5141,21 @@
         <v>1202</v>
       </c>
       <c r="G122" t="n">
+        <v>249.7333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>249.835</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5179,21 @@
         <v>132</v>
       </c>
       <c r="G123" t="n">
+        <v>249.76</v>
+      </c>
+      <c r="H123" t="n">
         <v>249.8200000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5217,21 @@
         <v>2712.1</v>
       </c>
       <c r="G124" t="n">
+        <v>249.82</v>
+      </c>
+      <c r="H124" t="n">
         <v>249.795</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5255,21 @@
         <v>1159.3243</v>
       </c>
       <c r="G125" t="n">
+        <v>249.9133333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>249.8016666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5293,21 @@
         <v>824.0212</v>
       </c>
       <c r="G126" t="n">
+        <v>249.9533333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>249.7766666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5331,21 @@
         <v>6298.8789</v>
       </c>
       <c r="G127" t="n">
+        <v>249.9866666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>249.7666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5369,21 @@
         <v>68.4512</v>
       </c>
       <c r="G128" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="H128" t="n">
         <v>249.7516666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5407,21 @@
         <v>132</v>
       </c>
       <c r="G129" t="n">
+        <v>249.8266666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>249.7333333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5445,21 @@
         <v>3330.9999</v>
       </c>
       <c r="G130" t="n">
+        <v>249.7466666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>249.715</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5483,21 @@
         <v>165.6836</v>
       </c>
       <c r="G131" t="n">
+        <v>249.7533333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>249.6983333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5521,21 @@
         <v>3515.5612</v>
       </c>
       <c r="G132" t="n">
+        <v>249.7533333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>249.68</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5559,21 @@
         <v>816.7676</v>
       </c>
       <c r="G133" t="n">
+        <v>249.76</v>
+      </c>
+      <c r="H133" t="n">
         <v>249.6616666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5597,21 @@
         <v>241.9999</v>
       </c>
       <c r="G134" t="n">
+        <v>249.7666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>249.6433333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5635,21 @@
         <v>799</v>
       </c>
       <c r="G135" t="n">
+        <v>249.6866666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>249.6283333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5673,21 @@
         <v>1270</v>
       </c>
       <c r="G136" t="n">
+        <v>249.7666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>249.6316666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5711,21 @@
         <v>6257.9715</v>
       </c>
       <c r="G137" t="n">
+        <v>249.88</v>
+      </c>
+      <c r="H137" t="n">
         <v>249.645</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5749,21 @@
         <v>1475</v>
       </c>
       <c r="G138" t="n">
+        <v>249.9933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>249.6550000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5787,21 @@
         <v>3065.3086</v>
       </c>
       <c r="G139" t="n">
+        <v>250.0733333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>249.665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5825,21 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
+        <v>249.9933333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>249.6483333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5863,21 @@
         <v>2592.4253</v>
       </c>
       <c r="G141" t="n">
+        <v>249.9933333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>249.6383333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5901,21 @@
         <v>1000</v>
       </c>
       <c r="G142" t="n">
+        <v>249.9933333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>249.6316666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5939,21 @@
         <v>277.7428</v>
       </c>
       <c r="G143" t="n">
+        <v>250.0266666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>249.6250000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5977,21 @@
         <v>1538.9224</v>
       </c>
       <c r="G144" t="n">
+        <v>250.0599999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>249.6183333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6015,21 @@
         <v>2574.9594</v>
       </c>
       <c r="G145" t="n">
+        <v>250.0933333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>249.5933333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6053,21 @@
         <v>1037.1095</v>
       </c>
       <c r="G146" t="n">
+        <v>250.0533333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>249.5500000000001</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6091,21 @@
         <v>1250</v>
       </c>
       <c r="G147" t="n">
+        <v>250.02</v>
+      </c>
+      <c r="H147" t="n">
         <v>249.5650000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6129,21 @@
         <v>2292.8148</v>
       </c>
       <c r="G148" t="n">
+        <v>249.9866666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>249.5633333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6167,21 @@
         <v>900</v>
       </c>
       <c r="G149" t="n">
+        <v>249.9266666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>249.5733333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6205,21 @@
         <v>100.5081</v>
       </c>
       <c r="G150" t="n">
+        <v>250.0399999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>249.6266666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6243,21 @@
         <v>2729.1668</v>
       </c>
       <c r="G151" t="n">
+        <v>249.9133333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>249.6383333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6281,21 @@
         <v>1489.1526</v>
       </c>
       <c r="G152" t="n">
+        <v>249.7466666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>249.6166666666668</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6319,21 @@
         <v>575.0386</v>
       </c>
       <c r="G153" t="n">
+        <v>249.7066666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>249.6300000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6357,21 @@
         <v>1661.5042</v>
       </c>
       <c r="G154" t="n">
+        <v>249.6066666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>249.6283333333335</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6395,21 @@
         <v>1470.5209</v>
       </c>
       <c r="G155" t="n">
+        <v>249.6733333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>249.6500000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6433,21 @@
         <v>1470.5209</v>
       </c>
       <c r="G156" t="n">
+        <v>249.5866666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>249.6283333333335</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6471,21 @@
         <v>1022.1119</v>
       </c>
       <c r="G157" t="n">
+        <v>249.5666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>249.6383333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6509,21 @@
         <v>762.3881</v>
       </c>
       <c r="G158" t="n">
+        <v>249.5533333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>249.6516666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6547,21 @@
         <v>15223.5</v>
       </c>
       <c r="G159" t="n">
+        <v>249.5333333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>249.6466666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6585,21 @@
         <v>7542.0964</v>
       </c>
       <c r="G160" t="n">
+        <v>249.6333333333332</v>
+      </c>
+      <c r="H160" t="n">
         <v>249.7000000000002</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6623,21 @@
         <v>3757.5655</v>
       </c>
       <c r="G161" t="n">
+        <v>249.6599999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>249.7200000000002</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6661,21 @@
         <v>3488.1134</v>
       </c>
       <c r="G162" t="n">
+        <v>249.6399999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>249.7083333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6699,21 @@
         <v>3.3769</v>
       </c>
       <c r="G163" t="n">
+        <v>249.7399999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>249.7466666666668</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6737,21 @@
         <v>105.6</v>
       </c>
       <c r="G164" t="n">
+        <v>249.7999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>249.7683333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6775,21 @@
         <v>5323.793</v>
       </c>
       <c r="G165" t="n">
+        <v>249.6266666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>249.7600000000002</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,22 +6813,21 @@
         <v>471.7199</v>
       </c>
       <c r="G166" t="n">
+        <v>249.7399999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>249.7816666666668</v>
       </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="K166" t="n">
-        <v>248.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6227,24 +6851,21 @@
         <v>1.9969</v>
       </c>
       <c r="G167" t="n">
+        <v>249.8533333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>249.8033333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,24 +6889,21 @@
         <v>184.9999</v>
       </c>
       <c r="G168" t="n">
+        <v>249.7933333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>249.8133333333335</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +6927,21 @@
         <v>9225.027099999999</v>
       </c>
       <c r="G169" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="H169" t="n">
         <v>249.8000000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +6965,21 @@
         <v>4</v>
       </c>
       <c r="G170" t="n">
+        <v>249.6666666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>249.8116666666668</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7003,21 @@
         <v>78</v>
       </c>
       <c r="G171" t="n">
+        <v>249.76</v>
+      </c>
+      <c r="H171" t="n">
         <v>249.8233333333335</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7041,21 @@
         <v>31</v>
       </c>
       <c r="G172" t="n">
+        <v>249.7333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>249.8200000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7079,21 @@
         <v>3</v>
       </c>
       <c r="G173" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="H173" t="n">
         <v>249.7950000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7117,21 @@
         <v>54</v>
       </c>
       <c r="G174" t="n">
+        <v>249.6733333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>249.7733333333335</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7155,21 @@
         <v>2733.1741</v>
       </c>
       <c r="G175" t="n">
+        <v>249.58</v>
+      </c>
+      <c r="H175" t="n">
         <v>249.7633333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7193,21 @@
         <v>1000</v>
       </c>
       <c r="G176" t="n">
+        <v>249.6533333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>249.7800000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7231,21 @@
         <v>2863.273</v>
       </c>
       <c r="G177" t="n">
+        <v>249.7733333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>249.7966666666668</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7269,21 @@
         <v>200</v>
       </c>
       <c r="G178" t="n">
+        <v>249.7733333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>249.8150000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7307,21 @@
         <v>400</v>
       </c>
       <c r="G179" t="n">
+        <v>249.8066666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>249.8250000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7345,21 @@
         <v>129.1338</v>
       </c>
       <c r="G180" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="H180" t="n">
         <v>249.8133333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7383,21 @@
         <v>600</v>
       </c>
       <c r="G181" t="n">
+        <v>249.86</v>
+      </c>
+      <c r="H181" t="n">
         <v>249.8200000000001</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7421,21 @@
         <v>1910.6865</v>
       </c>
       <c r="G182" t="n">
+        <v>249.8200000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>249.8250000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7459,21 @@
         <v>923.7725</v>
       </c>
       <c r="G183" t="n">
+        <v>249.8266666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>249.8300000000001</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7497,21 @@
         <v>1831.1417</v>
       </c>
       <c r="G184" t="n">
+        <v>249.9266666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>249.8266666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7535,21 @@
         <v>303</v>
       </c>
       <c r="G185" t="n">
+        <v>249.9066666666668</v>
+      </c>
+      <c r="H185" t="n">
         <v>249.8100000000001</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7573,21 @@
         <v>579.7829</v>
       </c>
       <c r="G186" t="n">
+        <v>249.9733333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>249.8283333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +7611,21 @@
         <v>1000</v>
       </c>
       <c r="G187" t="n">
+        <v>250.0066666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>249.8250000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +7649,21 @@
         <v>4000</v>
       </c>
       <c r="G188" t="n">
+        <v>250.0400000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>249.83</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +7687,21 @@
         <v>798</v>
       </c>
       <c r="G189" t="n">
+        <v>250.0733333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>249.835</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +7725,21 @@
         <v>214.5317</v>
       </c>
       <c r="G190" t="n">
+        <v>250.0600000000001</v>
+      </c>
+      <c r="H190" t="n">
         <v>249.8416666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +7763,21 @@
         <v>3680.7192</v>
       </c>
       <c r="G191" t="n">
+        <v>249.9800000000001</v>
+      </c>
+      <c r="H191" t="n">
         <v>249.8366666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +7801,21 @@
         <v>807.4011</v>
       </c>
       <c r="G192" t="n">
+        <v>249.9733333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>249.8516666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +7839,21 @@
         <v>443</v>
       </c>
       <c r="G193" t="n">
+        <v>249.8933333333335</v>
+      </c>
+      <c r="H193" t="n">
         <v>249.8483333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +7877,21 @@
         <v>182.2</v>
       </c>
       <c r="G194" t="n">
+        <v>249.8533333333335</v>
+      </c>
+      <c r="H194" t="n">
         <v>249.8466666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +7915,21 @@
         <v>968.4328</v>
       </c>
       <c r="G195" t="n">
+        <v>249.8066666666668</v>
+      </c>
+      <c r="H195" t="n">
         <v>249.8433333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +7953,21 @@
         <v>4160.3776</v>
       </c>
       <c r="G196" t="n">
+        <v>249.7733333333335</v>
+      </c>
+      <c r="H196" t="n">
         <v>249.8216666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +7991,21 @@
         <v>1424.1907</v>
       </c>
       <c r="G197" t="n">
+        <v>249.6866666666668</v>
+      </c>
+      <c r="H197" t="n">
         <v>249.7766666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8029,21 @@
         <v>7078.2199733</v>
       </c>
       <c r="G198" t="n">
+        <v>249.7266666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>249.7633333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8067,21 @@
         <v>1047.3141</v>
       </c>
       <c r="G199" t="n">
+        <v>249.7400000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>249.7433333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8105,21 @@
         <v>364.834</v>
       </c>
       <c r="G200" t="n">
+        <v>249.7533333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>249.7499999999999</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8143,21 @@
         <v>4966</v>
       </c>
       <c r="G201" t="n">
+        <v>249.6800000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>249.7499999999999</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8181,21 @@
         <v>1203.0418</v>
       </c>
       <c r="G202" t="n">
+        <v>249.6933333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>249.7499999999999</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8219,21 @@
         <v>273.0519</v>
       </c>
       <c r="G203" t="n">
+        <v>249.7066666666668</v>
+      </c>
+      <c r="H203" t="n">
         <v>249.7499999999999</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8257,21 @@
         <v>341.8618</v>
       </c>
       <c r="G204" t="n">
+        <v>249.7000000000001</v>
+      </c>
+      <c r="H204" t="n">
         <v>249.7449999999999</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8295,21 @@
         <v>114.1185</v>
       </c>
       <c r="G205" t="n">
+        <v>249.7066666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>249.7449999999999</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8333,21 @@
         <v>390.9872</v>
       </c>
       <c r="G206" t="n">
+        <v>249.7533333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>249.7616666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +8371,21 @@
         <v>526.052</v>
       </c>
       <c r="G207" t="n">
+        <v>249.7266666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>249.7783333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +8409,21 @@
         <v>4201.14399363</v>
       </c>
       <c r="G208" t="n">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>249.8183333333332</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +8447,21 @@
         <v>776.3459</v>
       </c>
       <c r="G209" t="n">
+        <v>249.9066666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>249.8416666666666</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +8485,21 @@
         <v>159.0477</v>
       </c>
       <c r="G210" t="n">
+        <v>249.9533333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>249.8216666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +8523,21 @@
         <v>1000</v>
       </c>
       <c r="G211" t="n">
+        <v>250</v>
+      </c>
+      <c r="H211" t="n">
         <v>249.8433333333332</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +8561,21 @@
         <v>12.5394</v>
       </c>
       <c r="G212" t="n">
+        <v>250.1866666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>249.8866666666665</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +8599,21 @@
         <v>11978.5342</v>
       </c>
       <c r="G213" t="n">
+        <v>250.0933333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>249.8599999999998</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +8637,21 @@
         <v>529.9</v>
       </c>
       <c r="G214" t="n">
+        <v>250.0933333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>249.8649999999998</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +8675,21 @@
         <v>326</v>
       </c>
       <c r="G215" t="n">
+        <v>250.0933333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>249.8549999999998</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +8713,21 @@
         <v>408.6025</v>
       </c>
       <c r="G216" t="n">
+        <v>250.1133333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>249.8816666666665</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +8751,21 @@
         <v>2142.6427</v>
       </c>
       <c r="G217" t="n">
+        <v>250.1333333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>249.8916666666665</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +8789,21 @@
         <v>1711.5134</v>
       </c>
       <c r="G218" t="n">
+        <v>250.16</v>
+      </c>
+      <c r="H218" t="n">
         <v>249.9016666666665</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +8827,21 @@
         <v>5736.9793</v>
       </c>
       <c r="G219" t="n">
+        <v>250.2666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>249.9283333333331</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,18 +8865,21 @@
         <v>5626.0309</v>
       </c>
       <c r="G220" t="n">
+        <v>250.2466666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>249.8983333333331</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8129,18 +8903,21 @@
         <v>50</v>
       </c>
       <c r="G221" t="n">
+        <v>250.2133333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>249.8999999999998</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,18 +8941,21 @@
         <v>100</v>
       </c>
       <c r="G222" t="n">
+        <v>250.1933333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>249.9166666666665</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,18 +8979,21 @@
         <v>1913.559</v>
       </c>
       <c r="G223" t="n">
+        <v>250.1866666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>249.9299999999998</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8234,18 +9017,21 @@
         <v>48.9234</v>
       </c>
       <c r="G224" t="n">
+        <v>250.2733333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>249.9599999999998</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8269,18 +9055,21 @@
         <v>237.2802</v>
       </c>
       <c r="G225" t="n">
+        <v>250.3600000000001</v>
+      </c>
+      <c r="H225" t="n">
         <v>250.0049999999997</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8304,18 +9093,21 @@
         <v>1031.4634</v>
       </c>
       <c r="G226" t="n">
+        <v>250.4533333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>250.0216666666664</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,18 +9131,21 @@
         <v>135.7264</v>
       </c>
       <c r="G227" t="n">
+        <v>250.4533333333334</v>
+      </c>
+      <c r="H227" t="n">
         <v>250.0366666666664</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8374,18 +9169,21 @@
         <v>772.7117</v>
       </c>
       <c r="G228" t="n">
+        <v>250.6133333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>250.0649999999997</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,18 +9207,21 @@
         <v>570.8425</v>
       </c>
       <c r="G229" t="n">
+        <v>250.7066666666668</v>
+      </c>
+      <c r="H229" t="n">
         <v>250.1166666666664</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8444,18 +9245,21 @@
         <v>600</v>
       </c>
       <c r="G230" t="n">
+        <v>250.8000000000001</v>
+      </c>
+      <c r="H230" t="n">
         <v>250.138333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,18 +9283,21 @@
         <v>360.108</v>
       </c>
       <c r="G231" t="n">
+        <v>250.8733333333334</v>
+      </c>
+      <c r="H231" t="n">
         <v>250.1599999999997</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8514,18 +9321,21 @@
         <v>1471.7962</v>
       </c>
       <c r="G232" t="n">
+        <v>250.9466666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>250.1949999999997</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8549,18 +9359,21 @@
         <v>286.6859</v>
       </c>
       <c r="G233" t="n">
+        <v>251.0133333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>250.2299999999997</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8584,18 +9397,21 @@
         <v>224.8361</v>
       </c>
       <c r="G234" t="n">
+        <v>251.0200000000001</v>
+      </c>
+      <c r="H234" t="n">
         <v>250.2649999999997</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8619,18 +9435,21 @@
         <v>4264.9895</v>
       </c>
       <c r="G235" t="n">
+        <v>251.1400000000001</v>
+      </c>
+      <c r="H235" t="n">
         <v>250.288333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,18 +9473,21 @@
         <v>2041.3456</v>
       </c>
       <c r="G236" t="n">
+        <v>251.2733333333334</v>
+      </c>
+      <c r="H236" t="n">
         <v>250.3049999999997</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,18 +9511,21 @@
         <v>183.0549</v>
       </c>
       <c r="G237" t="n">
+        <v>251.4066666666668</v>
+      </c>
+      <c r="H237" t="n">
         <v>250.3249999999997</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,18 +9549,21 @@
         <v>183</v>
       </c>
       <c r="G238" t="n">
+        <v>251.4133333333334</v>
+      </c>
+      <c r="H238" t="n">
         <v>250.3399999999997</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,18 +9587,21 @@
         <v>220</v>
       </c>
       <c r="G239" t="n">
+        <v>251.4133333333334</v>
+      </c>
+      <c r="H239" t="n">
         <v>250.3616666666664</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8794,18 +9625,21 @@
         <v>2</v>
       </c>
       <c r="G240" t="n">
+        <v>251.4400000000001</v>
+      </c>
+      <c r="H240" t="n">
         <v>250.3899999999997</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8829,18 +9663,21 @@
         <v>528.9962</v>
       </c>
       <c r="G241" t="n">
+        <v>251.4000000000001</v>
+      </c>
+      <c r="H241" t="n">
         <v>250.4066666666664</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8864,18 +9701,21 @@
         <v>3.307e-05</v>
       </c>
       <c r="G242" t="n">
+        <v>251.4266666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>250.4383333333331</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8899,18 +9739,21 @@
         <v>509.059</v>
       </c>
       <c r="G243" t="n">
+        <v>251.5333333333334</v>
+      </c>
+      <c r="H243" t="n">
         <v>250.4916666666664</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8934,18 +9777,21 @@
         <v>2492.5187</v>
       </c>
       <c r="G244" t="n">
+        <v>251.7266666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>250.5666666666664</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8969,18 +9815,21 @@
         <v>1203.64855446</v>
       </c>
       <c r="G245" t="n">
+        <v>251.98</v>
+      </c>
+      <c r="H245" t="n">
         <v>250.6566666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9004,18 +9853,21 @@
         <v>805.65814554</v>
       </c>
       <c r="G246" t="n">
+        <v>252.1266666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>250.6983333333331</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9039,18 +9891,21 @@
         <v>7</v>
       </c>
       <c r="G247" t="n">
+        <v>252.2533333333334</v>
+      </c>
+      <c r="H247" t="n">
         <v>250.7566666666665</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9074,18 +9929,21 @@
         <v>1203.6486</v>
       </c>
       <c r="G248" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="H248" t="n">
         <v>250.7949999999998</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9109,18 +9967,21 @@
         <v>1621.5</v>
       </c>
       <c r="G249" t="n">
+        <v>252.42</v>
+      </c>
+      <c r="H249" t="n">
         <v>250.8516666666665</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9144,18 +10005,21 @@
         <v>453.2499</v>
       </c>
       <c r="G250" t="n">
+        <v>252.5333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>250.9066666666665</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9179,18 +10043,21 @@
         <v>2825.2</v>
       </c>
       <c r="G251" t="n">
+        <v>252.7133333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>250.9883333333332</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9214,18 +10081,21 @@
         <v>349.4109</v>
       </c>
       <c r="G252" t="n">
+        <v>252.8133333333333</v>
+      </c>
+      <c r="H252" t="n">
         <v>251.0349999999999</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9249,18 +10119,21 @@
         <v>52.0178</v>
       </c>
       <c r="G253" t="n">
+        <v>252.9333333333333</v>
+      </c>
+      <c r="H253" t="n">
         <v>251.0999999999999</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9284,18 +10157,21 @@
         <v>5707.7745</v>
       </c>
       <c r="G254" t="n">
+        <v>252.9933333333333</v>
+      </c>
+      <c r="H254" t="n">
         <v>251.1466666666666</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9319,18 +10195,21 @@
         <v>15416.3866</v>
       </c>
       <c r="G255" t="n">
+        <v>253.0399999999999</v>
+      </c>
+      <c r="H255" t="n">
         <v>251.1983333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9354,18 +10233,401 @@
         <v>1498.1792</v>
       </c>
       <c r="G256" t="n">
+        <v>253.1466666666666</v>
+      </c>
+      <c r="H256" t="n">
         <v>251.2499999999999</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="C257" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="D257" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="E257" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4606.321</v>
+      </c>
+      <c r="G257" t="n">
+        <v>253.1599999999999</v>
+      </c>
+      <c r="H257" t="n">
+        <v>251.3066666666666</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C258" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="E258" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="F258" t="n">
+        <v>14883.10286326</v>
+      </c>
+      <c r="G258" t="n">
+        <v>253.0666666666666</v>
+      </c>
+      <c r="H258" t="n">
+        <v>251.3266666666666</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E259" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2733.96532968</v>
+      </c>
+      <c r="G259" t="n">
+        <v>252.9666666666666</v>
+      </c>
+      <c r="H259" t="n">
+        <v>251.3733333333333</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>252</v>
+      </c>
+      <c r="C260" t="n">
+        <v>252</v>
+      </c>
+      <c r="D260" t="n">
+        <v>252</v>
+      </c>
+      <c r="E260" t="n">
+        <v>252</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1947.6947</v>
+      </c>
+      <c r="G260" t="n">
+        <v>252.7533333333333</v>
+      </c>
+      <c r="H260" t="n">
+        <v>251.4066666666666</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>252</v>
+      </c>
+      <c r="C261" t="n">
+        <v>252</v>
+      </c>
+      <c r="D261" t="n">
+        <v>252</v>
+      </c>
+      <c r="E261" t="n">
+        <v>252</v>
+      </c>
+      <c r="F261" t="n">
+        <v>526.7523</v>
+      </c>
+      <c r="G261" t="n">
+        <v>252.6466666666666</v>
+      </c>
+      <c r="H261" t="n">
+        <v>251.4399999999999</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="C262" t="n">
+        <v>253</v>
+      </c>
+      <c r="D262" t="n">
+        <v>253</v>
+      </c>
+      <c r="E262" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3347.1407</v>
+      </c>
+      <c r="G262" t="n">
+        <v>252.6266666666666</v>
+      </c>
+      <c r="H262" t="n">
+        <v>251.4899999999999</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="C263" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="D263" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2941.6836</v>
+      </c>
+      <c r="G263" t="n">
+        <v>252.7466666666666</v>
+      </c>
+      <c r="H263" t="n">
+        <v>251.5549999999999</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="C264" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="E264" t="n">
+        <v>252</v>
+      </c>
+      <c r="F264" t="n">
+        <v>15955.0777</v>
+      </c>
+      <c r="G264" t="n">
+        <v>252.84</v>
+      </c>
+      <c r="H264" t="n">
+        <v>251.6366666666666</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="C265" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="E265" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>136.872</v>
+      </c>
+      <c r="G265" t="n">
+        <v>252.78</v>
+      </c>
+      <c r="H265" t="n">
+        <v>251.6749999999999</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="E266" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="F266" t="n">
+        <v>5</v>
+      </c>
+      <c r="G266" t="n">
+        <v>252.74</v>
+      </c>
+      <c r="H266" t="n">
+        <v>251.7349999999999</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N324"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-82510.11034843999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>248.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>248.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +583,15 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>248.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +616,15 @@
         <v>-83718.98964843999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>248.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +649,19 @@
         <v>-83718.98964843999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="J8" t="n">
         <v>248</v>
       </c>
-      <c r="K8" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +686,23 @@
         <v>-84963.78364843999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="J9" t="n">
         <v>248</v>
       </c>
-      <c r="K9" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +727,23 @@
         <v>-84963.78364843999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>247.8</v>
       </c>
       <c r="J10" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +768,23 @@
         <v>-84955.55934843999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>247.8</v>
       </c>
       <c r="J11" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +809,23 @@
         <v>-84955.55934843999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>247.9</v>
       </c>
       <c r="J12" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +850,23 @@
         <v>-82726.20004843999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>247.9</v>
       </c>
       <c r="J13" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,24 +891,23 @@
         <v>-79338.20024843999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>249.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>248</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1014,24 +932,23 @@
         <v>-79548.85024843998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>251.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>248</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1056,24 +973,23 @@
         <v>-79548.85024843998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="J16" t="n">
+        <v>248</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,22 +1016,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>248</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,22 +1055,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>248</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1184,22 +1094,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>248</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,22 +1133,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1.006281224818695</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>248</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,16 +1172,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>248</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1304,16 +1211,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>248</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,16 +1250,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>248</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1376,16 +1289,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>248</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1412,16 +1328,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>248</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1448,16 +1367,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>248</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1484,16 +1406,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>248</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1518,18 +1443,21 @@
         <v>-93537.36983347997</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>248</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1.019596774193549</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,18 +1482,15 @@
         <v>-94156.36973347997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1592,16 +1517,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1626,18 +1548,15 @@
         <v>-94156.36973347997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,16 +1583,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1700,16 +1616,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1736,16 +1649,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1772,16 +1682,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1808,16 +1715,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1844,16 +1748,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,16 +1781,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1916,16 +1814,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1952,16 +1847,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1988,16 +1880,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2024,16 +1913,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2060,16 +1946,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,16 +1979,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2132,16 +2012,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,16 +2045,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2204,16 +2078,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2240,16 +2111,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2276,16 +2144,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2312,16 +2177,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2346,18 +2208,21 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2382,18 +2247,21 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2418,18 +2286,21 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2456,16 +2327,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2492,16 +2364,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2528,16 +2401,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2564,16 +2438,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2600,16 +2475,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2636,16 +2512,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2672,16 +2549,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2708,16 +2586,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,16 +2623,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2780,16 +2660,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2816,16 +2697,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2852,16 +2734,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2888,16 +2771,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2924,16 +2808,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2958,18 +2843,19 @@
         <v>-109360.84493348</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2994,18 +2880,19 @@
         <v>-110368.05013348</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3032,16 +2919,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3068,16 +2956,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3104,16 +2993,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3140,16 +3030,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3174,18 +3065,19 @@
         <v>-116974.38636317</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3210,18 +3102,19 @@
         <v>-110707.91656317</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3246,18 +3139,19 @@
         <v>-112196.73726317</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3282,18 +3176,19 @@
         <v>-112196.73726317</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3318,18 +3213,19 @@
         <v>-112196.73726317</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3356,16 +3252,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3392,16 +3289,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3428,16 +3326,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3464,16 +3363,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3500,16 +3400,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,16 +3437,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3572,16 +3474,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3608,16 +3511,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3644,16 +3548,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3680,16 +3585,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3716,16 +3622,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3750,18 +3657,19 @@
         <v>-112249.89726317</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3788,16 +3696,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3824,16 +3733,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3860,16 +3770,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3896,16 +3807,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3932,16 +3844,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3968,16 +3881,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4004,16 +3918,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4038,18 +3953,19 @@
         <v>-112232.88496317</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4076,16 +3992,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4112,16 +4029,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4148,16 +4066,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4184,16 +4103,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4220,16 +4140,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,16 +4177,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4292,16 +4214,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4328,16 +4251,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4364,16 +4288,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4400,16 +4325,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4436,16 +4362,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4472,16 +4399,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4508,16 +4436,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4544,16 +4473,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4580,16 +4510,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4616,16 +4547,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4652,16 +4584,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4688,16 +4621,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4724,16 +4658,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4760,16 +4695,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4796,16 +4732,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4832,16 +4769,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4868,16 +4806,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4904,16 +4843,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4940,16 +4880,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4976,16 +4917,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5012,16 +4954,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5048,16 +4991,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5084,16 +5028,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5120,16 +5065,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5156,16 +5102,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5192,16 +5139,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5228,16 +5176,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5264,16 +5213,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5300,16 +5250,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5336,16 +5287,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5372,16 +5324,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5408,16 +5361,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5444,16 +5398,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5478,18 +5433,17 @@
         <v>-117588.75626317</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5516,16 +5470,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5550,18 +5501,15 @@
         <v>-117733.75616317</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5586,18 +5534,15 @@
         <v>-117733.75616317</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5624,16 +5569,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5660,16 +5602,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5696,16 +5635,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5732,16 +5668,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5768,16 +5701,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5804,16 +5734,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5840,16 +5767,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5876,16 +5800,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5910,18 +5831,15 @@
         <v>-150987.98100628</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5948,16 +5866,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5984,16 +5899,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6018,18 +5930,19 @@
         <v>-151113.92820628</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>249.8</v>
+      </c>
+      <c r="J153" t="n">
+        <v>249.8</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6054,18 +5967,23 @@
         <v>-147123.90320628</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>249.3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6090,22 +6008,23 @@
         <v>-149495.50320628</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J155" t="n">
-        <v>250</v>
-      </c>
-      <c r="K155" t="n">
-        <v>250</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>249.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6130,24 +6049,19 @@
         <v>-150495.50320628</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>250</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6172,26 +6086,21 @@
         <v>-146354.16310628</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>249</v>
-      </c>
-      <c r="K157" t="n">
-        <v>250</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>249.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6218,16 +6127,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6254,16 +6166,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6290,16 +6205,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6326,16 +6244,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6362,16 +6283,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6396,22 +6320,23 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>248.2</v>
       </c>
       <c r="J163" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="K163" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6436,26 +6361,21 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>249.1</v>
       </c>
-      <c r="K164" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6480,26 +6400,21 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>249.1</v>
       </c>
-      <c r="K165" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6524,22 +6439,21 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>249.1</v>
       </c>
-      <c r="K166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6566,22 +6480,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6608,22 +6519,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6650,16 +6558,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6686,16 +6597,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6722,16 +6636,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6758,16 +6675,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6794,16 +6714,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6830,16 +6753,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6866,16 +6792,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6902,16 +6831,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6938,16 +6870,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6974,16 +6909,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7010,16 +6948,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7046,16 +6987,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7082,16 +7026,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7118,16 +7065,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7154,16 +7104,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7190,16 +7143,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7226,16 +7182,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7262,16 +7221,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7298,16 +7260,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7334,16 +7299,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7370,16 +7338,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7406,16 +7377,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7442,16 +7416,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7478,16 +7455,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7514,16 +7494,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7550,16 +7533,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7586,16 +7572,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7622,16 +7611,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7658,16 +7650,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7694,16 +7689,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7730,16 +7728,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7766,16 +7767,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7800,24 +7804,21 @@
         <v>-145817.32931571</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>250</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7844,20 +7845,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7884,20 +7884,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7924,20 +7923,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7964,20 +7962,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8004,20 +8001,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8044,22 +8040,19 @@
       <c r="H207" t="n">
         <v>1</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>249</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8084,24 +8077,21 @@
         <v>-147653.93071571</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8126,22 +8116,21 @@
         <v>-150383.09751571</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8168,20 +8157,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8208,20 +8196,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8248,20 +8235,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8288,20 +8274,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8328,20 +8313,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8366,24 +8350,21 @@
         <v>-150447.45121571</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8410,20 +8391,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8448,24 +8428,21 @@
         <v>-164908.56311571</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8492,20 +8469,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8532,20 +8508,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8572,20 +8547,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8612,20 +8586,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8652,20 +8625,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8692,20 +8664,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8732,20 +8703,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8772,20 +8742,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8812,20 +8781,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8852,20 +8820,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8892,20 +8859,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8932,20 +8898,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8972,20 +8937,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9012,20 +8976,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9052,20 +9015,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9092,20 +9054,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9132,20 +9093,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9172,20 +9132,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9212,20 +9171,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9252,20 +9210,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9292,20 +9249,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9332,20 +9288,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9372,20 +9327,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9412,20 +9366,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9452,20 +9405,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9492,20 +9444,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9532,20 +9483,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9572,20 +9522,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9612,20 +9561,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9652,20 +9600,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9692,20 +9639,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9732,20 +9678,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9772,20 +9717,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9812,20 +9756,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9852,20 +9795,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9892,20 +9834,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9932,20 +9873,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9972,20 +9912,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10012,20 +9951,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10052,20 +9990,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10092,20 +10029,19 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10132,20 +10068,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10172,20 +10107,19 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10212,20 +10146,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10252,20 +10185,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10292,20 +10224,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10332,20 +10263,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10372,20 +10302,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10412,20 +10341,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10452,20 +10380,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10492,20 +10419,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10532,20 +10458,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10572,20 +10497,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10612,20 +10536,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10652,20 +10575,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10692,20 +10614,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10732,20 +10653,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10772,20 +10692,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10812,20 +10731,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10852,20 +10770,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10892,20 +10809,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10932,20 +10848,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10972,20 +10887,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11010,24 +10924,21 @@
         <v>-180016.23254878</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+        <v>249.1</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11054,20 +10965,19 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11094,20 +11004,19 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11134,20 +11043,19 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11174,20 +11082,19 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11214,20 +11121,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11254,20 +11160,19 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11294,20 +11199,19 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11334,20 +11238,19 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11374,20 +11277,19 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11414,20 +11316,19 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11454,20 +11355,19 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11494,20 +11394,19 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11534,20 +11433,19 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11574,20 +11472,19 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11614,20 +11511,19 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11654,20 +11550,19 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11694,20 +11589,19 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11734,20 +11628,19 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11774,20 +11667,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11814,20 +11706,19 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11854,20 +11745,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11894,20 +11784,19 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11932,22 +11821,21 @@
         <v>-171430.16750679</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1.013065034122842</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11972,22 +11860,15 @@
         <v>-171437.16750679</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12012,22 +11893,15 @@
         <v>-172640.8161067899</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12054,20 +11928,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12092,22 +11959,15 @@
         <v>-171019.3161067899</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12134,20 +11994,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12172,20 +12025,15 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L310" t="n">
+        <v>1</v>
       </c>
       <c r="M310" t="inlineStr"/>
-      <c r="N310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12210,18 +12058,15 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12246,18 +12091,15 @@
         <v>-174251.3015067899</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12282,18 +12124,15 @@
         <v>-158834.9149067899</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12318,18 +12157,15 @@
         <v>-158834.9149067899</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12356,16 +12192,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12392,16 +12225,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12428,16 +12258,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12464,16 +12291,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12500,16 +12324,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12536,16 +12357,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12572,16 +12390,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12608,16 +12423,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12642,18 +12454,15 @@
         <v>-155431.0381403699</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12680,18 +12489,15 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-82510.11034843999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,14 +649,10 @@
         <v>-83718.98964843999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>248</v>
-      </c>
-      <c r="J8" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -686,19 +682,11 @@
         <v>-84963.78364843999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>248</v>
-      </c>
-      <c r="J9" t="n">
-        <v>248</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,19 +715,11 @@
         <v>-84963.78364843999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>248</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,19 +748,11 @@
         <v>-84955.55934843999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>248</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -809,19 +781,11 @@
         <v>-84955.55934843999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>248</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -850,19 +814,11 @@
         <v>-82726.20004843999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>248</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -891,19 +847,11 @@
         <v>-79338.20024843999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>248</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,19 +880,11 @@
         <v>-79548.85024843998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>248</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,19 +913,11 @@
         <v>-79548.85024843998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>250</v>
-      </c>
-      <c r="J16" t="n">
-        <v>248</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1017,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>248</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1056,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>248</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1095,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>248</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1131,17 +1045,11 @@
         <v>-93354.53933347997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>248</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1173,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>248</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1212,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>248</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1251,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>248</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1290,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>248</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1329,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>248</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1368,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>248</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1407,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>248</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1443,19 +1309,13 @@
         <v>-93537.36983347997</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>248</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.019596774193549</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1482,7 +1342,7 @@
         <v>-94156.36973347997</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1548,7 +1408,7 @@
         <v>-94156.36973347997</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2208,17 +2068,11 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2247,17 +2101,11 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2286,17 +2134,11 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2329,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2366,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2403,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2477,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2514,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2551,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2588,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2625,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2699,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2736,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2843,15 +2629,11 @@
         <v>-109360.84493348</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2880,15 +2662,11 @@
         <v>-110368.05013348</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2921,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2958,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2995,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3065,15 +2827,11 @@
         <v>-116974.38636317</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3102,15 +2860,11 @@
         <v>-110707.91656317</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3139,15 +2893,11 @@
         <v>-112196.73726317</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3176,15 +2926,11 @@
         <v>-112196.73726317</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3213,15 +2959,11 @@
         <v>-112196.73726317</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3254,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3291,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3365,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3402,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3513,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3550,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3624,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3657,15 +3355,11 @@
         <v>-112249.89726317</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3698,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3735,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3772,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3809,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3846,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3920,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3953,15 +3619,11 @@
         <v>-112232.88496317</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3994,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4068,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4105,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4142,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4290,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4327,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4364,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4512,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4734,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4808,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4956,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5178,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5215,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5289,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5326,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5363,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5433,16 +4939,14 @@
         <v>-117588.75626317</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5501,7 +5005,7 @@
         <v>-117733.75616317</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5534,7 +5038,7 @@
         <v>-117733.75616317</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5831,7 +5335,7 @@
         <v>-150987.98100628</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5930,7 +5434,7 @@
         <v>-151113.92820628</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>249.8</v>
@@ -5967,7 +5471,7 @@
         <v>-147123.90320628</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>249.3</v>
@@ -6008,7 +5512,7 @@
         <v>-149495.50320628</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>250</v>
@@ -6049,7 +5553,7 @@
         <v>-150495.50320628</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>249.1</v>
@@ -6086,9 +5590,11 @@
         <v>-146354.16310628</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>249</v>
+      </c>
       <c r="J157" t="n">
         <v>249.1</v>
       </c>
@@ -6203,9 +5709,11 @@
         <v>-160703.94770628</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>248.2</v>
+      </c>
       <c r="J160" t="n">
         <v>249.1</v>
       </c>
@@ -6242,9 +5750,11 @@
         <v>-161270.94770628</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>249.4</v>
+      </c>
       <c r="J161" t="n">
         <v>249.1</v>
       </c>
@@ -6281,9 +5791,11 @@
         <v>-161270.94770628</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>248.2</v>
+      </c>
       <c r="J162" t="n">
         <v>249.1</v>
       </c>
@@ -6320,7 +5832,7 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>248.2</v>
@@ -6361,9 +5873,11 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>249.1</v>
+      </c>
       <c r="J164" t="n">
         <v>249.1</v>
       </c>
@@ -6400,9 +5914,11 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>249.1</v>
+      </c>
       <c r="J165" t="n">
         <v>249.1</v>
       </c>
@@ -6439,9 +5955,11 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>249.1</v>
+      </c>
       <c r="J166" t="n">
         <v>249.1</v>
       </c>
@@ -6478,9 +5996,11 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>249.1</v>
+      </c>
       <c r="J167" t="n">
         <v>249.1</v>
       </c>
@@ -6517,9 +6037,11 @@
         <v>-159756.64770628</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>249.1</v>
+      </c>
       <c r="J168" t="n">
         <v>249.1</v>
       </c>
@@ -6556,9 +6078,11 @@
         <v>-159756.64770628</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>249.4</v>
+      </c>
       <c r="J169" t="n">
         <v>249.1</v>
       </c>
@@ -6595,9 +6119,11 @@
         <v>-157140.68780628</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>249.4</v>
+      </c>
       <c r="J170" t="n">
         <v>249.1</v>
       </c>
@@ -6634,9 +6160,11 @@
         <v>-155324.03776896</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>249.5</v>
+      </c>
       <c r="J171" t="n">
         <v>249.1</v>
       </c>
@@ -8038,7 +7566,7 @@
         <v>-147754.43881571</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
@@ -8077,9 +7605,11 @@
         <v>-147653.93071571</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>248.6</v>
+      </c>
       <c r="J208" t="n">
         <v>249.1</v>
       </c>
@@ -8116,7 +7646,7 @@
         <v>-150383.09751571</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
@@ -8389,9 +7919,11 @@
         <v>-149685.06311571</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>249.7</v>
+      </c>
       <c r="J216" t="n">
         <v>249.1</v>
       </c>
@@ -8428,9 +7960,11 @@
         <v>-164908.56311571</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>249.8</v>
+      </c>
       <c r="J217" t="n">
         <v>249.1</v>
       </c>
@@ -10924,9 +10458,11 @@
         <v>-180016.23254878</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>249.7</v>
+      </c>
       <c r="J281" t="n">
         <v>249.1</v>
       </c>
@@ -11821,7 +11357,7 @@
         <v>-171430.16750679</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
@@ -11829,11 +11365,11 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.013065034122842</v>
+        <v>1</v>
       </c>
       <c r="M304" t="inlineStr"/>
     </row>
@@ -11860,11 +11396,17 @@
         <v>-171437.16750679</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +11435,17 @@
         <v>-172640.8161067899</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11929,8 +11477,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11959,11 +11513,17 @@
         <v>-171019.3161067899</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11995,8 +11555,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12025,11 +11591,17 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12058,11 +11630,17 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12091,11 +11669,17 @@
         <v>-174251.3015067899</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12124,11 +11708,17 @@
         <v>-158834.9149067899</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12157,11 +11747,17 @@
         <v>-158834.9149067899</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12193,8 +11789,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12226,8 +11828,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12259,8 +11867,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12292,8 +11906,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12325,8 +11945,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12358,8 +11984,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12391,8 +12023,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12424,8 +12062,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +12098,17 @@
         <v>-155431.0381403699</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12490,14 +12140,20 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
       <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-82510.11034843999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-93354.53933347997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-94974.90193347995</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-95028.76933347996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -5434,14 +5434,10 @@
         <v>-151113.92820628</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>249.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5471,4848 +5467,4096 @@
         <v>-147123.90320628</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2371.6</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-149495.50320628</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>249</v>
+      </c>
+      <c r="C156" t="n">
+        <v>249</v>
+      </c>
+      <c r="D156" t="n">
+        <v>249</v>
+      </c>
+      <c r="E156" t="n">
+        <v>249</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-150495.50320628</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>250</v>
+      </c>
+      <c r="C157" t="n">
+        <v>250</v>
+      </c>
+      <c r="D157" t="n">
+        <v>250</v>
+      </c>
+      <c r="E157" t="n">
+        <v>250</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4141.3401</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-146354.16310628</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>11663.1457</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-158017.30880628</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3977.9232</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-161995.23200628</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1291.2843</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-160703.94770628</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>567</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-161270.94770628</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>387.6096</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-161270.94770628</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-161102.64770628</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2092.0184</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-161102.64770628</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>249.1</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C165" t="n">
         <v>249.1</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D165" t="n">
         <v>249.1</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E165" t="n">
         <v>249.1</v>
       </c>
-      <c r="F155" t="n">
-        <v>2371.6</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-149495.50320628</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>250</v>
-      </c>
-      <c r="J155" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="F165" t="n">
+        <v>95.9472</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-161102.64770628</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>33</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-161102.64770628</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>123.3913</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-161102.64770628</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1346</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-159756.64770628</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3749.6058</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-159756.64770628</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2615.9599</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-157140.68780628</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1816.65003732</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-155324.03776896</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5453.15186154</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-160777.1896305</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1388.6445</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-159388.5451305</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>152</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-159540.5451305</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>664.4487</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-159540.5451305</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4840</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-164380.5451305</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D177" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F177" t="n">
+        <v>172</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-164380.5451305</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7887.74471479</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-156492.80041571</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>176</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-156668.80041571</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-155466.80041571</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>132</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-155466.80041571</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>250</v>
+      </c>
+      <c r="C182" t="n">
+        <v>250</v>
+      </c>
+      <c r="D182" t="n">
+        <v>250</v>
+      </c>
+      <c r="E182" t="n">
+        <v>250</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2712.1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-152754.70041571</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>250</v>
+      </c>
+      <c r="C183" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>250</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1159.3243</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-151595.37611571</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>250</v>
+      </c>
+      <c r="C184" t="n">
+        <v>250</v>
+      </c>
+      <c r="D184" t="n">
+        <v>250</v>
+      </c>
+      <c r="E184" t="n">
+        <v>250</v>
+      </c>
+      <c r="F184" t="n">
+        <v>824.0212</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-152419.39731571</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>250</v>
+      </c>
+      <c r="C185" t="n">
+        <v>250</v>
+      </c>
+      <c r="D185" t="n">
+        <v>250</v>
+      </c>
+      <c r="E185" t="n">
+        <v>250</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6298.8789</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-152419.39731571</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>68.4512</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-152487.84851571</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>132</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-152487.84851571</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3330.9999</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-152487.84851571</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>165.6836</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-152322.16491571</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3515.5612</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-155837.72611571</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>816.7676</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-155837.72611571</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>241.9999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-155837.72611571</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>799</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-155837.72611571</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="C194" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-154567.72611571</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6257.9715</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-148309.75461571</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1475</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-148309.75461571</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3065.3086</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-148309.75461571</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-148409.75461571</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>250</v>
+      </c>
+      <c r="C199" t="n">
+        <v>250</v>
+      </c>
+      <c r="D199" t="n">
+        <v>250</v>
+      </c>
+      <c r="E199" t="n">
+        <v>250</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2592.4253</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-145817.32931571</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>250</v>
+      </c>
+      <c r="C200" t="n">
+        <v>250</v>
+      </c>
+      <c r="D200" t="n">
+        <v>250</v>
+      </c>
+      <c r="E200" t="n">
+        <v>250</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-145817.32931571</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="C201" t="n">
+        <v>250</v>
+      </c>
+      <c r="D201" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="E201" t="n">
+        <v>250</v>
+      </c>
+      <c r="F201" t="n">
+        <v>277.7428</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-145817.32931571</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>250</v>
+      </c>
+      <c r="C202" t="n">
+        <v>250</v>
+      </c>
+      <c r="D202" t="n">
+        <v>250</v>
+      </c>
+      <c r="E202" t="n">
+        <v>250</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1538.9224</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-145817.32931571</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>250</v>
+      </c>
+      <c r="C203" t="n">
+        <v>250</v>
+      </c>
+      <c r="D203" t="n">
+        <v>250</v>
+      </c>
+      <c r="E203" t="n">
+        <v>250</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2574.9594</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-145817.32931571</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>250</v>
+      </c>
+      <c r="C204" t="n">
         <v>249</v>
       </c>
-      <c r="C156" t="n">
+      <c r="D204" t="n">
+        <v>250</v>
+      </c>
+      <c r="E204" t="n">
         <v>249</v>
       </c>
-      <c r="D156" t="n">
+      <c r="F204" t="n">
+        <v>1037.1095</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-146854.43881571</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
         <v>249</v>
       </c>
-      <c r="E156" t="n">
+      <c r="C205" t="n">
         <v>249</v>
       </c>
-      <c r="F156" t="n">
+      <c r="D205" t="n">
+        <v>249</v>
+      </c>
+      <c r="E205" t="n">
+        <v>249</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-146854.43881571</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>249</v>
+      </c>
+      <c r="C206" t="n">
+        <v>249</v>
+      </c>
+      <c r="D206" t="n">
+        <v>249</v>
+      </c>
+      <c r="E206" t="n">
+        <v>249</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2292.8148</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-146854.43881571</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>900</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-147754.43881571</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>251</v>
+      </c>
+      <c r="C208" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>251</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100.5081</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-147653.93071571</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="D209" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2729.1668</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-150383.09751571</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="C210" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="D210" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="E210" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1489.1526</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-150383.09751571</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="C211" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="E211" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="F211" t="n">
+        <v>575.0386</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-149808.05891571</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D212" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="E212" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1661.5042</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-151469.56311571</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="C213" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="E213" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1470.5209</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-149999.04221571</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="D214" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1470.5209</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-151469.56311571</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="C215" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D215" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="E215" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1022.1119</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-150447.45121571</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="C216" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E216" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>762.3881</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-149685.06311571</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="C217" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="F217" t="n">
+        <v>15223.5</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-164908.56311571</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>7542.0964</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-157366.46671571</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C219" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E219" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3757.5655</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-161124.03221571</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E220" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3488.1134</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-164612.14561571</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3.3769</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-164608.76871571</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C222" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-164714.36871571</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5323.793</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-170038.16171571</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="C224" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="E224" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>471.7199</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-169566.44181571</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="C225" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="E225" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.9969</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-169566.44181571</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="C226" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="F226" t="n">
+        <v>184.9999</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-169751.44171571</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>9225.027099999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-178976.46881571</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-178972.46881571</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>78</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-178972.46881571</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="C230" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D230" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="E230" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>31</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-179003.46881571</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="C231" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D231" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="E231" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F231" t="n">
+        <v>3</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-179003.46881571</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F232" t="n">
+        <v>54</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-179003.46881571</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2733.1741</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-176270.29471571</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="F234" t="n">
         <v>1000</v>
       </c>
-      <c r="G156" t="n">
-        <v>-150495.50320628</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>250</v>
-      </c>
-      <c r="C157" t="n">
-        <v>250</v>
-      </c>
-      <c r="D157" t="n">
-        <v>250</v>
-      </c>
-      <c r="E157" t="n">
-        <v>250</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4141.3401</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-146354.16310628</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
+      <c r="G234" t="n">
+        <v>-175270.29471571</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>250</v>
+      </c>
+      <c r="C235" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>251</v>
+      </c>
+      <c r="E235" t="n">
+        <v>250</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2863.273</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-175270.29471571</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="C236" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E236" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="F236" t="n">
+        <v>200</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-175270.29471571</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>250</v>
+      </c>
+      <c r="C237" t="n">
+        <v>250</v>
+      </c>
+      <c r="D237" t="n">
+        <v>250</v>
+      </c>
+      <c r="E237" t="n">
+        <v>250</v>
+      </c>
+      <c r="F237" t="n">
+        <v>400</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-175670.29471571</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>250</v>
+      </c>
+      <c r="C238" t="n">
+        <v>250</v>
+      </c>
+      <c r="D238" t="n">
+        <v>250</v>
+      </c>
+      <c r="E238" t="n">
+        <v>250</v>
+      </c>
+      <c r="F238" t="n">
+        <v>129.1338</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-175670.29471571</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>250</v>
+      </c>
+      <c r="C239" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>250</v>
+      </c>
+      <c r="E239" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>600</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-176270.29471571</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1910.6865</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-176270.29471571</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>923.7725</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-176270.29471571</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1831.1417</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-176270.29471571</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C243" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E243" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F243" t="n">
+        <v>303</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-176270.29471571</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>579.7829</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-175690.51181571</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>251</v>
+      </c>
+      <c r="E245" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-176690.51181571</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-176690.51181571</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C247" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="D247" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E247" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="F247" t="n">
+        <v>798</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-176690.51181571</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="C248" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="F248" t="n">
+        <v>214.5317</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-176475.98011571</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="E249" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3680.7192</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-180156.69931571</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="C250" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="E250" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>807.4011</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-179349.29821571</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="J157" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>248.4</v>
-      </c>
-      <c r="C158" t="n">
-        <v>248.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>248.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>11663.1457</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-158017.30880628</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="B251" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C251" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E251" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F251" t="n">
+        <v>443</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-179792.29821571</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C252" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="D252" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E252" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="F252" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-179610.09821571</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E253" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F253" t="n">
+        <v>968.4328</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-180578.53101571</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C254" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="E254" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F254" t="n">
+        <v>4160.3776</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-180578.53101571</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1424.1907</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-182002.72171571</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="C256" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="D256" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="E256" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="F256" t="n">
+        <v>7078.2199733</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-174924.50174241</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>250</v>
+      </c>
+      <c r="C257" t="n">
+        <v>250</v>
+      </c>
+      <c r="D257" t="n">
+        <v>250</v>
+      </c>
+      <c r="E257" t="n">
+        <v>250</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1047.3141</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-175971.81584241</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>250</v>
+      </c>
+      <c r="C258" t="n">
+        <v>250</v>
+      </c>
+      <c r="D258" t="n">
+        <v>250</v>
+      </c>
+      <c r="E258" t="n">
+        <v>250</v>
+      </c>
+      <c r="F258" t="n">
+        <v>364.834</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-175971.81584241</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="C259" t="n">
+        <v>250</v>
+      </c>
+      <c r="D259" t="n">
+        <v>250</v>
+      </c>
+      <c r="E259" t="n">
+        <v>249</v>
+      </c>
+      <c r="F259" t="n">
+        <v>4966</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-175971.81584241</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>250</v>
+      </c>
+      <c r="C260" t="n">
+        <v>250</v>
+      </c>
+      <c r="D260" t="n">
+        <v>250</v>
+      </c>
+      <c r="E260" t="n">
+        <v>250</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1203.0418</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-175971.81584241</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>250</v>
+      </c>
+      <c r="C261" t="n">
+        <v>250</v>
+      </c>
+      <c r="D261" t="n">
+        <v>250</v>
+      </c>
+      <c r="E261" t="n">
+        <v>250</v>
+      </c>
+      <c r="F261" t="n">
+        <v>273.0519</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-175971.81584241</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>250</v>
+      </c>
+      <c r="C262" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D262" t="n">
+        <v>250</v>
+      </c>
+      <c r="E262" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="F262" t="n">
+        <v>341.8618</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-176313.67764241</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>250</v>
+      </c>
+      <c r="C263" t="n">
+        <v>250</v>
+      </c>
+      <c r="D263" t="n">
+        <v>250</v>
+      </c>
+      <c r="E263" t="n">
+        <v>250</v>
+      </c>
+      <c r="F263" t="n">
+        <v>114.1185</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-176199.55914241</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>250</v>
+      </c>
+      <c r="C264" t="n">
+        <v>250</v>
+      </c>
+      <c r="D264" t="n">
+        <v>250</v>
+      </c>
+      <c r="E264" t="n">
+        <v>250</v>
+      </c>
+      <c r="F264" t="n">
+        <v>390.9872</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-176199.55914241</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>250</v>
+      </c>
+      <c r="C265" t="n">
+        <v>250</v>
+      </c>
+      <c r="D265" t="n">
+        <v>250</v>
+      </c>
+      <c r="E265" t="n">
+        <v>250</v>
+      </c>
+      <c r="F265" t="n">
+        <v>526.052</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-176199.55914241</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="C266" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="E266" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4201.14399363</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-171998.41514878</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>250</v>
+      </c>
+      <c r="C267" t="n">
+        <v>250</v>
+      </c>
+      <c r="D267" t="n">
+        <v>250</v>
+      </c>
+      <c r="E267" t="n">
+        <v>250</v>
+      </c>
+      <c r="F267" t="n">
+        <v>776.3459</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-172774.76104878</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>250</v>
+      </c>
+      <c r="C268" t="n">
+        <v>250</v>
+      </c>
+      <c r="D268" t="n">
+        <v>250</v>
+      </c>
+      <c r="E268" t="n">
+        <v>250</v>
+      </c>
+      <c r="F268" t="n">
+        <v>159.0477</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-172774.76104878</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>250</v>
+      </c>
+      <c r="C269" t="n">
+        <v>250</v>
+      </c>
+      <c r="D269" t="n">
+        <v>250</v>
+      </c>
+      <c r="E269" t="n">
+        <v>250</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-172774.76104878</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="C270" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="D270" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="E270" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12.5394</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-172762.22164878</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>250</v>
+      </c>
+      <c r="C271" t="n">
+        <v>249</v>
+      </c>
+      <c r="D271" t="n">
+        <v>250</v>
+      </c>
+      <c r="E271" t="n">
+        <v>249</v>
+      </c>
+      <c r="F271" t="n">
+        <v>11978.5342</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-184740.75584878</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>250</v>
+      </c>
+      <c r="C272" t="n">
+        <v>250</v>
+      </c>
+      <c r="D272" t="n">
+        <v>250</v>
+      </c>
+      <c r="E272" t="n">
+        <v>250</v>
+      </c>
+      <c r="F272" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-184210.85584878</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>250</v>
+      </c>
+      <c r="C273" t="n">
+        <v>250</v>
+      </c>
+      <c r="D273" t="n">
+        <v>250</v>
+      </c>
+      <c r="E273" t="n">
+        <v>250</v>
+      </c>
+      <c r="F273" t="n">
+        <v>326</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-184210.85584878</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="C274" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="E274" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="F274" t="n">
+        <v>408.6025</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-183802.25334878</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="D275" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="E275" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2142.6427</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-183802.25334878</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="D276" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="E276" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1711.5134</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-182090.73994878</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="J276" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="C277" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="D277" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="E277" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5736.9793</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-176353.76064878</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3977.9232</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-161995.23200628</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D160" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E160" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1291.2843</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-160703.94770628</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="J160" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="D161" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="E161" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>567</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-161270.94770628</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="J161" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="C162" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="D162" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="F162" t="n">
-        <v>387.6096</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-161270.94770628</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="J162" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>168.3</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="J163" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2092.0184</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>95.9472</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>33</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>123.3913</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D168" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1346</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-159756.64770628</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C169" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D169" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3749.6058</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-159756.64770628</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="J169" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D170" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E170" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2615.9599</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-157140.68780628</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="J170" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="C171" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="D171" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="E171" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1816.65003732</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-155324.03776896</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="J171" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="D172" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5453.15186154</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-160777.1896305</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1388.6445</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-159388.5451305</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C174" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>152</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-159540.5451305</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C175" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>664.4487</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-159540.5451305</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C176" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D176" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E176" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F176" t="n">
-        <v>4840</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-164380.5451305</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C177" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D177" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E177" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F177" t="n">
-        <v>172</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-164380.5451305</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>7887.74471479</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-156492.80041571</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C179" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D179" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E179" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F179" t="n">
-        <v>176</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-156668.80041571</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C180" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D180" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-155466.80041571</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C181" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D181" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F181" t="n">
-        <v>132</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-155466.80041571</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>250</v>
-      </c>
-      <c r="C182" t="n">
-        <v>250</v>
-      </c>
-      <c r="D182" t="n">
-        <v>250</v>
-      </c>
-      <c r="E182" t="n">
-        <v>250</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2712.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-152754.70041571</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>250</v>
-      </c>
-      <c r="C183" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="E183" t="n">
-        <v>250</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1159.3243</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-151595.37611571</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>250</v>
-      </c>
-      <c r="C184" t="n">
-        <v>250</v>
-      </c>
-      <c r="D184" t="n">
-        <v>250</v>
-      </c>
-      <c r="E184" t="n">
-        <v>250</v>
-      </c>
-      <c r="F184" t="n">
-        <v>824.0212</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-152419.39731571</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>250</v>
-      </c>
-      <c r="C185" t="n">
-        <v>250</v>
-      </c>
-      <c r="D185" t="n">
-        <v>250</v>
-      </c>
-      <c r="E185" t="n">
-        <v>250</v>
-      </c>
-      <c r="F185" t="n">
-        <v>6298.8789</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-152419.39731571</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D186" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E186" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>68.4512</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-152487.84851571</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C187" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F187" t="n">
-        <v>132</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-152487.84851571</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F188" t="n">
-        <v>3330.9999</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-152487.84851571</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="C189" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="E189" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="F189" t="n">
-        <v>165.6836</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-152322.16491571</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D190" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F190" t="n">
-        <v>3515.5612</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D191" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>816.7676</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C192" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D192" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E192" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F192" t="n">
-        <v>241.9999</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C193" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D193" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E193" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F193" t="n">
-        <v>799</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="C194" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="D194" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="E194" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1270</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-154567.72611571</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="C195" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F195" t="n">
-        <v>6257.9715</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-148309.75461571</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="C196" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="D196" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E196" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1475</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-148309.75461571</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="D197" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E197" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3065.3086</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-148309.75461571</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="D198" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="E198" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="F198" t="n">
-        <v>100</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-148409.75461571</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>250</v>
-      </c>
-      <c r="C199" t="n">
-        <v>250</v>
-      </c>
-      <c r="D199" t="n">
-        <v>250</v>
-      </c>
-      <c r="E199" t="n">
-        <v>250</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2592.4253</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>250</v>
-      </c>
-      <c r="C200" t="n">
-        <v>250</v>
-      </c>
-      <c r="D200" t="n">
-        <v>250</v>
-      </c>
-      <c r="E200" t="n">
-        <v>250</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="C201" t="n">
-        <v>250</v>
-      </c>
-      <c r="D201" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="E201" t="n">
-        <v>250</v>
-      </c>
-      <c r="F201" t="n">
-        <v>277.7428</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>250</v>
-      </c>
-      <c r="C202" t="n">
-        <v>250</v>
-      </c>
-      <c r="D202" t="n">
-        <v>250</v>
-      </c>
-      <c r="E202" t="n">
-        <v>250</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1538.9224</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>250</v>
-      </c>
-      <c r="C203" t="n">
-        <v>250</v>
-      </c>
-      <c r="D203" t="n">
-        <v>250</v>
-      </c>
-      <c r="E203" t="n">
-        <v>250</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2574.9594</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>250</v>
-      </c>
-      <c r="C204" t="n">
-        <v>249</v>
-      </c>
-      <c r="D204" t="n">
-        <v>250</v>
-      </c>
-      <c r="E204" t="n">
-        <v>249</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1037.1095</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-146854.43881571</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>249</v>
-      </c>
-      <c r="C205" t="n">
-        <v>249</v>
-      </c>
-      <c r="D205" t="n">
-        <v>249</v>
-      </c>
-      <c r="E205" t="n">
-        <v>249</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-146854.43881571</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>249</v>
-      </c>
-      <c r="C206" t="n">
-        <v>249</v>
-      </c>
-      <c r="D206" t="n">
-        <v>249</v>
-      </c>
-      <c r="E206" t="n">
-        <v>249</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2292.8148</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-146854.43881571</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="C207" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="D207" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="E207" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F207" t="n">
-        <v>900</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-147754.43881571</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>251</v>
-      </c>
-      <c r="C208" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>251</v>
-      </c>
-      <c r="F208" t="n">
-        <v>100.5081</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-147653.93071571</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="J208" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="C209" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="D209" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E209" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2729.1668</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-150383.09751571</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="C210" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="D210" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="E210" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1489.1526</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-150383.09751571</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="C211" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="D211" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="E211" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="F211" t="n">
-        <v>575.0386</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-149808.05891571</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="C212" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="D212" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="E212" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1661.5042</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-151469.56311571</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="C213" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="D213" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="E213" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1470.5209</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-149999.04221571</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="C214" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="D214" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="E214" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1470.5209</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-151469.56311571</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="C215" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="D215" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="E215" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1022.1119</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-150447.45121571</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="C216" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D216" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E216" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="F216" t="n">
-        <v>762.3881</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-149685.06311571</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="J216" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="C217" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="D217" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="E217" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="F217" t="n">
-        <v>15223.5</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-164908.56311571</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="J217" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="C218" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="D218" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="E218" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="F218" t="n">
-        <v>7542.0964</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-157366.46671571</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C219" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D219" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E219" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3757.5655</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-161124.03221571</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C220" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="D220" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E220" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="F220" t="n">
-        <v>3488.1134</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-164612.14561571</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="C221" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="D221" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="E221" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="F221" t="n">
-        <v>3.3769</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-164608.76871571</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D222" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="E222" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="F222" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-164714.36871571</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="C223" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="D223" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="E223" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5323.793</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-170038.16171571</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="C224" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="D224" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="E224" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>471.7199</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-169566.44181571</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="C225" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="D225" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="E225" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1.9969</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-169566.44181571</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="C226" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="D226" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="E226" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="F226" t="n">
-        <v>184.9999</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-169751.44171571</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="C227" t="n">
-        <v>248.3</v>
-      </c>
-      <c r="D227" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="E227" t="n">
-        <v>248.3</v>
-      </c>
-      <c r="F227" t="n">
-        <v>9225.027099999999</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-178976.46881571</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C228" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E228" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>4</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-178972.46881571</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C229" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E229" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F229" t="n">
-        <v>78</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-178972.46881571</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="C230" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D230" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="E230" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F230" t="n">
-        <v>31</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-179003.46881571</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="C231" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D231" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="E231" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-179003.46881571</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="C232" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D232" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E232" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F232" t="n">
-        <v>54</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-179003.46881571</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C233" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D233" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E233" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2733.1741</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="C234" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="D234" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="E234" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-175270.29471571</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>250</v>
-      </c>
-      <c r="C235" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="D235" t="n">
-        <v>251</v>
-      </c>
-      <c r="E235" t="n">
-        <v>250</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2863.273</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-175270.29471571</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="C236" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="D236" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="E236" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="F236" t="n">
-        <v>200</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-175270.29471571</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>250</v>
-      </c>
-      <c r="C237" t="n">
-        <v>250</v>
-      </c>
-      <c r="D237" t="n">
-        <v>250</v>
-      </c>
-      <c r="E237" t="n">
-        <v>250</v>
-      </c>
-      <c r="F237" t="n">
-        <v>400</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-175670.29471571</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>250</v>
-      </c>
-      <c r="C238" t="n">
-        <v>250</v>
-      </c>
-      <c r="D238" t="n">
-        <v>250</v>
-      </c>
-      <c r="E238" t="n">
-        <v>250</v>
-      </c>
-      <c r="F238" t="n">
-        <v>129.1338</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-175670.29471571</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>250</v>
-      </c>
-      <c r="C239" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D239" t="n">
-        <v>250</v>
-      </c>
-      <c r="E239" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F239" t="n">
-        <v>600</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C240" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D240" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E240" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1910.6865</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C241" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D241" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E241" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F241" t="n">
-        <v>923.7725</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C242" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D242" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E242" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1831.1417</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C243" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D243" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E243" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F243" t="n">
-        <v>303</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="C244" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="D244" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="E244" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="F244" t="n">
-        <v>579.7829</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-175690.51181571</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>250.9</v>
-      </c>
-      <c r="C245" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D245" t="n">
-        <v>251</v>
-      </c>
-      <c r="E245" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-176690.51181571</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C246" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D246" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E246" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F246" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-176690.51181571</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C247" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="D247" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E247" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="F247" t="n">
-        <v>798</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-176690.51181571</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="C248" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="D248" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="E248" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="F248" t="n">
-        <v>214.5317</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-176475.98011571</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C249" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D249" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="E249" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3680.7192</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-180156.69931571</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="C250" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="D250" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="E250" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="F250" t="n">
-        <v>807.4011</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-179349.29821571</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C251" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D251" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E251" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F251" t="n">
-        <v>443</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-179792.29821571</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C252" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="D252" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E252" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="F252" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-179610.09821571</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C253" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D253" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E253" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F253" t="n">
-        <v>968.4328</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-180578.53101571</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="C254" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="D254" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="E254" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F254" t="n">
-        <v>4160.3776</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-180578.53101571</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>248.5</v>
-      </c>
-      <c r="C255" t="n">
-        <v>248.5</v>
-      </c>
-      <c r="D255" t="n">
-        <v>248.5</v>
-      </c>
-      <c r="E255" t="n">
-        <v>248.5</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1424.1907</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-182002.72171571</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="C256" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="D256" t="n">
-        <v>251.4</v>
-      </c>
-      <c r="E256" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F256" t="n">
-        <v>7078.2199733</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-174924.50174241</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>250</v>
-      </c>
-      <c r="C257" t="n">
-        <v>250</v>
-      </c>
-      <c r="D257" t="n">
-        <v>250</v>
-      </c>
-      <c r="E257" t="n">
-        <v>250</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1047.3141</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>250</v>
-      </c>
-      <c r="C258" t="n">
-        <v>250</v>
-      </c>
-      <c r="D258" t="n">
-        <v>250</v>
-      </c>
-      <c r="E258" t="n">
-        <v>250</v>
-      </c>
-      <c r="F258" t="n">
-        <v>364.834</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>249.2</v>
-      </c>
-      <c r="C259" t="n">
-        <v>250</v>
-      </c>
-      <c r="D259" t="n">
-        <v>250</v>
-      </c>
-      <c r="E259" t="n">
-        <v>249</v>
-      </c>
-      <c r="F259" t="n">
-        <v>4966</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>250</v>
-      </c>
-      <c r="C260" t="n">
-        <v>250</v>
-      </c>
-      <c r="D260" t="n">
-        <v>250</v>
-      </c>
-      <c r="E260" t="n">
-        <v>250</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1203.0418</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>250</v>
-      </c>
-      <c r="C261" t="n">
-        <v>250</v>
-      </c>
-      <c r="D261" t="n">
-        <v>250</v>
-      </c>
-      <c r="E261" t="n">
-        <v>250</v>
-      </c>
-      <c r="F261" t="n">
-        <v>273.0519</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>250</v>
-      </c>
-      <c r="C262" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="D262" t="n">
-        <v>250</v>
-      </c>
-      <c r="E262" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="F262" t="n">
-        <v>341.8618</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-176313.67764241</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>250</v>
-      </c>
-      <c r="C263" t="n">
-        <v>250</v>
-      </c>
-      <c r="D263" t="n">
-        <v>250</v>
-      </c>
-      <c r="E263" t="n">
-        <v>250</v>
-      </c>
-      <c r="F263" t="n">
-        <v>114.1185</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-176199.55914241</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>250</v>
-      </c>
-      <c r="C264" t="n">
-        <v>250</v>
-      </c>
-      <c r="D264" t="n">
-        <v>250</v>
-      </c>
-      <c r="E264" t="n">
-        <v>250</v>
-      </c>
-      <c r="F264" t="n">
-        <v>390.9872</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-176199.55914241</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>250</v>
-      </c>
-      <c r="C265" t="n">
-        <v>250</v>
-      </c>
-      <c r="D265" t="n">
-        <v>250</v>
-      </c>
-      <c r="E265" t="n">
-        <v>250</v>
-      </c>
-      <c r="F265" t="n">
-        <v>526.052</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-176199.55914241</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="C266" t="n">
-        <v>251.4</v>
-      </c>
-      <c r="D266" t="n">
-        <v>251.4</v>
-      </c>
-      <c r="E266" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="F266" t="n">
-        <v>4201.14399363</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-171998.41514878</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>250</v>
-      </c>
-      <c r="C267" t="n">
-        <v>250</v>
-      </c>
-      <c r="D267" t="n">
-        <v>250</v>
-      </c>
-      <c r="E267" t="n">
-        <v>250</v>
-      </c>
-      <c r="F267" t="n">
-        <v>776.3459</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-172774.76104878</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>250</v>
-      </c>
-      <c r="C268" t="n">
-        <v>250</v>
-      </c>
-      <c r="D268" t="n">
-        <v>250</v>
-      </c>
-      <c r="E268" t="n">
-        <v>250</v>
-      </c>
-      <c r="F268" t="n">
-        <v>159.0477</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-172774.76104878</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>250</v>
-      </c>
-      <c r="C269" t="n">
-        <v>250</v>
-      </c>
-      <c r="D269" t="n">
-        <v>250</v>
-      </c>
-      <c r="E269" t="n">
-        <v>250</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-172774.76104878</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="C270" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="D270" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="E270" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="F270" t="n">
-        <v>12.5394</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-172762.22164878</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>250</v>
-      </c>
-      <c r="C271" t="n">
-        <v>249</v>
-      </c>
-      <c r="D271" t="n">
-        <v>250</v>
-      </c>
-      <c r="E271" t="n">
-        <v>249</v>
-      </c>
-      <c r="F271" t="n">
-        <v>11978.5342</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-184740.75584878</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>250</v>
-      </c>
-      <c r="C272" t="n">
-        <v>250</v>
-      </c>
-      <c r="D272" t="n">
-        <v>250</v>
-      </c>
-      <c r="E272" t="n">
-        <v>250</v>
-      </c>
-      <c r="F272" t="n">
-        <v>529.9</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-184210.85584878</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>250</v>
-      </c>
-      <c r="C273" t="n">
-        <v>250</v>
-      </c>
-      <c r="D273" t="n">
-        <v>250</v>
-      </c>
-      <c r="E273" t="n">
-        <v>250</v>
-      </c>
-      <c r="F273" t="n">
-        <v>326</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-184210.85584878</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="C274" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="D274" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="E274" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="F274" t="n">
-        <v>408.6025</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-183802.25334878</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="C275" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="D275" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="E275" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2142.6427</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-183802.25334878</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="C276" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="D276" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="E276" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1711.5134</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-182090.73994878</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="C277" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="D277" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="E277" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="F277" t="n">
-        <v>5736.9793</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-176353.76064878</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10345,7 +9589,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10384,7 +9628,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10423,7 +9667,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10458,13 +9702,11 @@
         <v>-180016.23254878</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>249.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10503,7 +9745,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10542,7 +9784,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10581,7 +9823,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10620,7 +9862,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10659,7 +9901,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10698,7 +9940,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10737,7 +9979,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10776,7 +10018,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10815,7 +10057,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10854,7 +10096,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10893,7 +10135,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10932,7 +10174,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10971,7 +10213,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11010,7 +10252,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11049,7 +10291,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11088,7 +10330,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11127,7 +10369,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11166,7 +10408,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11205,7 +10447,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11244,7 +10486,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11283,7 +10525,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11322,7 +10564,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11361,7 +10603,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11400,7 +10642,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11439,7 +10681,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11478,7 +10720,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11517,7 +10759,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11556,7 +10798,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11595,7 +10837,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11634,7 +10876,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11673,7 +10915,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11712,7 +10954,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11751,7 +10993,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11790,7 +11032,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11829,7 +11071,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11868,7 +11110,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11907,7 +11149,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11946,7 +11188,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11985,7 +11227,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12024,7 +11266,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12063,7 +11305,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12102,7 +11344,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12141,7 +11383,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>249.1</v>
+        <v>250.3</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12154,6 +11396,6 @@
       <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -1936,7 +1936,7 @@
         <v>-94974.90193347995</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-95028.76933347996</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -5764,14 +5764,10 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="J163" t="n">
-        <v>248.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5804,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5843,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6737,10 +6721,14 @@
         <v>-155837.72611571</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="J192" t="n">
+        <v>249.5</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
@@ -6773,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6806,8 +6800,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7232,10 +7232,14 @@
         <v>-147754.43881571</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>249</v>
+      </c>
+      <c r="J207" t="n">
+        <v>249</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7265,11 +7269,19 @@
         <v>-147653.93071571</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>249</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7301,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>249</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>249</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7367,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>249</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7400,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>249</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7433,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>249</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7466,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>249</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +7544,19 @@
         <v>-150447.45121571</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="J215" t="n">
+        <v>249</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7532,8 +7588,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>249</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7565,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>249</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +7666,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>249</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>249</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7664,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>249</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7697,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>249</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7730,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>249</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7763,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>249</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7796,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>249</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7829,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>249</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7862,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>249</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7895,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>249</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7928,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>249</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7961,8 +8095,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>249</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7994,8 +8134,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>249</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8027,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>249</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8060,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>249</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8093,8 +8251,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>249</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8126,8 +8290,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>249</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8159,8 +8329,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>249</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8368,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>249</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8225,8 +8407,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>249</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8258,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>249</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8291,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>249</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8324,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>249</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8357,8 +8563,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>249</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8390,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>249</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8423,8 +8641,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>249</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8456,8 +8680,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>249</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8489,8 +8719,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>249</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8522,8 +8758,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>249</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8555,8 +8797,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>249</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8588,8 +8836,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>249</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8621,8 +8875,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>249</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8654,8 +8914,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>249</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8687,8 +8953,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>249</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8720,8 +8992,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>249</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8753,8 +9031,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>249</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8786,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>249</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8816,11 +9106,19 @@
         <v>-182002.72171571</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="J255" t="n">
+        <v>249</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +9147,19 @@
         <v>-174924.50174241</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="J256" t="n">
+        <v>249</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +9188,19 @@
         <v>-175971.81584241</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="J257" t="n">
+        <v>249</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8918,8 +9232,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>249</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8951,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>249</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8984,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>249</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9017,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>249</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9050,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>249</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9080,11 +9424,19 @@
         <v>-176199.55914241</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="J263" t="n">
+        <v>249</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9113,11 +9465,19 @@
         <v>-176199.55914241</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>250</v>
+      </c>
+      <c r="J264" t="n">
+        <v>249</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +9506,19 @@
         <v>-176199.55914241</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>250</v>
+      </c>
+      <c r="J265" t="n">
+        <v>249</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9179,11 +9547,19 @@
         <v>-171998.41514878</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>250</v>
+      </c>
+      <c r="J266" t="n">
+        <v>249</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9215,8 +9591,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>249</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9245,11 +9627,19 @@
         <v>-172774.76104878</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>250</v>
+      </c>
+      <c r="J268" t="n">
+        <v>249</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9278,11 +9668,19 @@
         <v>-172774.76104878</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>250</v>
+      </c>
+      <c r="J269" t="n">
+        <v>249</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9314,8 +9712,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>249</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9347,8 +9751,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>249</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9380,8 +9790,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>249</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9410,11 +9826,19 @@
         <v>-184210.85584878</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>250</v>
+      </c>
+      <c r="J273" t="n">
+        <v>249</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9443,11 +9867,19 @@
         <v>-183802.25334878</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>250</v>
+      </c>
+      <c r="J274" t="n">
+        <v>249</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9479,8 +9911,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>249</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9515,9 +9953,13 @@
         <v>250.3</v>
       </c>
       <c r="J276" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9546,15 +9988,17 @@
         <v>-176353.76064878</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>250.4</v>
+      </c>
       <c r="J277" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L277" t="n">
@@ -9589,7 +10033,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9628,7 +10072,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9663,11 +10107,13 @@
         <v>-181929.79154878</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>249.5</v>
+      </c>
       <c r="J280" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9702,11 +10148,13 @@
         <v>-180016.23254878</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>249.7</v>
+      </c>
       <c r="J281" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9745,7 +10193,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9784,7 +10232,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9819,11 +10267,13 @@
         <v>-178984.76914878</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>251.3</v>
+      </c>
       <c r="J284" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9862,7 +10312,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9901,7 +10351,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -9940,7 +10390,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -9979,7 +10429,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10018,7 +10468,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10057,7 +10507,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10096,7 +10546,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10135,7 +10585,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10174,7 +10624,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10213,7 +10663,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10252,7 +10702,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10291,7 +10741,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10330,7 +10780,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10369,7 +10819,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10408,7 +10858,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10443,11 +10893,13 @@
         <v>-174829.73561571</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>250.8</v>
+      </c>
       <c r="J300" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10482,11 +10934,13 @@
         <v>-174320.67661571</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>251.7</v>
+      </c>
       <c r="J301" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10525,7 +10979,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10564,7 +11018,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10599,19 +11053,19 @@
         <v>-171430.16750679</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>250.3</v>
+        <v>249</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1</v>
+        <v>1.013473895582329</v>
       </c>
       <c r="M304" t="inlineStr"/>
     </row>
@@ -10638,17 +11092,11 @@
         <v>-171437.16750679</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10677,17 +11125,11 @@
         <v>-172640.8161067899</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10719,14 +11161,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10758,14 +11194,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10794,17 +11224,11 @@
         <v>-168194.1161067899</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10833,17 +11257,11 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10872,17 +11290,11 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10911,17 +11323,11 @@
         <v>-174251.3015067899</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +11359,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10992,14 +11392,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +11425,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11070,14 +11458,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +11491,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11148,14 +11524,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11187,14 +11557,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11226,14 +11590,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +11623,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11301,17 +11653,11 @@
         <v>-155294.1661403699</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11340,17 +11686,11 @@
         <v>-155431.0381403699</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11379,17 +11719,11 @@
         <v>-155426.0381403699</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest MTL.xlsx
+++ b/BackTest/2020-01-11 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:L324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>652.5984</v>
       </c>
       <c r="G2" t="n">
-        <v>-82510.11034843999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>345</v>
       </c>
       <c r="G3" t="n">
-        <v>-82855.11034843999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1027.1744</v>
       </c>
       <c r="G4" t="n">
-        <v>-82855.11034843999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4447.5126</v>
       </c>
       <c r="G5" t="n">
-        <v>-82855.11034843999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2801.4214</v>
       </c>
       <c r="G6" t="n">
-        <v>-82855.11034843999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,19 @@
         <v>863.8792999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-83718.98964843999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>248.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>248.1</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +627,23 @@
         <v>15.8944</v>
       </c>
       <c r="G8" t="n">
-        <v>-83718.98964843999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I8" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +665,23 @@
         <v>1244.794</v>
       </c>
       <c r="G9" t="n">
-        <v>-84963.78364843999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I9" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +703,23 @@
         <v>51.9746</v>
       </c>
       <c r="G10" t="n">
-        <v>-84963.78364843999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>247.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +741,23 @@
         <v>8.224299999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-84955.55934843999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>247.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +779,21 @@
         <v>49.8665</v>
       </c>
       <c r="G12" t="n">
-        <v>-84955.55934843999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +815,23 @@
         <v>2229.3593</v>
       </c>
       <c r="G13" t="n">
-        <v>-82726.20004843999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>247.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +853,21 @@
         <v>3387.9998</v>
       </c>
       <c r="G14" t="n">
-        <v>-79338.20024843999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +889,21 @@
         <v>210.65</v>
       </c>
       <c r="G15" t="n">
-        <v>-79548.85024843998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +925,21 @@
         <v>7607</v>
       </c>
       <c r="G16" t="n">
-        <v>-79548.85024843998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +961,21 @@
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>-79542.85024843998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +997,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-79532.85024843998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1033,21 @@
         <v>13821.68908504</v>
       </c>
       <c r="G19" t="n">
-        <v>-93354.53933347997</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1069,21 @@
         <v>622.346</v>
       </c>
       <c r="G20" t="n">
-        <v>-93354.53933347997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1105,21 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-93352.53933347997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1141,21 @@
         <v>188.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>-93541.53923347997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1177,21 @@
         <v>361.4027</v>
       </c>
       <c r="G23" t="n">
-        <v>-93541.53923347997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1213,21 @@
         <v>509</v>
       </c>
       <c r="G24" t="n">
-        <v>-93541.53923347997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1249,21 @@
         <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>-93469.53923347997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1285,21 @@
         <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>-93460.53923347997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1321,21 @@
         <v>102.8306</v>
       </c>
       <c r="G27" t="n">
-        <v>-93563.36983347997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1357,21 @@
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>-93537.36983347997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1393,21 @@
         <v>618.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>-94156.36973347997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1.010719467956469</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1429,15 @@
         <v>337.9</v>
       </c>
       <c r="G30" t="n">
-        <v>-94156.36973347997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1459,15 @@
         <v>357.5818</v>
       </c>
       <c r="G31" t="n">
-        <v>-94156.36973347997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1489,15 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>-94153.36973347997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1519,15 @@
         <v>19.847</v>
       </c>
       <c r="G33" t="n">
-        <v>-94173.21673347996</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1549,15 @@
         <v>386.0181</v>
       </c>
       <c r="G34" t="n">
-        <v>-94173.21673347996</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1579,15 @@
         <v>40.9477</v>
       </c>
       <c r="G35" t="n">
-        <v>-94214.16443347996</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1609,15 @@
         <v>42.0733</v>
       </c>
       <c r="G36" t="n">
-        <v>-94256.23773347997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1639,15 @@
         <v>21.6613</v>
       </c>
       <c r="G37" t="n">
-        <v>-94234.57643347996</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1669,15 @@
         <v>21.3073</v>
       </c>
       <c r="G38" t="n">
-        <v>-94213.26913347996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1699,15 @@
         <v>3.6101</v>
       </c>
       <c r="G39" t="n">
-        <v>-94209.65903347995</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1729,15 @@
         <v>15.6729</v>
       </c>
       <c r="G40" t="n">
-        <v>-94209.65903347995</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1759,15 @@
         <v>701.5655</v>
       </c>
       <c r="G41" t="n">
-        <v>-94911.22453347995</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1789,15 @@
         <v>15.6584</v>
       </c>
       <c r="G42" t="n">
-        <v>-94895.56613347995</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1819,15 @@
         <v>112.3895</v>
       </c>
       <c r="G43" t="n">
-        <v>-95007.95563347996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1849,15 @@
         <v>48</v>
       </c>
       <c r="G44" t="n">
-        <v>-95007.95563347996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1879,15 @@
         <v>122.9507</v>
       </c>
       <c r="G45" t="n">
-        <v>-94885.00493347996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1909,15 @@
         <v>109.3581</v>
       </c>
       <c r="G46" t="n">
-        <v>-94994.36303347995</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1939,15 @@
         <v>19.4611</v>
       </c>
       <c r="G47" t="n">
-        <v>-94974.90193347995</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1969,15 @@
         <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>-94982.90193347995</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1999,15 @@
         <v>93.3558</v>
       </c>
       <c r="G49" t="n">
-        <v>-94982.90193347995</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2029,15 @@
         <v>33.4364</v>
       </c>
       <c r="G50" t="n">
-        <v>-95016.33833347996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2059,15 @@
         <v>22.9094</v>
       </c>
       <c r="G51" t="n">
-        <v>-95016.33833347996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2089,15 @@
         <v>34.0523</v>
       </c>
       <c r="G52" t="n">
-        <v>-95016.33833347996</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2119,15 @@
         <v>25.405</v>
       </c>
       <c r="G53" t="n">
-        <v>-95016.33833347996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2149,15 @@
         <v>24.3539</v>
       </c>
       <c r="G54" t="n">
-        <v>-95016.33833347996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2179,15 @@
         <v>12.431</v>
       </c>
       <c r="G55" t="n">
-        <v>-95028.76933347996</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2209,15 @@
         <v>18.6088</v>
       </c>
       <c r="G56" t="n">
-        <v>-95047.37813347996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2239,15 @@
         <v>11.3149</v>
       </c>
       <c r="G57" t="n">
-        <v>-95047.37813347996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2269,15 @@
         <v>23.4529</v>
       </c>
       <c r="G58" t="n">
-        <v>-95047.37813347996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2299,15 @@
         <v>62.4405</v>
       </c>
       <c r="G59" t="n">
-        <v>-95047.37813347996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2329,15 @@
         <v>257.0771</v>
       </c>
       <c r="G60" t="n">
-        <v>-94790.30103347996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2359,15 @@
         <v>6438</v>
       </c>
       <c r="G61" t="n">
-        <v>-101228.30103348</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2389,15 @@
         <v>2898.3099</v>
       </c>
       <c r="G62" t="n">
-        <v>-101228.30103348</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2419,15 @@
         <v>14122.9347</v>
       </c>
       <c r="G63" t="n">
-        <v>-101228.30103348</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2449,15 @@
         <v>3321.8733</v>
       </c>
       <c r="G64" t="n">
-        <v>-101228.30103348</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2479,15 @@
         <v>5626.7454</v>
       </c>
       <c r="G65" t="n">
-        <v>-101228.30103348</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2509,15 @@
         <v>8132.5439</v>
       </c>
       <c r="G66" t="n">
-        <v>-109360.84493348</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2539,15 @@
         <v>511.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>-109360.84493348</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2569,15 @@
         <v>389.6325</v>
       </c>
       <c r="G68" t="n">
-        <v>-109360.84493348</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2599,15 @@
         <v>1007.2052</v>
       </c>
       <c r="G69" t="n">
-        <v>-110368.05013348</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2629,15 @@
         <v>165.3525</v>
       </c>
       <c r="G70" t="n">
-        <v>-110202.69763348</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2659,15 @@
         <v>19.5935</v>
       </c>
       <c r="G71" t="n">
-        <v>-110183.10413348</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2689,15 @@
         <v>162.94</v>
       </c>
       <c r="G72" t="n">
-        <v>-110346.04413348</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2719,15 @@
         <v>3354.76237031</v>
       </c>
       <c r="G73" t="n">
-        <v>-106991.28176317</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2749,15 @@
         <v>9983.104600000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-116974.38636317</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2779,15 @@
         <v>6266.4698</v>
       </c>
       <c r="G75" t="n">
-        <v>-110707.91656317</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2809,15 @@
         <v>1488.8207</v>
       </c>
       <c r="G76" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2839,15 @@
         <v>278.7036</v>
       </c>
       <c r="G77" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2869,15 @@
         <v>243.0729</v>
       </c>
       <c r="G78" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2899,15 @@
         <v>124.1272</v>
       </c>
       <c r="G79" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2929,15 @@
         <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2959,15 @@
         <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2989,15 @@
         <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>-112196.73726317</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3019,15 @@
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>-112193.73726317</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3049,15 @@
         <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>-112193.73726317</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3079,15 @@
         <v>14</v>
       </c>
       <c r="G85" t="n">
-        <v>-112207.73726317</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3109,15 @@
         <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>-112222.73726317</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3139,15 @@
         <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>-112222.73726317</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3169,15 @@
         <v>12</v>
       </c>
       <c r="G88" t="n">
-        <v>-112222.73726317</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3199,15 @@
         <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>-112207.73726317</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3229,15 @@
         <v>42.16</v>
       </c>
       <c r="G90" t="n">
-        <v>-112249.89726317</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3259,15 @@
         <v>32.5785</v>
       </c>
       <c r="G91" t="n">
-        <v>-112249.89726317</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3289,15 @@
         <v>2.063</v>
       </c>
       <c r="G92" t="n">
-        <v>-112249.89726317</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3319,15 @@
         <v>8.1532</v>
       </c>
       <c r="G93" t="n">
-        <v>-112249.89726317</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3349,15 @@
         <v>15.6485</v>
       </c>
       <c r="G94" t="n">
-        <v>-112234.24876317</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3379,15 @@
         <v>3.3156</v>
       </c>
       <c r="G95" t="n">
-        <v>-112234.24876317</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3409,15 @@
         <v>5.9132</v>
       </c>
       <c r="G96" t="n">
-        <v>-112234.24876317</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3439,15 @@
         <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>-112228.24876317</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3469,15 @@
         <v>4.6362</v>
       </c>
       <c r="G98" t="n">
-        <v>-112232.88496317</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3499,15 @@
         <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>-112262.88496317</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3529,15 @@
         <v>5168.2026</v>
       </c>
       <c r="G100" t="n">
-        <v>-117431.08756317</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3559,15 @@
         <v>14.8241</v>
       </c>
       <c r="G101" t="n">
-        <v>-117431.08756317</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3589,15 @@
         <v>19.3286</v>
       </c>
       <c r="G102" t="n">
-        <v>-117411.75896317</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3619,15 @@
         <v>4.3605</v>
       </c>
       <c r="G103" t="n">
-        <v>-117416.11946317</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3649,15 @@
         <v>1018.255</v>
       </c>
       <c r="G104" t="n">
-        <v>-116397.86446317</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3679,15 @@
         <v>2414.0084</v>
       </c>
       <c r="G105" t="n">
-        <v>-118811.87286317</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3709,15 @@
         <v>19.1861</v>
       </c>
       <c r="G106" t="n">
-        <v>-118811.87286317</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3739,15 @@
         <v>124.5976</v>
       </c>
       <c r="G107" t="n">
-        <v>-118687.27526317</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3769,15 @@
         <v>25.1226</v>
       </c>
       <c r="G108" t="n">
-        <v>-118712.39786317</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3799,15 @@
         <v>23.1569</v>
       </c>
       <c r="G109" t="n">
-        <v>-118689.24096317</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3829,15 @@
         <v>9.25</v>
       </c>
       <c r="G110" t="n">
-        <v>-118698.49096317</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3859,15 @@
         <v>9.3467</v>
       </c>
       <c r="G111" t="n">
-        <v>-118698.49096317</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3889,15 @@
         <v>18</v>
       </c>
       <c r="G112" t="n">
-        <v>-118698.49096317</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3919,15 @@
         <v>9</v>
       </c>
       <c r="G113" t="n">
-        <v>-118689.49096317</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3949,15 @@
         <v>15</v>
       </c>
       <c r="G114" t="n">
-        <v>-118689.49096317</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3979,15 @@
         <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>-118689.49096317</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4009,15 @@
         <v>63.2706</v>
       </c>
       <c r="G116" t="n">
-        <v>-118626.22036317</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4039,15 @@
         <v>15.1873</v>
       </c>
       <c r="G117" t="n">
-        <v>-118641.40766317</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4069,15 @@
         <v>18.3551</v>
       </c>
       <c r="G118" t="n">
-        <v>-118623.05256317</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4099,15 @@
         <v>18.4584</v>
       </c>
       <c r="G119" t="n">
-        <v>-118641.51096317</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4129,15 @@
         <v>22.8116</v>
       </c>
       <c r="G120" t="n">
-        <v>-118641.51096317</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4159,15 @@
         <v>68.435</v>
       </c>
       <c r="G121" t="n">
-        <v>-118641.51096317</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4189,15 @@
         <v>39.6535</v>
       </c>
       <c r="G122" t="n">
-        <v>-118601.85746317</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4219,15 @@
         <v>550</v>
       </c>
       <c r="G123" t="n">
-        <v>-119151.85746317</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4249,15 @@
         <v>2624.9776</v>
       </c>
       <c r="G124" t="n">
-        <v>-116526.87986317</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4279,15 @@
         <v>753.0001</v>
       </c>
       <c r="G125" t="n">
-        <v>-117279.87996317</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4309,15 @@
         <v>244.6584</v>
       </c>
       <c r="G126" t="n">
-        <v>-117524.53836317</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4339,15 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>-117520.53836317</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4369,15 @@
         <v>890.1155</v>
       </c>
       <c r="G128" t="n">
-        <v>-117520.53836317</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4399,15 @@
         <v>162</v>
       </c>
       <c r="G129" t="n">
-        <v>-117520.53836317</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4429,15 @@
         <v>126</v>
       </c>
       <c r="G130" t="n">
-        <v>-117520.53836317</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4459,15 @@
         <v>378.44</v>
       </c>
       <c r="G131" t="n">
-        <v>-117520.53836317</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4489,15 @@
         <v>21.207</v>
       </c>
       <c r="G132" t="n">
-        <v>-117520.53836317</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4519,15 @@
         <v>329.4808</v>
       </c>
       <c r="G133" t="n">
-        <v>-117850.01916317</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4549,15 @@
         <v>161.9999</v>
       </c>
       <c r="G134" t="n">
-        <v>-117850.01916317</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4579,15 @@
         <v>124</v>
       </c>
       <c r="G135" t="n">
-        <v>-117850.01916317</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4609,15 @@
         <v>261.2629</v>
       </c>
       <c r="G136" t="n">
-        <v>-117588.75626317</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4639,15 @@
         <v>493</v>
       </c>
       <c r="G137" t="n">
-        <v>-117588.75626317</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4669,15 @@
         <v>182</v>
       </c>
       <c r="G138" t="n">
-        <v>-117588.75626317</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4699,15 @@
         <v>122.5006</v>
       </c>
       <c r="G139" t="n">
-        <v>-117588.75626317</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4729,15 @@
         <v>144.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>-117733.75616317</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4759,15 @@
         <v>525</v>
       </c>
       <c r="G141" t="n">
-        <v>-117733.75616317</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4789,15 @@
         <v>913.3943</v>
       </c>
       <c r="G142" t="n">
-        <v>-117733.75616317</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4819,15 @@
         <v>3173.07665689</v>
       </c>
       <c r="G143" t="n">
-        <v>-114560.67950628</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4849,15 @@
         <v>4.2886</v>
       </c>
       <c r="G144" t="n">
-        <v>-114556.39090628</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4879,15 @@
         <v>41265.2805</v>
       </c>
       <c r="G145" t="n">
-        <v>-155821.67140628</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4909,15 @@
         <v>792</v>
       </c>
       <c r="G146" t="n">
-        <v>-155029.67140628</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4939,15 @@
         <v>2024.8</v>
       </c>
       <c r="G147" t="n">
-        <v>-157054.47140628</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4969,15 @@
         <v>1800</v>
       </c>
       <c r="G148" t="n">
-        <v>-157054.47140628</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4999,15 @@
         <v>2.2</v>
       </c>
       <c r="G149" t="n">
-        <v>-157054.47140628</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5029,15 @@
         <v>6066.4904</v>
       </c>
       <c r="G150" t="n">
-        <v>-150987.98100628</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5059,15 @@
         <v>30</v>
       </c>
       <c r="G151" t="n">
-        <v>-151017.98100628</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5089,15 @@
         <v>30</v>
       </c>
       <c r="G152" t="n">
-        <v>-151017.98100628</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5119,15 @@
         <v>95.9472</v>
       </c>
       <c r="G153" t="n">
-        <v>-151113.92820628</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5149,15 @@
         <v>3990.025</v>
       </c>
       <c r="G154" t="n">
-        <v>-147123.90320628</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5179,15 @@
         <v>2371.6</v>
       </c>
       <c r="G155" t="n">
-        <v>-149495.50320628</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5209,15 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>-150495.50320628</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5239,15 @@
         <v>4141.3401</v>
       </c>
       <c r="G157" t="n">
-        <v>-146354.16310628</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5269,15 @@
         <v>11663.1457</v>
       </c>
       <c r="G158" t="n">
-        <v>-158017.30880628</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5299,15 @@
         <v>3977.9232</v>
       </c>
       <c r="G159" t="n">
-        <v>-161995.23200628</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5329,15 @@
         <v>1291.2843</v>
       </c>
       <c r="G160" t="n">
-        <v>-160703.94770628</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5359,15 @@
         <v>567</v>
       </c>
       <c r="G161" t="n">
-        <v>-161270.94770628</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5389,15 @@
         <v>387.6096</v>
       </c>
       <c r="G162" t="n">
-        <v>-161270.94770628</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5419,15 @@
         <v>168.3</v>
       </c>
       <c r="G163" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5449,15 @@
         <v>2092.0184</v>
       </c>
       <c r="G164" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5479,15 @@
         <v>95.9472</v>
       </c>
       <c r="G165" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5509,15 @@
         <v>33</v>
       </c>
       <c r="G166" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5539,15 @@
         <v>123.3913</v>
       </c>
       <c r="G167" t="n">
-        <v>-161102.64770628</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5569,15 @@
         <v>1346</v>
       </c>
       <c r="G168" t="n">
-        <v>-159756.64770628</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5599,15 @@
         <v>3749.6058</v>
       </c>
       <c r="G169" t="n">
-        <v>-159756.64770628</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5629,15 @@
         <v>2615.9599</v>
       </c>
       <c r="G170" t="n">
-        <v>-157140.68780628</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5659,15 @@
         <v>1816.65003732</v>
       </c>
       <c r="G171" t="n">
-        <v>-155324.03776896</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5689,15 @@
         <v>5453.15186154</v>
       </c>
       <c r="G172" t="n">
-        <v>-160777.1896305</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5719,15 @@
         <v>1388.6445</v>
       </c>
       <c r="G173" t="n">
-        <v>-159388.5451305</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5749,15 @@
         <v>152</v>
       </c>
       <c r="G174" t="n">
-        <v>-159540.5451305</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5779,15 @@
         <v>664.4487</v>
       </c>
       <c r="G175" t="n">
-        <v>-159540.5451305</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5809,15 @@
         <v>4840</v>
       </c>
       <c r="G176" t="n">
-        <v>-164380.5451305</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5839,15 @@
         <v>172</v>
       </c>
       <c r="G177" t="n">
-        <v>-164380.5451305</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5869,15 @@
         <v>7887.74471479</v>
       </c>
       <c r="G178" t="n">
-        <v>-156492.80041571</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5899,15 @@
         <v>176</v>
       </c>
       <c r="G179" t="n">
-        <v>-156668.80041571</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5929,15 @@
         <v>1202</v>
       </c>
       <c r="G180" t="n">
-        <v>-155466.80041571</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5959,15 @@
         <v>132</v>
       </c>
       <c r="G181" t="n">
-        <v>-155466.80041571</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5989,15 @@
         <v>2712.1</v>
       </c>
       <c r="G182" t="n">
-        <v>-152754.70041571</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6019,15 @@
         <v>1159.3243</v>
       </c>
       <c r="G183" t="n">
-        <v>-151595.37611571</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6049,15 @@
         <v>824.0212</v>
       </c>
       <c r="G184" t="n">
-        <v>-152419.39731571</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6079,15 @@
         <v>6298.8789</v>
       </c>
       <c r="G185" t="n">
-        <v>-152419.39731571</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6109,15 @@
         <v>68.4512</v>
       </c>
       <c r="G186" t="n">
-        <v>-152487.84851571</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6139,15 @@
         <v>132</v>
       </c>
       <c r="G187" t="n">
-        <v>-152487.84851571</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6169,15 @@
         <v>3330.9999</v>
       </c>
       <c r="G188" t="n">
-        <v>-152487.84851571</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6199,15 @@
         <v>165.6836</v>
       </c>
       <c r="G189" t="n">
-        <v>-152322.16491571</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6229,15 @@
         <v>3515.5612</v>
       </c>
       <c r="G190" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6259,15 @@
         <v>816.7676</v>
       </c>
       <c r="G191" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,22 +6289,15 @@
         <v>241.9999</v>
       </c>
       <c r="G192" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6755,24 +6319,15 @@
         <v>799</v>
       </c>
       <c r="G193" t="n">
-        <v>-155837.72611571</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6794,24 +6349,15 @@
         <v>1270</v>
       </c>
       <c r="G194" t="n">
-        <v>-154567.72611571</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6833,18 +6379,15 @@
         <v>6257.9715</v>
       </c>
       <c r="G195" t="n">
-        <v>-148309.75461571</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6866,18 +6409,15 @@
         <v>1475</v>
       </c>
       <c r="G196" t="n">
-        <v>-148309.75461571</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6899,18 +6439,15 @@
         <v>3065.3086</v>
       </c>
       <c r="G197" t="n">
-        <v>-148309.75461571</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6932,18 +6469,15 @@
         <v>100</v>
       </c>
       <c r="G198" t="n">
-        <v>-148409.75461571</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6965,18 +6499,15 @@
         <v>2592.4253</v>
       </c>
       <c r="G199" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6998,18 +6529,15 @@
         <v>1000</v>
       </c>
       <c r="G200" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7031,18 +6559,15 @@
         <v>277.7428</v>
       </c>
       <c r="G201" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7064,18 +6589,15 @@
         <v>1538.9224</v>
       </c>
       <c r="G202" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7097,18 +6619,15 @@
         <v>2574.9594</v>
       </c>
       <c r="G203" t="n">
-        <v>-145817.32931571</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7130,18 +6649,15 @@
         <v>1037.1095</v>
       </c>
       <c r="G204" t="n">
-        <v>-146854.43881571</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7163,18 +6679,15 @@
         <v>1250</v>
       </c>
       <c r="G205" t="n">
-        <v>-146854.43881571</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7196,18 +6709,15 @@
         <v>2292.8148</v>
       </c>
       <c r="G206" t="n">
-        <v>-146854.43881571</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7229,22 +6739,15 @@
         <v>900</v>
       </c>
       <c r="G207" t="n">
-        <v>-147754.43881571</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>249</v>
-      </c>
-      <c r="J207" t="n">
-        <v>249</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7266,26 +6769,15 @@
         <v>100.5081</v>
       </c>
       <c r="G208" t="n">
-        <v>-147653.93071571</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>248.6</v>
-      </c>
-      <c r="J208" t="n">
-        <v>249</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7307,24 +6799,15 @@
         <v>2729.1668</v>
       </c>
       <c r="G209" t="n">
-        <v>-150383.09751571</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>249</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7346,24 +6829,15 @@
         <v>1489.1526</v>
       </c>
       <c r="G210" t="n">
-        <v>-150383.09751571</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>249</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7385,24 +6859,15 @@
         <v>575.0386</v>
       </c>
       <c r="G211" t="n">
-        <v>-149808.05891571</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>249</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7424,24 +6889,15 @@
         <v>1661.5042</v>
       </c>
       <c r="G212" t="n">
-        <v>-151469.56311571</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>249</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7463,24 +6919,15 @@
         <v>1470.5209</v>
       </c>
       <c r="G213" t="n">
-        <v>-149999.04221571</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>249</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7502,24 +6949,15 @@
         <v>1470.5209</v>
       </c>
       <c r="G214" t="n">
-        <v>-151469.56311571</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>249</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7541,26 +6979,15 @@
         <v>1022.1119</v>
       </c>
       <c r="G215" t="n">
-        <v>-150447.45121571</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="J215" t="n">
-        <v>249</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7582,24 +7009,15 @@
         <v>762.3881</v>
       </c>
       <c r="G216" t="n">
-        <v>-149685.06311571</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>249</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7621,24 +7039,15 @@
         <v>15223.5</v>
       </c>
       <c r="G217" t="n">
-        <v>-164908.56311571</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>249</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7660,24 +7069,15 @@
         <v>7542.0964</v>
       </c>
       <c r="G218" t="n">
-        <v>-157366.46671571</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>249</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7699,24 +7099,15 @@
         <v>3757.5655</v>
       </c>
       <c r="G219" t="n">
-        <v>-161124.03221571</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>249</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7738,24 +7129,15 @@
         <v>3488.1134</v>
       </c>
       <c r="G220" t="n">
-        <v>-164612.14561571</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>249</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7777,24 +7159,15 @@
         <v>3.3769</v>
       </c>
       <c r="G221" t="n">
-        <v>-164608.76871571</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>249</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7816,24 +7189,15 @@
         <v>105.6</v>
       </c>
       <c r="G222" t="n">
-        <v>-164714.36871571</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>249</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7855,24 +7219,15 @@
         <v>5323.793</v>
       </c>
       <c r="G223" t="n">
-        <v>-170038.16171571</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>249</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7894,24 +7249,15 @@
         <v>471.7199</v>
       </c>
       <c r="G224" t="n">
-        <v>-169566.44181571</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>249</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7933,24 +7279,15 @@
         <v>1.9969</v>
       </c>
       <c r="G225" t="n">
-        <v>-169566.44181571</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>249</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7972,24 +7309,15 @@
         <v>184.9999</v>
       </c>
       <c r="G226" t="n">
-        <v>-169751.44171571</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>249</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8011,24 +7339,15 @@
         <v>9225.027099999999</v>
       </c>
       <c r="G227" t="n">
-        <v>-178976.46881571</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>249</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8050,24 +7369,15 @@
         <v>4</v>
       </c>
       <c r="G228" t="n">
-        <v>-178972.46881571</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>249</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8089,24 +7399,15 @@
         <v>78</v>
       </c>
       <c r="G229" t="n">
-        <v>-178972.46881571</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>249</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8128,24 +7429,15 @@
         <v>31</v>
       </c>
       <c r="G230" t="n">
-        <v>-179003.46881571</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>249</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8167,24 +7459,15 @@
         <v>3</v>
       </c>
       <c r="G231" t="n">
-        <v>-179003.46881571</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>249</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8206,24 +7489,15 @@
         <v>54</v>
       </c>
       <c r="G232" t="n">
-        <v>-179003.46881571</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>249</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8245,24 +7519,15 @@
         <v>2733.1741</v>
       </c>
       <c r="G233" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>249</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8284,24 +7549,15 @@
         <v>1000</v>
       </c>
       <c r="G234" t="n">
-        <v>-175270.29471571</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>249</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8323,24 +7579,15 @@
         <v>2863.273</v>
       </c>
       <c r="G235" t="n">
-        <v>-175270.29471571</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>249</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8362,24 +7609,15 @@
         <v>200</v>
       </c>
       <c r="G236" t="n">
-        <v>-175270.29471571</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>249</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8401,24 +7639,15 @@
         <v>400</v>
       </c>
       <c r="G237" t="n">
-        <v>-175670.29471571</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>249</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8440,24 +7669,15 @@
         <v>129.1338</v>
       </c>
       <c r="G238" t="n">
-        <v>-175670.29471571</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>249</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8479,24 +7699,15 @@
         <v>600</v>
       </c>
       <c r="G239" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>249</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8518,24 +7729,15 @@
         <v>1910.6865</v>
       </c>
       <c r="G240" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>249</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8557,24 +7759,15 @@
         <v>923.7725</v>
       </c>
       <c r="G241" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>249</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8596,24 +7789,15 @@
         <v>1831.1417</v>
       </c>
       <c r="G242" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>249</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8635,24 +7819,15 @@
         <v>303</v>
       </c>
       <c r="G243" t="n">
-        <v>-176270.29471571</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>249</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8674,24 +7849,15 @@
         <v>579.7829</v>
       </c>
       <c r="G244" t="n">
-        <v>-175690.51181571</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>249</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8713,24 +7879,15 @@
         <v>1000</v>
       </c>
       <c r="G245" t="n">
-        <v>-176690.51181571</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>249</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8752,24 +7909,15 @@
         <v>4000</v>
       </c>
       <c r="G246" t="n">
-        <v>-176690.51181571</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>249</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8791,24 +7939,15 @@
         <v>798</v>
       </c>
       <c r="G247" t="n">
-        <v>-176690.51181571</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>249</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8830,24 +7969,15 @@
         <v>214.5317</v>
       </c>
       <c r="G248" t="n">
-        <v>-176475.98011571</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>249</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8869,24 +7999,15 @@
         <v>3680.7192</v>
       </c>
       <c r="G249" t="n">
-        <v>-180156.69931571</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>249</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8908,24 +8029,15 @@
         <v>807.4011</v>
       </c>
       <c r="G250" t="n">
-        <v>-179349.29821571</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>249</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8947,24 +8059,15 @@
         <v>443</v>
       </c>
       <c r="G251" t="n">
-        <v>-179792.29821571</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>249</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8986,24 +8089,15 @@
         <v>182.2</v>
       </c>
       <c r="G252" t="n">
-        <v>-179610.09821571</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>249</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9025,24 +8119,15 @@
         <v>968.4328</v>
       </c>
       <c r="G253" t="n">
-        <v>-180578.53101571</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>249</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9064,24 +8149,15 @@
         <v>4160.3776</v>
       </c>
       <c r="G254" t="n">
-        <v>-180578.53101571</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>249</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9103,26 +8179,15 @@
         <v>1424.1907</v>
       </c>
       <c r="G255" t="n">
-        <v>-182002.72171571</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="J255" t="n">
-        <v>249</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9144,26 +8209,15 @@
         <v>7078.2199733</v>
       </c>
       <c r="G256" t="n">
-        <v>-174924.50174241</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>248.5</v>
-      </c>
-      <c r="J256" t="n">
-        <v>249</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9185,26 +8239,15 @@
         <v>1047.3141</v>
       </c>
       <c r="G257" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="J257" t="n">
-        <v>249</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9226,24 +8269,15 @@
         <v>364.834</v>
       </c>
       <c r="G258" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>249</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9265,24 +8299,15 @@
         <v>4966</v>
       </c>
       <c r="G259" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>249</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9304,24 +8329,15 @@
         <v>1203.0418</v>
       </c>
       <c r="G260" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>249</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9343,24 +8359,15 @@
         <v>273.0519</v>
       </c>
       <c r="G261" t="n">
-        <v>-175971.81584241</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>249</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9382,24 +8389,15 @@
         <v>341.8618</v>
       </c>
       <c r="G262" t="n">
-        <v>-176313.67764241</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>249</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9421,26 +8419,15 @@
         <v>114.1185</v>
       </c>
       <c r="G263" t="n">
-        <v>-176199.55914241</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="J263" t="n">
-        <v>249</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9462,26 +8449,15 @@
         <v>390.9872</v>
       </c>
       <c r="G264" t="n">
-        <v>-176199.55914241</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>250</v>
-      </c>
-      <c r="J264" t="n">
-        <v>249</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9503,26 +8479,15 @@
         <v>526.052</v>
       </c>
       <c r="G265" t="n">
-        <v>-176199.55914241</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>250</v>
-      </c>
-      <c r="J265" t="n">
-        <v>249</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9544,26 +8509,15 @@
         <v>4201.14399363</v>
       </c>
       <c r="G266" t="n">
-        <v>-171998.41514878</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>250</v>
-      </c>
-      <c r="J266" t="n">
-        <v>249</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9585,24 +8539,15 @@
         <v>776.3459</v>
       </c>
       <c r="G267" t="n">
-        <v>-172774.76104878</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>249</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9624,26 +8569,15 @@
         <v>159.0477</v>
       </c>
       <c r="G268" t="n">
-        <v>-172774.76104878</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>250</v>
-      </c>
-      <c r="J268" t="n">
-        <v>249</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9665,26 +8599,15 @@
         <v>1000</v>
       </c>
       <c r="G269" t="n">
-        <v>-172774.76104878</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>250</v>
-      </c>
-      <c r="J269" t="n">
-        <v>249</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9706,24 +8629,15 @@
         <v>12.5394</v>
       </c>
       <c r="G270" t="n">
-        <v>-172762.22164878</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>249</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9745,24 +8659,15 @@
         <v>11978.5342</v>
       </c>
       <c r="G271" t="n">
-        <v>-184740.75584878</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>249</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9784,24 +8689,15 @@
         <v>529.9</v>
       </c>
       <c r="G272" t="n">
-        <v>-184210.85584878</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>249</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9823,26 +8719,15 @@
         <v>326</v>
       </c>
       <c r="G273" t="n">
-        <v>-184210.85584878</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>250</v>
-      </c>
-      <c r="J273" t="n">
-        <v>249</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9864,26 +8749,15 @@
         <v>408.6025</v>
       </c>
       <c r="G274" t="n">
-        <v>-183802.25334878</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>250</v>
-      </c>
-      <c r="J274" t="n">
-        <v>249</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9905,24 +8779,15 @@
         <v>2142.6427</v>
       </c>
       <c r="G275" t="n">
-        <v>-183802.25334878</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>249</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9944,26 +8809,15 @@
         <v>1711.5134</v>
       </c>
       <c r="G276" t="n">
-        <v>-182090.73994878</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="J276" t="n">
-        <v>249</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9985,26 +8839,15 @@
         <v>5736.9793</v>
       </c>
       <c r="G277" t="n">
-        <v>-176353.76064878</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="J277" t="n">
-        <v>249</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10026,24 +8869,15 @@
         <v>5626.0309</v>
       </c>
       <c r="G278" t="n">
-        <v>-181979.79154878</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>249</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10065,24 +8899,15 @@
         <v>50</v>
       </c>
       <c r="G279" t="n">
-        <v>-182029.79154878</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>249</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10104,26 +8929,15 @@
         <v>100</v>
       </c>
       <c r="G280" t="n">
-        <v>-181929.79154878</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="J280" t="n">
-        <v>249</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10145,26 +8959,15 @@
         <v>1913.559</v>
       </c>
       <c r="G281" t="n">
-        <v>-180016.23254878</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="J281" t="n">
-        <v>249</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10186,24 +8989,15 @@
         <v>48.9234</v>
       </c>
       <c r="G282" t="n">
-        <v>-180016.23254878</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>249</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10225,24 +9019,15 @@
         <v>237.2802</v>
       </c>
       <c r="G283" t="n">
-        <v>-180016.23254878</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>249</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10264,26 +9049,15 @@
         <v>1031.4634</v>
       </c>
       <c r="G284" t="n">
-        <v>-178984.76914878</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="J284" t="n">
-        <v>249</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10305,24 +9079,15 @@
         <v>135.7264</v>
       </c>
       <c r="G285" t="n">
-        <v>-179120.49554878</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>249</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10344,24 +9109,15 @@
         <v>772.7117</v>
       </c>
       <c r="G286" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>249</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10383,24 +9139,15 @@
         <v>570.8425</v>
       </c>
       <c r="G287" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>249</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10422,24 +9169,15 @@
         <v>600</v>
       </c>
       <c r="G288" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>249</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10461,24 +9199,15 @@
         <v>360.108</v>
       </c>
       <c r="G289" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>249</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10500,24 +9229,15 @@
         <v>1471.7962</v>
       </c>
       <c r="G290" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>249</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10539,24 +9259,15 @@
         <v>286.6859</v>
       </c>
       <c r="G291" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>249</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10578,24 +9289,15 @@
         <v>224.8361</v>
       </c>
       <c r="G292" t="n">
-        <v>-178347.78384878</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>249</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10617,24 +9319,15 @@
         <v>4264.9895</v>
       </c>
       <c r="G293" t="n">
-        <v>-174082.79434878</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>249</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10656,24 +9349,15 @@
         <v>2041.3456</v>
       </c>
       <c r="G294" t="n">
-        <v>-174082.79434878</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>249</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10695,24 +9379,15 @@
         <v>183.0549</v>
       </c>
       <c r="G295" t="n">
-        <v>-173899.73944878</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>249</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10734,24 +9409,15 @@
         <v>183</v>
       </c>
       <c r="G296" t="n">
-        <v>-174082.73944878</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>249</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10773,24 +9439,15 @@
         <v>220</v>
       </c>
       <c r="G297" t="n">
-        <v>-174302.73944878</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>249</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10812,24 +9469,15 @@
         <v>2</v>
       </c>
       <c r="G298" t="n">
-        <v>-174300.73944878</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>249</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10851,24 +9499,15 @@
         <v>528.9962</v>
       </c>
       <c r="G299" t="n">
-        <v>-174829.73564878</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>249</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10890,26 +9529,15 @@
         <v>3.307e-05</v>
       </c>
       <c r="G300" t="n">
-        <v>-174829.73561571</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="J300" t="n">
-        <v>249</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10931,26 +9559,15 @@
         <v>509.059</v>
       </c>
       <c r="G301" t="n">
-        <v>-174320.67661571</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="J301" t="n">
-        <v>249</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10972,24 +9589,15 @@
         <v>2492.5187</v>
       </c>
       <c r="G302" t="n">
-        <v>-171828.15791571</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>249</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11011,24 +9619,15 @@
         <v>1203.64855446</v>
       </c>
       <c r="G303" t="n">
-        <v>-170624.50936125</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>249</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11050,24 +9649,15 @@
         <v>805.65814554</v>
       </c>
       <c r="G304" t="n">
-        <v>-171430.16750679</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>249</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1.013473895582329</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11089,18 +9679,15 @@
         <v>7</v>
       </c>
       <c r="G305" t="n">
-        <v>-171437.16750679</v>
-      </c>
-      <c r="H305" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11122,18 +9709,15 @@
         <v>1203.6486</v>
       </c>
       <c r="G306" t="n">
-        <v>-172640.8161067899</v>
-      </c>
-      <c r="H306" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11155,18 +9739,15 @@
         <v>1621.5</v>
       </c>
       <c r="G307" t="n">
-        <v>-171019.3161067899</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11188,18 +9769,15 @@
         <v>453.2499</v>
       </c>
       <c r="G308" t="n">
-        <v>-171019.3161067899</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11221,18 +9799,15 @@
         <v>2825.2</v>
       </c>
       <c r="G309" t="n">
-        <v>-168194.1161067899</v>
-      </c>
-      <c r="H309" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11254,18 +9829,15 @@
         <v>349.4109</v>
       </c>
       <c r="G310" t="n">
-        <v>-168543.5270067899</v>
-      </c>
-      <c r="H310" t="n">
         <v>2</v>
       </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11287,18 +9859,15 @@
         <v>52.0178</v>
       </c>
       <c r="G311" t="n">
-        <v>-168543.5270067899</v>
-      </c>
-      <c r="H311" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11320,18 +9889,15 @@
         <v>5707.7745</v>
       </c>
       <c r="G312" t="n">
-        <v>-174251.3015067899</v>
-      </c>
-      <c r="H312" t="n">
         <v>2</v>
       </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11353,18 +9919,15 @@
         <v>15416.3866</v>
       </c>
       <c r="G313" t="n">
-        <v>-158834.9149067899</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11386,18 +9949,15 @@
         <v>1498.1792</v>
       </c>
       <c r="G314" t="n">
-        <v>-158834.9149067899</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11419,18 +9979,15 @@
         <v>4606.321</v>
       </c>
       <c r="G315" t="n">
-        <v>-163441.2359067899</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11452,18 +10009,15 @@
         <v>14883.10286326</v>
       </c>
       <c r="G316" t="n">
-        <v>-178324.3387700499</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11485,18 +10039,15 @@
         <v>2733.96532968</v>
       </c>
       <c r="G317" t="n">
-        <v>-175590.3734403699</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11518,18 +10069,15 @@
         <v>1947.6947</v>
       </c>
       <c r="G318" t="n">
-        <v>-177538.0681403699</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11551,18 +10099,15 @@
         <v>526.7523</v>
       </c>
       <c r="G319" t="n">
-        <v>-177538.0681403699</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11584,18 +10129,15 @@
         <v>3347.1407</v>
       </c>
       <c r="G320" t="n">
-        <v>-174190.9274403699</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11617,18 +10159,15 @@
         <v>2941.6836</v>
       </c>
       <c r="G321" t="n">
-        <v>-171249.2438403699</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11650,18 +10189,15 @@
         <v>15955.0777</v>
       </c>
       <c r="G322" t="n">
-        <v>-155294.1661403699</v>
-      </c>
-      <c r="H322" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11683,18 +10219,15 @@
         <v>136.872</v>
       </c>
       <c r="G323" t="n">
-        <v>-155431.0381403699</v>
-      </c>
-      <c r="H323" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11716,18 +10249,15 @@
         <v>5</v>
       </c>
       <c r="G324" t="n">
-        <v>-155426.0381403699</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
